--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06355802365987898</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01439657451750714</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001426926419872188</v>
+        <v>0.001401399901438991</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000782308983892879</v>
+        <v>0.0007936548224093439</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001386228438990479</v>
+        <v>0.005317711752054283</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007850007344514159</v>
+        <v>0.0007784665054633748</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004999999999999977</v>
+        <v>0.0063286617134094</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001095668859649117</v>
+        <v>0.0007775329062573545</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004915967644350316</v>
+        <v>0.001401399901438991</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007218585827561463</v>
+        <v>0.0007936548224093439</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002804642640295736</v>
+        <v>0.002468978810416758</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001564617967785758</v>
+        <v>0.001587309644818688</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00263979709258054</v>
+        <v>0.009965112560709338</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001570001468902832</v>
+        <v>0.00155693301092675</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006441628304219155</v>
+        <v>0.01277820790922013</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001474652224875615</v>
+        <v>0.001555065812514709</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01095823794966244</v>
+        <v>0.002468978810416758</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001443717165512293</v>
+        <v>0.001587309644818688</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00210014088365567</v>
+        <v>0.003762647676236887</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002346926951678637</v>
+        <v>0.002380964467228032</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003821914066877742</v>
+        <v>0.01447441019461476</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002355002203354248</v>
+        <v>0.002335399516390124</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.008662059408245298</v>
+        <v>0.01848893449233896</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002211978337313422</v>
+        <v>0.002332598718772063</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01400000000000001</v>
+        <v>0.003762647676236887</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001900747282608697</v>
+        <v>0.002380964467228032</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00328041337233706</v>
+        <v>0.005042317448202945</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003129235935571516</v>
+        <v>0.003174619289637376</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004993787467989626</v>
+        <v>0.01877781242241991</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003140002937805664</v>
+        <v>0.003113866021853499</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01177433282609378</v>
+        <v>0.02430113736767275</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002949304449751229</v>
+        <v>0.003110131625029418</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01965680957600813</v>
+        <v>0.005042317448202945</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002887434331024585</v>
+        <v>0.003174619289637376</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.003747187499999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.003747187499999999</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
+        <v>0.02230752701277436</v>
+      </c>
+      <c r="K70" s="171" t="n">
+        <v>0.003892332527316874</v>
+      </c>
+      <c r="L70" s="172" t="n">
+        <v>0.02900000000000003</v>
+      </c>
+      <c r="M70" s="170" t="n">
+        <v>0.003937262228260873</v>
+      </c>
+      <c r="N70" s="171" t="n">
         <v>0.005999999999999998</v>
       </c>
-      <c r="K70" s="171" t="n">
+      <c r="O70" s="172" t="n">
         <v>0.003747187499999999</v>
-      </c>
-      <c r="L70" s="172" t="n">
-        <v>0.01398228660751846</v>
-      </c>
-      <c r="M70" s="170" t="n">
-        <v>0.003686630562189036</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.0230535413452938</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.003609292913780732</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007202456653546935</v>
+        <v>0.007128208242988245</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004693853903357274</v>
+        <v>0.004761928934456064</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007039889401712435</v>
+        <v>0.0249957617343276</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004710004406708495</v>
+        <v>0.004670799032780249</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01658975880227315</v>
+        <v>0.03173113380740455</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004423956674626844</v>
+        <v>0.004665197437544126</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02705534837387241</v>
+        <v>0.007128208242988245</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004331151496536879</v>
+        <v>0.004761928934456064</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008012711760251728</v>
+        <v>0.007942189035439022</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005476162887250152</v>
+        <v>0.005555583756865407</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007991683657813699</v>
+        <v>0.02727472435572906</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495005141159912</v>
+        <v>0.005449265538243623</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01890058746011172</v>
+        <v>0.03540579265777777</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005161282787064651</v>
+        <v>0.005442730343801481</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03017058795368005</v>
+        <v>0.007942189035439022</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005053010079293025</v>
+        <v>0.005555583756865407</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00875749127913357</v>
+        <v>0.008817335829959312</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006258471871143032</v>
+        <v>0.006349238579274752</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008785218951516509</v>
+        <v>0.02899999999999997</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006280005875611327</v>
+        <v>0.006098116582491575</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02121861063078798</v>
+        <v>0.03858422999972655</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005898608899502458</v>
+        <v>0.006220263250058836</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03340761737665299</v>
+        <v>0.008817335829959312</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005774868662049171</v>
+        <v>0.006349238579274752</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009449950371780098</v>
+        <v>0.009755567267335688</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007040780855035911</v>
+        <v>0.007142893401684095</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009331118506116301</v>
+        <v>0.03010187329489317</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007065006610062742</v>
+        <v>0.007006198549170373</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02314766636405577</v>
+        <v>0.04117011934177228</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006635935011940266</v>
+        <v>0.00699779615631619</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03717479393472745</v>
+        <v>0.009755567267335688</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006496727244805317</v>
+        <v>0.007142893401684095</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01010324419977893</v>
+        <v>0.01055880198835468</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007823089838928789</v>
+        <v>0.00793654822409344</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01004000554490848</v>
+        <v>0.03029503511150936</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007850007344514158</v>
+        <v>0.007784665054633749</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02479159270966896</v>
+        <v>0.04386713419243654</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007373261124378073</v>
+        <v>0.007775329062573545</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03938047491983987</v>
+        <v>0.01055880198835468</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007218585827561463</v>
+        <v>0.00793654822409344</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.00973052792471768</v>
+        <v>0.01112895863380279</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008605398822821669</v>
+        <v>0.008730203046502783</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01092250329118845</v>
+        <v>0.03128268953743615</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008635008078965575</v>
+        <v>0.008563131560097123</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02675422771738131</v>
+        <v>0.04567894806024075</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00811058723681588</v>
+        <v>0.008552861968830899</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04243301762392632</v>
+        <v>0.01112895863380279</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007940444410317609</v>
+        <v>0.008730203046502783</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01134495670818399</v>
+        <v>0.01186795584446661</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009387707806714548</v>
+        <v>0.009523857868912128</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01128923496825163</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009420008813416991</v>
+        <v>0.009704007800025749</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02913940943694671</v>
+        <v>0.0484710128920724</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008847913349253687</v>
+        <v>0.009401137351009965</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04534077933892311</v>
+        <v>0.01186795584446661</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008662302993073757</v>
+        <v>0.009523857868912128</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009959685711765462</v>
+        <v>0.01257771226113265</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01017001679060743</v>
+        <v>0.01031751269132147</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01195082379939346</v>
+        <v>0.03209618174536083</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01020500954786841</v>
+        <v>0.01012006457102387</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03065097591811894</v>
+        <v>0.04987178259545494</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009585239461691495</v>
+        <v>0.01010792778134561</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0484710128920724</v>
+        <v>0.01257771226113265</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009401137351009965</v>
+        <v>0.01031751269132147</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01158787009704973</v>
+        <v>0.01346014652458741</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0109523257745003</v>
+        <v>0.01111116751373081</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01291789300790934</v>
+        <v>0.03315728568063539</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01099001028231982</v>
+        <v>0.01089853107648725</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.05112248119145679</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0101125976021321</v>
+        <v>0.01088546068760296</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05084195474562581</v>
+        <v>0.01346014652458741</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01010602015858605</v>
+        <v>0.01111116751373081</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.0142171772756175</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01190482233614016</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0133010658170947</v>
+        <v>0.03395103051212478</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01177501101677124</v>
+        <v>0.01167699758195062</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0344654607022819</v>
+        <v>0.05296102744515641</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01105989168656711</v>
+        <v>0.01166299359386032</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05271844445577339</v>
+        <v>0.0142171772756175</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0108278787413422</v>
+        <v>0.01190482233614016</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01294121688954424</v>
+        <v>0.0148507231550094</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01251694374228606</v>
+        <v>0.0126984771585495</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01421096545024492</v>
+        <v>0.03497496157787233</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01256001175122265</v>
+        <v>0.012455464087414</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0357741808647758</v>
+        <v>0.054886008407866</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01179721779900492</v>
+        <v>0.01244052650011767</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05582671266967337</v>
+        <v>0.0148507231550094</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01154973732409834</v>
+        <v>0.0126984771585495</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01270707096354368</v>
+        <v>0.01536270280354969</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01329925272617894</v>
+        <v>0.01349213198095885</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01495821513065544</v>
+        <v>0.03542662421592147</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01334501248567407</v>
+        <v>0.01323393059287737</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03821112654206785</v>
+        <v>0.05669601113089756</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01253454391144272</v>
+        <v>0.01321805940637503</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05815183321583328</v>
+        <v>0.01536270280354969</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01227159590685449</v>
+        <v>0.01349213198095885</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01353118122105718</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01408156171007182</v>
+        <v>0.01439657451750714</v>
       </c>
       <c r="J83" t="n">
+        <v>0.03640356376431544</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01401239709834075</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.05838962266556336</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.01399559231263238</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.01613626565885214</v>
       </c>
-      <c r="K83" t="n">
+      <c r="O83" t="n">
         <v>0.01439657451750714</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.03986351605378449</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.01327187002388053</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.06087887992276098</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.01299345448961063</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01440062217287533</v>
+        <v>0.01663904713782544</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0148638706939647</v>
+        <v>0.01507944162577753</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01662689237831048</v>
+        <v>0.03730332556109772</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0149150139545769</v>
+        <v>0.01479086360380412</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04191856771955207</v>
+        <v>0.05966543006317554</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01400919613631834</v>
+        <v>0.01477312521888973</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06399292661896383</v>
+        <v>0.01663904713782544</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01371531307236678</v>
+        <v>0.01507944162577753</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0173024683297887</v>
+        <v>0.01723053251413607</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01564617967785758</v>
+        <v>0.01587309644818688</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01773662701031024</v>
+        <v>0.03842345494431165</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01570001468902832</v>
+        <v>0.0155693301092675</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04356349985899702</v>
+        <v>0.0611220203750461</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01474652224875615</v>
+        <v>0.01555065812514709</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06587904713294979</v>
+        <v>0.01723053251413607</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01443717165512293</v>
+        <v>0.01587309644818688</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01722379420258785</v>
+        <v>0.01772839374174122</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01642848866175046</v>
+        <v>0.01666675127059622</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01856050216628598</v>
+        <v>0.03936149725200053</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01648501542347973</v>
+        <v>0.01634779661473087</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04508553079174568</v>
+        <v>0.0635579806524873</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01548384836119395</v>
+        <v>0.01632819103140444</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06832231529322624</v>
+        <v>0.01772839374174122</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01515903023787907</v>
+        <v>0.01666675127059622</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01815167430206334</v>
+        <v>0.01843127527454555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01721079764564334</v>
+        <v>0.01746040609300557</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01997044365936179</v>
+        <v>0.04001499782220774</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01727001615793115</v>
+        <v>0.01712626312019425</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0473718788374245</v>
+        <v>0.06507189794681123</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01622117447363176</v>
+        <v>0.0171057239376618</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07130780492830091</v>
+        <v>0.01843127527454555</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01588088882063522</v>
+        <v>0.01746040609300557</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01807318313900576</v>
+        <v>0.01903782156645373</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01799310662953622</v>
+        <v>0.01825406091541491</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02103837730266188</v>
+        <v>0.04128150199297667</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01805501689238256</v>
+        <v>0.01790472962565762</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04890976231565983</v>
+        <v>0.06686235930933004</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01695850058606957</v>
+        <v>0.01788325684391915</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07352058986668153</v>
+        <v>0.01903782156645373</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01660274740339137</v>
+        <v>0.01825406091541491</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01997539522420568</v>
+        <v>0.01944667707137039</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0187754156134291</v>
+        <v>0.01904771573782426</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0224362289093103</v>
+        <v>0.04225855510235066</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01884001762683398</v>
+        <v>0.018683196131121</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05068639954607809</v>
+        <v>0.06782795179135587</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01769582669850737</v>
+        <v>0.0186607897501765</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07554574393687563</v>
+        <v>0.01944667707137039</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01732460598614751</v>
+        <v>0.01904771573782426</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01984538506845366</v>
+        <v>0.02015648624320021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01955772459732198</v>
+        <v>0.0198413705602336</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0238359242924312</v>
+        <v>0.04324370248837303</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01962501836128539</v>
+        <v>0.01946166263658437</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05218900884830563</v>
+        <v>0.06986726244420088</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01843315281094518</v>
+        <v>0.01943832265643386</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07806834096739113</v>
+        <v>0.02015648624320021</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01804646456890366</v>
+        <v>0.0198413705602336</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02267022718254025</v>
+        <v>0.02076589353584783</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02034003358121485</v>
+        <v>0.02063502538264294</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02520938926514872</v>
+        <v>0.04413448948908719</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02041001909573681</v>
+        <v>0.02024012914204774</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05360480854196892</v>
+        <v>0.07107887831917714</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01917047892338299</v>
+        <v>0.02021585556269121</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08037345478673535</v>
+        <v>0.02076589353584783</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01876832315165981</v>
+        <v>0.02063502538264294</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02143699607725607</v>
+        <v>0.02127354340321792</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02112234256510773</v>
+        <v>0.02142868020505229</v>
       </c>
       <c r="J92" t="n">
-        <v>0.026128549640587</v>
+        <v>0.04542846144253648</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02119501983018823</v>
+        <v>0.02101859564751112</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05532101694669428</v>
+        <v>0.07286138646759682</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0199078050358208</v>
+        <v>0.02099338846894857</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08214615922341612</v>
+        <v>0.02127354340321792</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01949018173441595</v>
+        <v>0.02142868020505229</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02213276626339163</v>
+        <v>0.02187808029921512</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02190465154900061</v>
+        <v>0.02222233502746163</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02736533123187014</v>
+        <v>0.0462231636867643</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02198002056463965</v>
+        <v>0.02179706215297449</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05622485238210814</v>
+        <v>0.0738133739407722</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0206451311482586</v>
+        <v>0.02177092137520592</v>
       </c>
       <c r="N93" t="n">
-        <v>0.083971528105941</v>
+        <v>0.02187808029921512</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0202120403171721</v>
+        <v>0.02222233502746163</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02274461225173755</v>
+        <v>0.02247814867774411</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02268696053289349</v>
+        <v>0.02301598984987098</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02839165985212228</v>
+        <v>0.04731614155981392</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02276502129909106</v>
+        <v>0.02257552865843787</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05780353316783687</v>
+        <v>0.0756334277900152</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02138245726069641</v>
+        <v>0.02254845428146328</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08613463526281773</v>
+        <v>0.02247814867774411</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02093389889992824</v>
+        <v>0.02301598984987098</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02325960855308438</v>
+        <v>0.02297239299270955</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02346926951678637</v>
+        <v>0.02380964467228032</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02917946131446758</v>
+        <v>0.04840494039972876</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02355002203354248</v>
+        <v>0.02335399516390124</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05884427762350691</v>
+        <v>0.07642013506663803</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02211978337313422</v>
+        <v>0.02332598718772063</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08762055452255396</v>
+        <v>0.02297239299270955</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02165575748268439</v>
+        <v>0.02380964467228032</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02366482967822269</v>
+        <v>0.02375945769801606</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02425157850067925</v>
+        <v>0.02460329949468966</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03000066143203012</v>
+        <v>0.04938710554455217</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02433502276799389</v>
+        <v>0.02413246166936462</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0595343040687446</v>
+        <v>0.07847208282195295</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02285710948557202</v>
+        <v>0.02410352009397799</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08881435971365725</v>
+        <v>0.02375945769801606</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02237761606544054</v>
+        <v>0.02460329949468966</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02494735013794306</v>
+        <v>0.02443798724756832</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02503388748457213</v>
+        <v>0.02539695431709901</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03042718601793407</v>
+        <v>0.0498601823323275</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02512002350244531</v>
+        <v>0.02491092817482799</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06046083082317638</v>
+        <v>0.07908785810727192</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02359443559800983</v>
+        <v>0.02488105300023534</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08950112466463528</v>
+        <v>0.02443798724756832</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02309947464819668</v>
+        <v>0.02539695431709901</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02409424444303603</v>
+        <v>0.02480662609527098</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02581619646846501</v>
+        <v>0.02619060913950835</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03103096088530352</v>
+        <v>0.05132171610109812</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02590502423689672</v>
+        <v>0.02568939468029137</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06071107620642857</v>
+        <v>0.08116604797390725</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02433176171044764</v>
+        <v>0.0256585859064927</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09056592320399576</v>
+        <v>0.02480662609527098</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02382133323095283</v>
+        <v>0.02619060913950835</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02510672192489471</v>
+        <v>0.02556401869502874</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02659850545235789</v>
+        <v>0.02698426396191769</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03089123375414365</v>
+        <v>0.05196925218890738</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02669002497134814</v>
+        <v>0.02646786118575474</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06117225853812761</v>
+        <v>0.08190523947317097</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02506908782288545</v>
+        <v>0.02643611881275005</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09149382916024634</v>
+        <v>0.02556401869502874</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02454319181370898</v>
+        <v>0.02698426396191769</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02606079196364449</v>
+        <v>0.02610880950074621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02738081443625076</v>
+        <v>0.02777791878432704</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03090874852182754</v>
+        <v>0.05300033593379866</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02747502570579956</v>
+        <v>0.02724632769121812</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06133159613789993</v>
+        <v>0.08310401965637521</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02580641393532326</v>
+        <v>0.0272136517190074</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09136991636189468</v>
+        <v>0.02610880950074621</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02526505039646512</v>
+        <v>0.02777791878432704</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02597341624908841</v>
+        <v>0.02633964296632804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02816312342014364</v>
+        <v>0.02857157360673638</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03063454213707115</v>
+        <v>0.05401251267381532</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02826002644025097</v>
+        <v>0.02802479419668149</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06145591830901745</v>
+        <v>0.08386097557483219</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02654374004776106</v>
+        <v>0.02799118462526476</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09137986956178651</v>
+        <v>0.02633964296632804</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02598690897922127</v>
+        <v>0.02857157360673638</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02584891282016392</v>
+        <v>0.02715516354567891</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02894543240403652</v>
+        <v>0.02936522842914573</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03038239277621269</v>
+        <v>0.05480332774700064</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02904502717470239</v>
+        <v>0.02880326070214487</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06050909368979421</v>
+        <v>0.08517469427985397</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02728106616019887</v>
+        <v>0.02876871753152211</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09148224628755147</v>
+        <v>0.02715516354567891</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02670876756197742</v>
+        <v>0.02936522842914573</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0246915997158085</v>
+        <v>0.02735401569270349</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0297277413879294</v>
+        <v>0.03015888325155507</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03006607861559037</v>
+        <v>0.0552703264913981</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0298300279091538</v>
+        <v>0.02958172720760824</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06042759594859951</v>
+        <v>0.08614376282275266</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02801839227263668</v>
+        <v>0.02954625043777947</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09113199802912303</v>
+        <v>0.02735401569270349</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02743062614473356</v>
+        <v>0.03015888325155507</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02550579497495963</v>
+        <v>0.02803484386130639</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03051005037182228</v>
+        <v>0.03095253807396441</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02979937783154236</v>
+        <v>0.05621105424505093</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03061502864360522</v>
+        <v>0.03036019371307161</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05975071959033987</v>
+        <v>0.08736676825484058</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02875571838507449</v>
+        <v>0.03032378334403682</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09074168540563177</v>
+        <v>0.02803484386130639</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02815248472748971</v>
+        <v>0.03095253807396441</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02329581663655479</v>
+        <v>0.02829629250539233</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03129235935571516</v>
+        <v>0.03174619289637376</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02919606860040688</v>
+        <v>0.05732305634600263</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03140002937805663</v>
+        <v>0.03113866021853499</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05861775911992204</v>
+        <v>0.08874229762742969</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02949304449751229</v>
+        <v>0.03110131625029418</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09052386903620818</v>
+        <v>0.02829629250539233</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02887434331024585</v>
+        <v>0.03174619289637376</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02506598273953144</v>
+        <v>0.02873700607886592</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03207466833960804</v>
+        <v>0.0325398477187831</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02876992909852212</v>
+        <v>0.05770387813229647</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03218503011250805</v>
+        <v>0.03191712672399837</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05736800904225248</v>
+        <v>0.08956893799183213</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0302303706099501</v>
+        <v>0.03187884915655154</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08919110953998266</v>
+        <v>0.02873700607886592</v>
       </c>
       <c r="O106" t="n">
-        <v>0.029596201893002</v>
+        <v>0.0325398477187831</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02282061132282707</v>
+        <v>0.02945562903563181</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03285697732350092</v>
+        <v>0.03333350254119245</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02863473750222627</v>
+        <v>0.05905106494197576</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03297003084695947</v>
+        <v>0.03269559322946174</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05624076386223784</v>
+        <v>0.09004527639936027</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03096769672238791</v>
+        <v>0.03265638206280889</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08905596753608586</v>
+        <v>0.02945562903563181</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03031806047575815</v>
+        <v>0.03333350254119245</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02256402042537913</v>
+        <v>0.02975080582959472</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0336392863073938</v>
+        <v>0.03412715736360179</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02810427198785755</v>
+        <v>0.059162162113084</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03375503158141088</v>
+        <v>0.03347405973492511</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05517531808478471</v>
+        <v>0.09086989990132599</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03170502283482571</v>
+        <v>0.03343391496906625</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08773100364364816</v>
+        <v>0.02975080582959472</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03103991905851429</v>
+        <v>0.03412715736360179</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02330052808612514</v>
+        <v>0.03012118091465923</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03442159529128667</v>
+        <v>0.03492081218601113</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02759231073175412</v>
+        <v>0.06033471498366441</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0345400323158623</v>
+        <v>0.03425252624038849</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05371096621479965</v>
+        <v>0.09174139554904148</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03244234894726352</v>
+        <v>0.0342114478753236</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08682877848180015</v>
+        <v>0.03012118091465923</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03176177764127044</v>
+        <v>0.03492081218601113</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02203445234400251</v>
+        <v>0.03046539874473006</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03520390427517955</v>
+        <v>0.03571446700842048</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02731263191025424</v>
+        <v>0.06066626889176044</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03532503305031371</v>
+        <v>0.03503099274585186</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05288700275718924</v>
+        <v>0.09225835039381891</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03317967505970133</v>
+        <v>0.03498898078158095</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08636185266967228</v>
+        <v>0.03046539874473006</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03248363622402659</v>
+        <v>0.03571446700842048</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02177011123794877</v>
+        <v>0.03058210377371183</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03598621325907243</v>
+        <v>0.03650812183082982</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02687901369969604</v>
+        <v>0.06165436917541539</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03611003378476513</v>
+        <v>0.03580945925131523</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0517427222168601</v>
+        <v>0.09301935148697055</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03391700117213913</v>
+        <v>0.03576651368783831</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08564278682639498</v>
+        <v>0.03058210377371183</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03320549480678273</v>
+        <v>0.03650812183082982</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02351182280690137</v>
+        <v>0.03116994045550918</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03676852224296531</v>
+        <v>0.03730177665323917</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02650523427641778</v>
+        <v>0.06179656117267268</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03689503451921654</v>
+        <v>0.03658792575677862</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05111741909871884</v>
+        <v>0.09352298587980823</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03465432728457694</v>
+        <v>0.03654404659409566</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0839841415710989</v>
+        <v>0.03116994045550918</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03392735338953887</v>
+        <v>0.03730177665323917</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02226390508979777</v>
+        <v>0.03122755324402682</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03755083122685819</v>
+        <v>0.03809543147564851</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0266050718167576</v>
+        <v>0.06259039022157567</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03768003525366796</v>
+        <v>0.03736639226224199</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05035038790767202</v>
+        <v>0.09476784062364446</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03539165339701475</v>
+        <v>0.03732157950035301</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0833984775229144</v>
+        <v>0.03122755324402682</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03464921197229503</v>
+        <v>0.03809543147564851</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02303067612557547</v>
+        <v>0.03145358659316938</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03833314021075107</v>
+        <v>0.03888908629805785</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02619230449705374</v>
+        <v>0.06273340166016764</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03846503598811938</v>
+        <v>0.03814485876770537</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04948092314862623</v>
+        <v>0.09535250276979107</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03612897950945256</v>
+        <v>0.03809911240661037</v>
       </c>
       <c r="N114" t="n">
-        <v>0.082398355300972</v>
+        <v>0.03145358659316938</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03537107055505117</v>
+        <v>0.03888908629805785</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02281645395317194</v>
+        <v>0.03154668495684153</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03911544919464395</v>
+        <v>0.03968274112046719</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02617523956128129</v>
+        <v>0.063223140826492</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03925003672257079</v>
+        <v>0.03892332527316874</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04914831932648803</v>
+        <v>0.09517555936956035</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03686630562189036</v>
+        <v>0.03887664531286772</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08099633552440222</v>
+        <v>0.03154668495684153</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03609292913780732</v>
+        <v>0.03968274112046719</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02162555661152463</v>
+        <v>0.0320054927889479</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03989775817853683</v>
+        <v>0.04047639594287654</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02650884088444733</v>
+        <v>0.0633571530585921</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04003503745702221</v>
+        <v>0.03970179177863211</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0492812139036275</v>
+        <v>0.09593559747426444</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03760363173432817</v>
+        <v>0.03965417821912507</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0794049788123356</v>
+        <v>0.0320054927889479</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03681478772056346</v>
+        <v>0.04047639594287654</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02246230213957105</v>
+        <v>0.03182865454339318</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04068006716242971</v>
+        <v>0.04127005076528589</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0263779278094812</v>
+        <v>0.06353298369451132</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04082003819147362</v>
+        <v>0.04048025828409549</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0491443414938495</v>
+        <v>0.09583120413521545</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03834095784676598</v>
+        <v>0.04043171112538243</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07843684578390259</v>
+        <v>0.03182865454339318</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03753664630331961</v>
+        <v>0.04127005076528589</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02233100857624864</v>
+        <v>0.031914814674082</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04146237614632259</v>
+        <v>0.04206370558769523</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02657988611445482</v>
+        <v>0.06374817807229299</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04160503892592504</v>
+        <v>0.04125872478955886</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04938170485594656</v>
+        <v>0.09576096640372544</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03907828395920378</v>
+        <v>0.04120924403163978</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07740449705823371</v>
+        <v>0.031914814674082</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03825850488607576</v>
+        <v>0.04206370558769523</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02123599396049491</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04224468513021547</v>
+        <v>0.04285736041010457</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02651210157744008</v>
+        <v>0.0645002815299805</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04239003966037645</v>
+        <v>0.04203719129502224</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04938851921980161</v>
+        <v>0.09652347133110672</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0398156100716416</v>
+        <v>0.04198677693789714</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07632049325445933</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0389803634688319</v>
+        <v>0.04285736041010457</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02218157633124729</v>
+        <v>0.03217220047672932</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04302699411410835</v>
+        <v>0.04365101523251392</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02677195997650889</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04317504039482787</v>
+        <v>0.04281565780048562</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0498599998152976</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0405529361840794</v>
+        <v>0.04276430984415449</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07549739499171015</v>
+        <v>0.03217220047672932</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03970222205158805</v>
+        <v>0.04365101523251392</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02217245707842733</v>
+        <v>0.03206635699202275</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04380930309800122</v>
+        <v>0.04444467005492326</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0269568470897332</v>
+        <v>0.06420667323217091</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04396004112927929</v>
+        <v>0.04359412430594899</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05009136187231741</v>
+        <v>0.09694180572570943</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04129026229651721</v>
+        <v>0.04354184275041185</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07464776288911662</v>
+        <v>0.03206635699202275</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0404240806343442</v>
+        <v>0.04444467005492326</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02221651364953398</v>
+        <v>0.03215341318595875</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04459161208189411</v>
+        <v>0.04523832487733261</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02726414869518491</v>
+        <v>0.06449037130199894</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0447450418637307</v>
+        <v>0.04437259081141236</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05077782062074407</v>
+        <v>0.09653110253145775</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04202758840895502</v>
+        <v>0.0443193756566692</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07448415756580912</v>
+        <v>0.03215341318595875</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04114593921710034</v>
+        <v>0.04523832487733261</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02231160783060211</v>
+        <v>0.03223362086886447</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04537392106578698</v>
+        <v>0.04603197969974195</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02759125057093595</v>
+        <v>0.06445241374116772</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04553004259818212</v>
+        <v>0.04515105731687574</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05121459129046044</v>
+        <v>0.09660454895678522</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04276491452139282</v>
+        <v>0.04509690856292656</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07371913964091825</v>
+        <v>0.03223362086886447</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04186779779985648</v>
+        <v>0.04603197969974195</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02245266179029175</v>
+        <v>0.03190723185106707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04615623004967986</v>
+        <v>0.04682563452215129</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02773553849505822</v>
+        <v>0.06389357063381451</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04631504333263353</v>
+        <v>0.04592952382233911</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05149688911134948</v>
+        <v>0.0959624701022313</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04350224063383062</v>
+        <v>0.04587444146918391</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0731652697335744</v>
+        <v>0.03190723185106707</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04258965638261264</v>
+        <v>0.04682563452215129</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02163459769726295</v>
+        <v>0.0320744979428937</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04693853903357274</v>
+        <v>0.04761928934456063</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02799439824562364</v>
+        <v>0.06431461206407657</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04710004406708496</v>
+        <v>0.04670799032780248</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05221992931329414</v>
+        <v>0.09640519106833567</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04423956674626844</v>
+        <v>0.04665197437544127</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07243510846290824</v>
+        <v>0.0320744979428937</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04331151496536878</v>
+        <v>0.04761928934456063</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02085233772017579</v>
+        <v>0.03203567095467152</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04772084801746562</v>
+        <v>0.04841294416696998</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02836521560070415</v>
+        <v>0.06411630811609129</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04788504480153637</v>
+        <v>0.04748645683326586</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05277892712617732</v>
+        <v>0.09653303695563792</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04497689285870624</v>
+        <v>0.04742950728169862</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07224121644805009</v>
+        <v>0.03203567095467152</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04403337354812493</v>
+        <v>0.04841294416696998</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02210080402769028</v>
+        <v>0.0318910026967277</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04850315700135849</v>
+        <v>0.04920659898937933</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02854537633837163</v>
+        <v>0.06389942887399588</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04867004553598778</v>
+        <v>0.04826492333872924</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05306909777988197</v>
+        <v>0.09654633286467768</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04571421897114405</v>
+        <v>0.04820704018795598</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07239615430813057</v>
+        <v>0.0318910026967277</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04475523213088108</v>
+        <v>0.04920659898937933</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02337491878846647</v>
+        <v>0.03194074497938938</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04928546598525138</v>
+        <v>0.05000025381178867</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02893226623669803</v>
+        <v>0.06356474442192764</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04945504627043919</v>
+        <v>0.04904338984419261</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05388565650429106</v>
+        <v>0.09604540389599447</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04645154508358186</v>
+        <v>0.04898457309421333</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07232382970370832</v>
+        <v>0.03194074497938938</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04547709071363722</v>
+        <v>0.05000025381178867</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02166960417116445</v>
+        <v>0.03188514961298372</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05006777496914425</v>
+        <v>0.05079390863419801</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02922327107375527</v>
+        <v>0.06381302484402387</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05024004700489062</v>
+        <v>0.04982185634965599</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05472381852928748</v>
+        <v>0.09613057515012807</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04718887119601967</v>
+        <v>0.04976210600047069</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07277111617614967</v>
+        <v>0.03188514961298372</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04619894929639336</v>
+        <v>0.05079390863419801</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02397978234444424</v>
+        <v>0.03172446840783787</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05085008395303713</v>
+        <v>0.05158756345660736</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02941577662761524</v>
+        <v>0.06344504022442185</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05102504773934204</v>
+        <v>0.05060032285511936</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05537879908475421</v>
+        <v>0.09620217172761808</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04792619730845747</v>
+        <v>0.05053963890672804</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07252542841338677</v>
+        <v>0.03172446840783787</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04692080787914951</v>
+        <v>0.05158756345660736</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02230037547696589</v>
+        <v>0.03175895317427899</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05163239293693002</v>
+        <v>0.0523812182790167</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02970716867634987</v>
+        <v>0.06316156064725886</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05181004847379345</v>
+        <v>0.05137878936058273</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05604581340057416</v>
+        <v>0.09536051872900403</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04866352342089528</v>
+        <v>0.0513171718129854</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07306804950044382</v>
+        <v>0.03175895317427899</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04764266646190566</v>
+        <v>0.0523812182790167</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02462630573738946</v>
+        <v>0.03158885572263424</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05241470192082289</v>
+        <v>0.05317487310142605</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0297948329980311</v>
+        <v>0.06306335619667222</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05259504920824486</v>
+        <v>0.05215725586604611</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05632007670663022</v>
+        <v>0.09560594125482552</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04940084953333309</v>
+        <v>0.05209470471924275</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07428026252234515</v>
+        <v>0.03158885572263424</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0483645250446618</v>
+        <v>0.05317487310142605</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02295249529437501</v>
+        <v>0.03161442786323078</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05319701090471577</v>
+        <v>0.05396852792383539</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0300761553707308</v>
+        <v>0.06265119695679922</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05338004994269627</v>
+        <v>0.05293572237150949</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0569968042328054</v>
+        <v>0.0956387644056223</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0501381756457709</v>
+        <v>0.05287223762550011</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07554335056411488</v>
+        <v>0.03161442786323078</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04908638362741796</v>
+        <v>0.05396852792383539</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02327386631658258</v>
+        <v>0.03133592140639574</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05397931988860866</v>
+        <v>0.05476218274624473</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03064852157252092</v>
+        <v>0.06262585301177709</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05416505067714769</v>
+        <v>0.05371418887697286</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05807121120898259</v>
+        <v>0.09525931328193388</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05087550175820871</v>
+        <v>0.05364977053175745</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07613859671077722</v>
+        <v>0.03133592140639574</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0498082422101741</v>
+        <v>0.05476218274624473</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0235853409726722</v>
+        <v>0.03145358816245632</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05476162887250152</v>
+        <v>0.05555583756865408</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03060931738147338</v>
+        <v>0.06208809444574317</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05495005141159912</v>
+        <v>0.05449265538243624</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05833851286504474</v>
+        <v>0.09536791298429981</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05161282787064651</v>
+        <v>0.05442730343801481</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07774728404735642</v>
+        <v>0.03145358816245632</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05053010079293024</v>
+        <v>0.05555583756865408</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02488184143130396</v>
+        <v>0.03116767994173963</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05554393785639441</v>
+        <v>0.05634949239106341</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03105592857566009</v>
+        <v>0.06193869134283472</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05573505214605053</v>
+        <v>0.05527112188789961</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05899392443087481</v>
+        <v>0.09486488861325987</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05235015398308431</v>
+        <v>0.05520483634427216</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07915069565887678</v>
+        <v>0.03116767994173963</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05125195937568639</v>
+        <v>0.05634949239106341</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02415828986113788</v>
+        <v>0.03107844855457285</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05632624684028729</v>
+        <v>0.05714314721347276</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03108574093315297</v>
+        <v>0.06167841378718908</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05652005288050194</v>
+        <v>0.05604958839336299</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05953266113635572</v>
+        <v>0.09415056526935356</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05308748009552212</v>
+        <v>0.05598236925052952</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08053011463036241</v>
+        <v>0.03107844855457285</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05197381795844254</v>
+        <v>0.05714314721347276</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02640960843083402</v>
+        <v>0.03118614581128312</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05710855582418016</v>
+        <v>0.05793680203588211</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03129614023202394</v>
+        <v>0.06190803186294344</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05730505361495336</v>
+        <v>0.05682805489882636</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06044993821137035</v>
+        <v>0.09482526805312064</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05382480620795994</v>
+        <v>0.05675990215678687</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08206682404683757</v>
+        <v>0.03118614581128312</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05269567654119869</v>
+        <v>0.05793680203588211</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02663071930905244</v>
+        <v>0.03099102352219761</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05789086480807305</v>
+        <v>0.05873045685829145</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0314845122503449</v>
+        <v>0.06132831565423519</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05809005434940478</v>
+        <v>0.05760652140428973</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06064097088580173</v>
+        <v>0.09398932206510052</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05456213232039774</v>
+        <v>0.05753743506304423</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0833421069933265</v>
+        <v>0.03099102352219761</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05341753512395483</v>
+        <v>0.05873045685829145</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02481654466445319</v>
+        <v>0.03089333349764349</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05867317379196593</v>
+        <v>0.0595241116807008</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0319482427661878</v>
+        <v>0.06084003524520157</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05887505508385619</v>
+        <v>0.05838498790975311</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06130097438953272</v>
+        <v>0.09404305240583288</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05529945843283555</v>
+        <v>0.05831496796930158</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08463724655485338</v>
+        <v>0.03089333349764349</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05413939370671097</v>
+        <v>0.0595241116807008</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02696200666569629</v>
+        <v>0.0306933275479479</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0594554827758588</v>
+        <v>0.06031776650311014</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03208471755762451</v>
+        <v>0.06094396071997987</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0596600558183076</v>
+        <v>0.05916345441521648</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06222516395244629</v>
+        <v>0.09368678417585746</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05603678454527335</v>
+        <v>0.05909250087555894</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08613352581644251</v>
+        <v>0.0306933275479479</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05486125228946712</v>
+        <v>0.06031776650311014</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02506202748144182</v>
+        <v>0.03059125748343798</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06023779175975168</v>
+        <v>0.06111142132551949</v>
       </c>
       <c r="J142" t="n">
-        <v>0.031891322402727</v>
+        <v>0.06044086216270741</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06044505655275902</v>
+        <v>0.05994192092067985</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06240875480442534</v>
+        <v>0.09292084247571381</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05677411065771115</v>
+        <v>0.05987003378181629</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0878122278631181</v>
+        <v>0.03059125748343798</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05558311087222327</v>
+        <v>0.06111142132551949</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.03078737511444091</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06102010074364456</v>
+        <v>0.06190507614792882</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.05983150965752143</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06123005728721044</v>
+        <v>0.06072038742614323</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06294696217535289</v>
+        <v>0.09274555240594146</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05751143677014897</v>
+        <v>0.06064756668807365</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08935463577990438</v>
+        <v>0.03078737511444091</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05630496945497942</v>
+        <v>0.06190507614792882</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02511596323458015</v>
+        <v>0.03068193225128382</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06180240972753744</v>
+        <v>0.06269873097033817</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03221780355101361</v>
+        <v>0.05981667328855922</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06201505802166185</v>
+        <v>0.06149885393160661</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06303500129511178</v>
+        <v>0.09306123906708014</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05824876288258677</v>
+        <v>0.061425099594331</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09084203265182544</v>
+        <v>0.03068193225128382</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05702682803773556</v>
+        <v>0.06269873097033817</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02611545431946707</v>
+        <v>0.03047518070429391</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06258471871143031</v>
+        <v>0.06349238579274752</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03206886912878676</v>
+        <v>0.0593971231399581</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06280005875611326</v>
+        <v>0.06227732043706999</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06376808739358497</v>
+        <v>0.09236822755966939</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05898608899502458</v>
+        <v>0.06220263250058836</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09175570156390567</v>
+        <v>0.03047518070429391</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05774868662049171</v>
+        <v>0.06349238579274752</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02511449028728117</v>
+        <v>0.03046737228379828</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06336702769532321</v>
+        <v>0.06428604061515686</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03241889909425419</v>
+        <v>0.05947362929585534</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06358505949056469</v>
+        <v>0.06305578694253336</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06404143570065543</v>
+        <v>0.0918668429842488</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05972341510746239</v>
+        <v>0.0629801654068457</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09277692560116918</v>
+        <v>0.03046737228379828</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05847054520324785</v>
+        <v>0.06428604061515686</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02511307788882083</v>
+        <v>0.03035875880012413</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06414933667921607</v>
+        <v>0.0650796954375662</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03226786466373287</v>
+        <v>0.05894696184038822</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0643700602250161</v>
+        <v>0.06383425344799673</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06445026144620608</v>
+        <v>0.09225741044135816</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0604607412199002</v>
+        <v>0.06375769831310307</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09418698784864021</v>
+        <v>0.03035875880012413</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05919240378600401</v>
+        <v>0.0650796954375662</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02611122387488444</v>
+        <v>0.0302495920635986</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06493164566310895</v>
+        <v>0.06587335025997555</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03231573705353978</v>
+        <v>0.0582178908576941</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06515506095946751</v>
+        <v>0.06461271995346012</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.09194025503153691</v>
       </c>
       <c r="M148" t="n">
-        <v>0.061198067332338</v>
+        <v>0.06453523121936042</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0948671713913431</v>
+        <v>0.0302495920635986</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05991426236876014</v>
+        <v>0.06587335025997555</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02610893499627035</v>
+        <v>0.02984012388454885</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06571395464700185</v>
+        <v>0.06666700508238489</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03236248747999193</v>
+        <v>0.05788718643191015</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06594006169391893</v>
+        <v>0.06539118645892349</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06468008590710866</v>
+        <v>0.09091570185532472</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06193539344477581</v>
+        <v>0.06531276412561778</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09569875931430194</v>
+        <v>0.02984012388454885</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06063612095151629</v>
+        <v>0.06666700508238489</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02510621800377697</v>
+        <v>0.03003060607330202</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06649626363089471</v>
+        <v>0.06746065990479423</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03230808715940629</v>
+        <v>0.05785561864717376</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06672506242837035</v>
+        <v>0.06616965296438686</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06476708724706765</v>
+        <v>0.09078407601326127</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06267271955721361</v>
+        <v>0.06609029703187512</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.03003060607330202</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06135797953427245</v>
+        <v>0.06746065990479423</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02510307964820265</v>
+        <v>0.02962129044018529</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06727857261478759</v>
+        <v>0.06825431472720357</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03265250730809985</v>
+        <v>0.05762395758762212</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06751006316282177</v>
+        <v>0.06694811946985023</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06435183236179715</v>
+        <v>0.09104570260588607</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06341004566965143</v>
+        <v>0.06686782993813249</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09714388239909005</v>
+        <v>0.02962129044018529</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06207983811702858</v>
+        <v>0.06825431472720357</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02509952668034578</v>
+        <v>0.02951242879552579</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06806088159868047</v>
+        <v>0.06904796954961293</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03239571914238959</v>
+        <v>0.05729297333739261</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06829506389727318</v>
+        <v>0.0677265859753136</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06483417535957481</v>
+        <v>0.09000090673373878</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06414737178208924</v>
+        <v>0.06764536284438984</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09732292208995141</v>
+        <v>0.02951242879552579</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06280169669978473</v>
+        <v>0.06904796954961293</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02509556585100475</v>
+        <v>0.0297042729496507</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06884319058257335</v>
+        <v>0.06984162437202227</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03253769387859248</v>
+        <v>0.05696343598062248</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0690800646317246</v>
+        <v>0.06850505248077698</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06461397034867816</v>
+        <v>0.08995001349735904</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06488469789452704</v>
+        <v>0.06842289575064719</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09849893448611635</v>
+        <v>0.0297042729496507</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06352355528254088</v>
+        <v>0.06984162437202227</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02609120391097793</v>
+        <v>0.02939707471288713</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06962549956646623</v>
+        <v>0.07063527919443162</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03277840273302556</v>
+        <v>0.05633611560144905</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06986506536617601</v>
+        <v>0.06928351898624036</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06469107143738489</v>
+        <v>0.08959334799728641</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06562202400696485</v>
+        <v>0.06920042865690454</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09907057781518586</v>
+        <v>0.02939707471288713</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06424541386529703</v>
+        <v>0.07063527919443162</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02608644761106369</v>
+        <v>0.02939100426447622</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07040780855035911</v>
+        <v>0.07142893401684096</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03251781692200577</v>
+        <v>0.05631178228400952</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07065006610062742</v>
+        <v>0.07006198549170373</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06476533273397256</v>
+        <v>0.08873123533406052</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06635935011940265</v>
+        <v>0.0699779615631619</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09963651030476134</v>
+        <v>0.02939100426447622</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06496727244805317</v>
+        <v>0.07142893401684096</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0270813037020604</v>
+        <v>0.02928233722751264</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07119011753425199</v>
+        <v>0.0722225888392503</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03265590766185007</v>
+        <v>0.05619120611244127</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07143506683507884</v>
+        <v>0.0708404519971671</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06523660834671874</v>
+        <v>0.08916400060822105</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06709667623184046</v>
+        <v>0.07075549446941926</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1001953901824438</v>
+        <v>0.02928233722751264</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06568913103080931</v>
+        <v>0.0722225888392503</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02507577893476646</v>
+        <v>0.02896904343566588</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07197242651814487</v>
+        <v>0.07301624366165964</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03289264616887552</v>
+        <v>0.05537515717088157</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07222006756953026</v>
+        <v>0.07161891850263047</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06510475238390107</v>
+        <v>0.08809196892030757</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06783400234427826</v>
+        <v>0.07153302737567661</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1002458756758346</v>
+        <v>0.02896904343566588</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06641098961356547</v>
+        <v>0.07301624366165964</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02706988005998025</v>
+        <v>0.02905126037866905</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07275473550203775</v>
+        <v>0.07380989848406898</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03282800365939906</v>
+        <v>0.05526440554346768</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07300506830398168</v>
+        <v>0.07239738500809385</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06486961895379714</v>
+        <v>0.08771546537085978</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06857132845671608</v>
+        <v>0.07231056028193396</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1009866250125348</v>
+        <v>0.02905126037866905</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06713284819632162</v>
+        <v>0.07380989848406898</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02606361382850011</v>
+        <v>0.02872912554625529</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07353704448593062</v>
+        <v>0.07460355330647833</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03296195134973769</v>
+        <v>0.05495972131433688</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07379006903843309</v>
+        <v>0.07317585151355724</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06543106216468458</v>
+        <v>0.0880348150604171</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06930865456915387</v>
+        <v>0.07308809318819132</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1015162964201457</v>
+        <v>0.02872912554625529</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06785470677907775</v>
+        <v>0.07460355330647833</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02505698699112446</v>
+        <v>0.02890277642815768</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0743193534698235</v>
+        <v>0.07539720812888767</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03289446045620838</v>
+        <v>0.05486187456762651</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07457506977288451</v>
+        <v>0.07395431801902061</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06528893612484094</v>
+        <v>0.0876503430895193</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07004598068159169</v>
+        <v>0.07386562609444867</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1024335481262685</v>
+        <v>0.02890277642815768</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0685765653618339</v>
+        <v>0.07539720812888767</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02505000629865165</v>
+        <v>0.02867235051410937</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07510166245371638</v>
+        <v>0.07619086295129703</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03292550219512813</v>
+        <v>0.05407163538747381</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07536007050733592</v>
+        <v>0.07473278452448398</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06504309494254384</v>
+        <v>0.086762374558706</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0707833067940295</v>
+        <v>0.07464315900070602</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1022370383585043</v>
+        <v>0.02867235051410937</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06929842394459006</v>
+        <v>0.07619086295129703</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02604267850188009</v>
+        <v>0.02843798529384343</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07588397143760926</v>
+        <v>0.07698451777370637</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03275504778281392</v>
+        <v>0.05388977385801608</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07614507124178733</v>
+        <v>0.07551125102994735</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06519339272607091</v>
+        <v>0.08617123456851672</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0715206329064673</v>
+        <v>0.07542069190696338</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1027254253444544</v>
+        <v>0.02843798529384343</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0700202825273462</v>
+        <v>0.07698451777370637</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02603501035160812</v>
+        <v>0.02849981825709307</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07666628042150214</v>
+        <v>0.0777781725961157</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03278306843558275</v>
+        <v>0.05371706006339064</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07693007197623876</v>
+        <v>0.07628971753541074</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06503968358369971</v>
+        <v>0.08587724821949122</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07225795901890511</v>
+        <v>0.07619822481322074</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1038973673117199</v>
+        <v>0.02849981825709307</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07074214111010234</v>
+        <v>0.0777781725961157</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02702700859863414</v>
+        <v>0.02825798689359132</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07744858940539502</v>
+        <v>0.07857182741852504</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03290953536975158</v>
+        <v>0.05355426401884147</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07771507271069017</v>
+        <v>0.07706818404087411</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0650818216237079</v>
+        <v>0.08568074061216896</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07299528513134293</v>
+        <v>0.07697575771947809</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1042515224879023</v>
+        <v>0.02825798689359132</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07146399969285849</v>
+        <v>0.07857182741852504</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02601867999375653</v>
+        <v>0.02801262869307133</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0782308983892879</v>
+        <v>0.07936548224093438</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03313441980163739</v>
+        <v>0.05329869071036589</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07850007344514158</v>
+        <v>0.07784665054633748</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06551966095437298</v>
+        <v>0.08578203684708963</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07373261124378072</v>
+        <v>0.07775329062573544</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1044865491006023</v>
+        <v>0.02801262869307133</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07218585827561463</v>
+        <v>0.07936548224093438</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02701003128777365</v>
+        <v>0.02776388114526623</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07901320737318078</v>
+        <v>0.08015913706334374</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03315769294755723</v>
+        <v>0.05294688842974524</v>
       </c>
       <c r="K166" t="n">
-        <v>0.079285074179593</v>
+        <v>0.07862511705180085</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06565305568397267</v>
+        <v>0.08478146202479281</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07446993735621854</v>
+        <v>0.0785308235319928</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1048011053774214</v>
+        <v>0.02776388114526623</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07290771685837077</v>
+        <v>0.08015913706334374</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0260010692314839</v>
+        <v>0.02761188173990911</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07979551635707366</v>
+        <v>0.08095279188575308</v>
       </c>
       <c r="J167" t="n">
-        <v>0.033179326023828</v>
+        <v>0.05289840302035925</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08007007491404443</v>
+        <v>0.07940358355726422</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06518185992078449</v>
+        <v>0.08467934124581816</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07520726346865635</v>
+        <v>0.07930835643825014</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1050938495459609</v>
+        <v>0.02761188173990911</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07362957544112693</v>
+        <v>0.08095279188575308</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02599180057568564</v>
+        <v>0.02775676796673308</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08057782534096654</v>
+        <v>0.08174644670816243</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03309929024676675</v>
+        <v>0.05235278032558749</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08085507564849584</v>
+        <v>0.08018205006272761</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06560592777308608</v>
+        <v>0.08427599961070531</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07594458958109414</v>
+        <v>0.08008588934450751</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1056634398338217</v>
+        <v>0.02775676796673308</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07435143402388307</v>
+        <v>0.08174644670816243</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02598223207117726</v>
+        <v>0.02729867731547132</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08136013432485942</v>
+        <v>0.08254010153057177</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03321755683269044</v>
+        <v>0.05240956618880963</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08164007638294725</v>
+        <v>0.08096051656819098</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06582511334915503</v>
+        <v>0.08367053816858777</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07668191569353196</v>
+        <v>0.08086342225076486</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1060085344686052</v>
+        <v>0.02729867731547132</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07507329260663922</v>
+        <v>0.08254010153057177</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02597237046875713</v>
+        <v>0.02713774727585688</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0821424433087523</v>
+        <v>0.08333375635298111</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03323409699791606</v>
+        <v>0.05196830645340525</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08242507711739867</v>
+        <v>0.08173898307365435</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06563927075726891</v>
+        <v>0.08354861635569216</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07741924180596976</v>
+        <v>0.08164095515702222</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1067277916779126</v>
+        <v>0.02713774727585688</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07579515118939537</v>
+        <v>0.08333375635298111</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02696222251922362</v>
+        <v>0.02727411533762292</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08292475229264518</v>
+        <v>0.08412741117539045</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03324888195876059</v>
+        <v>0.05192854696275398</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08321007785185008</v>
+        <v>0.08251744957911772</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06564825410570538</v>
+        <v>0.08330594458493351</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07815656791840757</v>
+        <v>0.08241848806327956</v>
       </c>
       <c r="N171" t="n">
-        <v>0.106719869689345</v>
+        <v>0.02727411533762292</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07651700977215152</v>
+        <v>0.08412741117539045</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02695179497337514</v>
+        <v>0.02690791899050252</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08370706127653806</v>
+        <v>0.08492106599779981</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03296188293154104</v>
+        <v>0.05188983356023549</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08399507858630149</v>
+        <v>0.0832959160845811</v>
       </c>
       <c r="L172" t="n">
-        <v>0.065351917502742</v>
+        <v>0.08204242432593178</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07889389403084537</v>
+        <v>0.08319602096953693</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1070834267305038</v>
+        <v>0.02690791899050252</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07723886835490766</v>
+        <v>0.08492106599779981</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02494109458201003</v>
+        <v>0.02663929572422884</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08448937026043093</v>
+        <v>0.08571472082020914</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03307307113257434</v>
+        <v>0.05165171208922936</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0847800793207529</v>
+        <v>0.08407438259004447</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06574614309169766</v>
+        <v>0.08185795704830673</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07963122014328319</v>
+        <v>0.08397355387579428</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1070171210289898</v>
+        <v>0.02663929572422884</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0779607269376638</v>
+        <v>0.08571472082020914</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0249269055616794</v>
+        <v>0.02676838302853495</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08527167924432381</v>
+        <v>0.08650837564261848</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03328241777817752</v>
+        <v>0.05111372839311526</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08556508005520433</v>
+        <v>0.08485284909550786</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06572358766983999</v>
+        <v>0.08115244422167822</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08036854625572099</v>
+        <v>0.08475108678205164</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1073196108124045</v>
+        <v>0.02676838302853495</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07868258552041996</v>
+        <v>0.08650837564261848</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02590563282593072</v>
+        <v>0.026495318393154</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08605398822821669</v>
+        <v>0.08730203046502784</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03328989408466757</v>
+        <v>0.0509754283152728</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08635008078965574</v>
+        <v>0.08563131560097123</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06568447446260695</v>
+        <v>0.08092578731566602</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0811058723681588</v>
+        <v>0.08552861968830898</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1071895543083493</v>
+        <v>0.026495318393154</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0794044441031761</v>
+        <v>0.08730203046502784</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02687754732988441</v>
+        <v>0.0262202393078191</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08683629721210957</v>
+        <v>0.08809568528743718</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03309547126836145</v>
+        <v>0.05043635769908159</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08713508152410716</v>
+        <v>0.0864097821064346</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06572920641194616</v>
+        <v>0.08007788779989</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08184319848059661</v>
+        <v>0.08630615259456635</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1075256097444249</v>
+        <v>0.0262202393078191</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08012630268593225</v>
+        <v>0.08809568528743718</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02484292589157101</v>
+        <v>0.02594328326226338</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08761860619600244</v>
+        <v>0.08888934010984652</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03319912054557617</v>
+        <v>0.05009606238792128</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08792008225855859</v>
+        <v>0.08718824861189797</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06515818645980523</v>
+        <v>0.0798086471439699</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08258052459303442</v>
+        <v>0.0870836855008237</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1078264353482328</v>
+        <v>0.02594328326226338</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08084816126868839</v>
+        <v>0.08888934010984652</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02580204532902115</v>
+        <v>0.02576458774621995</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08840091517989533</v>
+        <v>0.08968299493225586</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03330081313262871</v>
+        <v>0.0504540882251715</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08870508299301</v>
+        <v>0.08796671511736136</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06557181754813185</v>
+        <v>0.07941796681752572</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08331785070547222</v>
+        <v>0.08786121840708105</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1078906893473742</v>
+        <v>0.02576458774621995</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08157001985144453</v>
+        <v>0.08968299493225586</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02475518246026536</v>
+        <v>0.0255842902494219</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08918322416378821</v>
+        <v>0.09047664975466521</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03309727758846251</v>
+        <v>0.05020998105421187</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08949008372746141</v>
+        <v>0.08874518162282473</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06517050261887367</v>
+        <v>0.07890574829017721</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08405517681791004</v>
+        <v>0.0886387513133384</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1076170299694503</v>
+        <v>0.0255842902494219</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08229187843420069</v>
+        <v>0.09047664975466521</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02570261410333428</v>
+        <v>0.02560252826160239</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08996553314768108</v>
+        <v>0.09127030457707455</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03297750751267195</v>
+        <v>0.04966328671842202</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09027508446191282</v>
+        <v>0.0895236481282881</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06535464461397827</v>
+        <v>0.07757189303154405</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08479250293034783</v>
+        <v>0.08941628421959576</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1080811062145342</v>
+        <v>0.02560252826160239</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08301373701695684</v>
+        <v>0.09127030457707455</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02564461707625842</v>
+        <v>0.02521943927249451</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09074784213157397</v>
+        <v>0.09206395939948391</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03294125121717012</v>
+        <v>0.04951355106118152</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09106008519636424</v>
+        <v>0.09030211463375147</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06482464647539338</v>
+        <v>0.07731630251124633</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08552982904278564</v>
+        <v>0.09019381712585312</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1080417939649958</v>
+        <v>0.02521943927249451</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08373559559971297</v>
+        <v>0.09206395939948391</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02458146819706838</v>
+        <v>0.02533516077183139</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09153015111546685</v>
+        <v>0.09285761422189324</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03288924670824835</v>
+        <v>0.04886031992587012</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09184508593081565</v>
+        <v>0.09108058113921484</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06448091114506657</v>
+        <v>0.07683887819890378</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08626715515522346</v>
+        <v>0.09097135003211047</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1072038079604833</v>
+        <v>0.02533516077183139</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08445745418246912</v>
+        <v>0.09285761422189324</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02451344428379474</v>
+        <v>0.02484983024934614</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09231246009935971</v>
+        <v>0.09365126904430258</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03312223199219792</v>
+        <v>0.04870313915586738</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09263008666526706</v>
+        <v>0.09185904764467823</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06472384156494551</v>
+        <v>0.07633952156413615</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08700448126766125</v>
+        <v>0.09174888293836782</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1073729521886567</v>
+        <v>0.02484983024934614</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08517931276522528</v>
+        <v>0.09365126904430258</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02644082215446809</v>
+        <v>0.02496358519477188</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09309476908325261</v>
+        <v>0.09444492386671192</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03294094507531013</v>
+        <v>0.04864155459455291</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09341508739971849</v>
+        <v>0.0926375141501416</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06475384067697787</v>
+        <v>0.07551813407656333</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08774180738009907</v>
+        <v>0.09252641584462518</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1063550306371761</v>
+        <v>0.02496358519477188</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08590117134798141</v>
+        <v>0.09444492386671192</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02536387862711895</v>
+        <v>0.02457656309784172</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09387707806714549</v>
+        <v>0.09523857868912126</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0326461239638763</v>
+        <v>0.04837511208530634</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09420008813416991</v>
+        <v>0.09341598065560497</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06447131142311127</v>
+        <v>0.07487461720580513</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08847913349253687</v>
+        <v>0.09330394875088253</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1060558472937015</v>
+        <v>0.02457656309784172</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08662302993073756</v>
+        <v>0.09523857868912126</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02428289051977797</v>
+        <v>0.0243889014482888</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09465938705103835</v>
+        <v>0.09603223351153062</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0326385066641877</v>
+        <v>0.04790335747150737</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09498508886862132</v>
+        <v>0.09419444716106835</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06397665674529332</v>
+        <v>0.07330887242148137</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08921645960497468</v>
+        <v>0.09408148165713989</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1053812061458934</v>
+        <v>0.0243889014482888</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08734488851349372</v>
+        <v>0.09603223351153062</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02519813465047566</v>
+        <v>0.02420073773584622</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09544169603493124</v>
+        <v>0.09682588833393996</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03251883118253565</v>
+        <v>0.04812583659653552</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09577008960307273</v>
+        <v>0.09497291366653172</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06397027958547175</v>
+        <v>0.07302080119321197</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08995378571741248</v>
+        <v>0.09485901456339724</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1046369111814117</v>
+        <v>0.02420073773584622</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08806674709624986</v>
+        <v>0.09682588833393996</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02410988783724267</v>
+        <v>0.02421220945024709</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09622400501882412</v>
+        <v>0.09761954315634931</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03238783552521145</v>
+        <v>0.04754209530377046</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09655509033752416</v>
+        <v>0.0957513801719951</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06395258288559413</v>
+        <v>0.07191030499061668</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0906911118298503</v>
+        <v>0.0956365474696546</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1038287663879165</v>
+        <v>0.02421220945024709</v>
       </c>
       <c r="O188" t="n">
-        <v>0.088788605679006</v>
+        <v>0.09761954315634931</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02401842689810949</v>
+        <v>0.02372345408122456</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09700631400271699</v>
+        <v>0.09841319797875865</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03234625769850639</v>
+        <v>0.04715167943659188</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09734009107197557</v>
+        <v>0.09652984667745848</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06332396958760811</v>
+        <v>0.07137728528331522</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0914284379422881</v>
+        <v>0.09641408037591195</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1031625757530681</v>
+        <v>0.02372345408122456</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08951046426176215</v>
+        <v>0.09841319797875865</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02492402865110676</v>
+        <v>0.02383460911851171</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09778862298660988</v>
+        <v>0.09920685280116799</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03209483570871177</v>
+        <v>0.04715413483837935</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09812509180642698</v>
+        <v>0.09730831318292185</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06338484263346139</v>
+        <v>0.06992164354092761</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09216576405472592</v>
+        <v>0.09719161328216931</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1029441432645264</v>
+        <v>0.02383460911851171</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09023232284451829</v>
+        <v>0.09920685280116799</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02482696991426502</v>
+        <v>0.02334581205184168</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09857093197050276</v>
+        <v>0.1000005076235773</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03203430756211888</v>
+        <v>0.04654900735251247</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09891009254087839</v>
+        <v>0.09808677968838522</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06303560496510155</v>
+        <v>0.06914328123307362</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09290309016716372</v>
+        <v>0.09796914618842666</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1012792729099518</v>
+        <v>0.02334581205184168</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09095418142727445</v>
+        <v>0.1000005076235773</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02372752750561487</v>
+        <v>0.02345720037094758</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09935324095439563</v>
+        <v>0.1007941624459867</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03196541126501902</v>
+        <v>0.04613584282237093</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09969509327532981</v>
+        <v>0.09886524619384859</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06247665952447629</v>
+        <v>0.06874209982937307</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09364041627960153</v>
+        <v>0.09874667909468401</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1012737686770042</v>
+        <v>0.02345720037094758</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09167604001003059</v>
+        <v>0.1007941624459867</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02362597824318687</v>
+        <v>0.02306891156556251</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1001355499382885</v>
+        <v>0.101587817268396</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03158888482370351</v>
+        <v>0.0459141870913343</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1004800940097812</v>
+        <v>0.09964371269931198</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06240840925353316</v>
+        <v>0.06781800079944578</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09437774239203933</v>
+        <v>0.09952421200094137</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09943343455334397</v>
+        <v>0.02306891156556251</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09239789859278673</v>
+        <v>0.101587817268396</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02352259894501162</v>
+        <v>0.02278108312541963</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1009178589221814</v>
+        <v>0.1023814720908054</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03130546624446365</v>
+        <v>0.04548358600278229</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1012650947442326</v>
+        <v>0.1004221792047753</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06233125709421994</v>
+        <v>0.06667088561291157</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09511506850447714</v>
+        <v>0.1003017449071987</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09926407452663111</v>
+        <v>0.02278108312541963</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09311975717554288</v>
+        <v>0.1023814720908054</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02341766642911964</v>
+        <v>0.02269385254025202</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1017001679060743</v>
+        <v>0.1031751269132147</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03111589353359069</v>
+        <v>0.04554358540009443</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1020500954786841</v>
+        <v>0.1012006457102387</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06164560598848415</v>
+        <v>0.06530065573939026</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09585239461691494</v>
+        <v>0.1010792778134561</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09787149258452571</v>
+        <v>0.02269385254025202</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09384161575829902</v>
+        <v>0.1031751269132147</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02531145751354157</v>
+        <v>0.02250735729979281</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1024824768899671</v>
+        <v>0.1039687817356241</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03102090469737598</v>
+        <v>0.045291140648898</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1028350962131355</v>
+        <v>0.1019791122157021</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0612518588782735</v>
+        <v>0.06450721264850184</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09658972072935275</v>
+        <v>0.1018568107197134</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09666149271468805</v>
+        <v>0.02250735729979281</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09456347434105516</v>
+        <v>0.1039687817356241</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02420424901630796</v>
+        <v>0.02222173489377514</v>
       </c>
       <c r="G197" t="n">
-        <v>0.10326478587386</v>
+        <v>0.1047624365580334</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03072123774211082</v>
+        <v>0.0444102511182369</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1036200969475869</v>
+        <v>0.1027575787211655</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06105041870553563</v>
+        <v>0.06329045780986575</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09732704684179057</v>
+        <v>0.1026343436259708</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09553987890477811</v>
+        <v>0.02222173489377514</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09528533292381132</v>
+        <v>0.1047624365580334</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02509631775544938</v>
+        <v>0.0223341670883692</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1040470948577529</v>
+        <v>0.1055560913804428</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03051763067408646</v>
+        <v>0.04410021854242924</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1044050976820383</v>
+        <v>0.1035360452266288</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06094168841221814</v>
+        <v>0.06305029269310225</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09806437295422836</v>
+        <v>0.1034118765322281</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0950124551424561</v>
+        <v>0.0223341670883692</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09600719150656747</v>
+        <v>0.1055560913804428</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0229879405489964</v>
+        <v>0.02193540880030735</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1048294038416458</v>
+        <v>0.1063497462028521</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03051082149959423</v>
+        <v>0.04406341513783629</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1051900984164897</v>
+        <v>0.1043145117320922</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06082607094026873</v>
+        <v>0.06208661876783095</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09880169906666618</v>
+        <v>0.1041894094384855</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09368502541538226</v>
+        <v>0.02193540880030735</v>
       </c>
       <c r="O199" t="n">
-        <v>0.0967290500893236</v>
+        <v>0.1063497462028521</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02387939421497959</v>
+        <v>0.02162629944923651</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1056117128255387</v>
+        <v>0.1071434010252614</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03040154822492545</v>
+        <v>0.04330221312081939</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1059750991509411</v>
+        <v>0.1050929782375556</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06040396923163502</v>
+        <v>0.06029933750367178</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09953902517910398</v>
+        <v>0.1049669423447428</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09246339371121659</v>
+        <v>0.02162629944923651</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09745090867207976</v>
+        <v>0.1071434010252614</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02477095557142957</v>
+        <v>0.02170855018814097</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1063940218094315</v>
+        <v>0.1079370558476708</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03019054885637137</v>
+        <v>0.04271898470773977</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1067600998853925</v>
+        <v>0.105871444743019</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05997578622826469</v>
+        <v>0.05978835037024433</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1002763512915418</v>
+        <v>0.1057444752510002</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09165336401761925</v>
+        <v>0.02170855018814097</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09817276725483591</v>
+        <v>0.1079370558476708</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02266290143637689</v>
+        <v>0.02138387217000512</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1071763307933244</v>
+        <v>0.1087307106700801</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02997856140022334</v>
+        <v>0.04221610211495877</v>
       </c>
       <c r="K202" t="n">
-        <v>0.107545100619844</v>
+        <v>0.1066499112484823</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05994192487210528</v>
+        <v>0.0587377415697124</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1010136774039796</v>
+        <v>0.1065220081572576</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09116074032225041</v>
+        <v>0.02138387217000512</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09889462583759205</v>
+        <v>0.1087307106700801</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0225555086278521</v>
+        <v>0.02095397654781331</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1079586397772173</v>
+        <v>0.1095243654924895</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02976632386277263</v>
+        <v>0.04149593755883771</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1083301013542954</v>
+        <v>0.1074283777539457</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05920278810510454</v>
+        <v>0.05660450987796972</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1017510035164174</v>
+        <v>0.1072995410635149</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0900913266127702</v>
+        <v>0.02095397654781331</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09961648442034819</v>
+        <v>0.1095243654924895</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02444905396388581</v>
+        <v>0.02092057447454983</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1087409487611102</v>
+        <v>0.1103180203148988</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02955457425031054</v>
+        <v>0.0410608632557378</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1091151020887468</v>
+        <v>0.1082068442594091</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05905877886921004</v>
+        <v>0.05464624279732672</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1024883296288552</v>
+        <v>0.1080770739697723</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08905092687683869</v>
+        <v>0.02092057447454983</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1003383430031043</v>
+        <v>0.1103180203148988</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02334381426250858</v>
+        <v>0.02058537710319906</v>
       </c>
       <c r="G205" t="n">
-        <v>0.109523257745003</v>
+        <v>0.1111116751373082</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02904405056912837</v>
+        <v>0.04041325142202037</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1099001028231982</v>
+        <v>0.1089853107648725</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05841030010636952</v>
+        <v>0.05331533109084774</v>
       </c>
       <c r="M205" t="n">
-        <v>0.103225655741293</v>
+        <v>0.1088546068760296</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08784534510211617</v>
+        <v>0.02058537710319906</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1010602015858605</v>
+        <v>0.1111116751373082</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.023240066341751</v>
+        <v>0.02025009558674534</v>
       </c>
       <c r="G206" t="n">
-        <v>0.110305566728896</v>
+        <v>0.1119053299597175</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02883549082551742</v>
+        <v>0.04005547427404671</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1106851035576496</v>
+        <v>0.1097637772703358</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05815775475853052</v>
+        <v>0.05126416552159668</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1039629818537308</v>
+        <v>0.109632139782287</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08738038527626263</v>
+        <v>0.02025009558674534</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1017820601686166</v>
+        <v>0.1119053299597175</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02313784009787882</v>
+        <v>0.02011644107817299</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1110878757127888</v>
+        <v>0.1126989847821268</v>
       </c>
       <c r="J207" t="n">
-        <v>0.028629633025769</v>
+        <v>0.03928990402817814</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1114701042921011</v>
+        <v>0.1105422437757992</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05800154576764074</v>
+        <v>0.04804513685263773</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1047003079661686</v>
+        <v>0.1104096726885443</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08646185138693824</v>
+        <v>0.02011644107817299</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1025039187513728</v>
+        <v>0.1126989847821268</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02203479065086168</v>
+        <v>0.02008612473046636</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1118701846966817</v>
+        <v>0.1134926396045362</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02842614198315117</v>
+        <v>0.03881891290077585</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1122551050265525</v>
+        <v>0.1113207102812626</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05784207607564784</v>
+        <v>0.04631063584703488</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1054376340786064</v>
+        <v>0.1111872055948017</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08519554742180313</v>
+        <v>0.02008612473046636</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1032257773341289</v>
+        <v>0.1134926396045362</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02293027379611056</v>
+        <v>0.01986085769660978</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1126524936805746</v>
+        <v>0.1142862944269455</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02841870592564509</v>
+        <v>0.03814487310820125</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1130401057610039</v>
+        <v>0.112099176786726</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05717974862449943</v>
+        <v>0.04371305326785213</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1061749601910442</v>
+        <v>0.111964738501059</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08478727736851754</v>
+        <v>0.01986085769660978</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1039476359168851</v>
+        <v>0.1142862944269455</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02382429398296527</v>
+        <v>0.01934235112958763</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1134348026644675</v>
+        <v>0.1150799492493549</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02820618890512765</v>
+        <v>0.03807015686681556</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1138251064954553</v>
+        <v>0.1128776432921893</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05661496635614313</v>
+        <v>0.04050477987815371</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1069122863034821</v>
+        <v>0.1127422714073164</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08404284521474154</v>
+        <v>0.01934235112958763</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1046694944996412</v>
+        <v>0.1150799492493549</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02371685566076571</v>
+        <v>0.01923231618238418</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1142171116483603</v>
+        <v>0.1158736040717642</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02798861468518439</v>
+        <v>0.03719713639298006</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1146101072299067</v>
+        <v>0.1136561097976527</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0563481322125266</v>
+        <v>0.03783820644100361</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1076496124159199</v>
+        <v>0.1135198043135737</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08376805494813516</v>
+        <v>0.01923231618238418</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1053913530823974</v>
+        <v>0.1158736040717642</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02360796327885169</v>
+        <v>0.01923246400798383</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1149994206322532</v>
+        <v>0.1166672588941736</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02766600702940097</v>
+        <v>0.03652818390305609</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1153951079643581</v>
+        <v>0.1144345763031161</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05617964913559753</v>
+        <v>0.03606572371946593</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1083869385283577</v>
+        <v>0.1142973372198311</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08306871055635867</v>
+        <v>0.01923246400798383</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1061132116651535</v>
+        <v>0.1166672588941736</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02249762128656311</v>
+        <v>0.01904450575937089</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1157817296161461</v>
+        <v>0.1174609137165829</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02733838970136296</v>
+        <v>0.03636567161340493</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1161801086988096</v>
+        <v>0.1152130428085795</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05540992006730353</v>
+        <v>0.03363972247660457</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1091242646407955</v>
+        <v>0.1150748701260885</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08315061602707219</v>
+        <v>0.01904450575937089</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1068350702479097</v>
+        <v>0.1174609137165829</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02338583413323977</v>
+        <v>0.01857015258952972</v>
       </c>
       <c r="G214" t="n">
-        <v>0.116564038600039</v>
+        <v>0.1182545685389922</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02740578646465594</v>
+        <v>0.03541197174038779</v>
       </c>
       <c r="K214" t="n">
-        <v>0.116965109433261</v>
+        <v>0.1159915093140428</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05553934794959225</v>
+        <v>0.03071259347548388</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1098615907532333</v>
+        <v>0.1158524030323458</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0821195753479359</v>
+        <v>0.01857015258952972</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1075569288306658</v>
+        <v>0.1182545685389922</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02227260626822152</v>
+        <v>0.01861111565144462</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1173463475839319</v>
+        <v>0.1190482233614016</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02696822108286552</v>
+        <v>0.03516945650036607</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1177501101677124</v>
+        <v>0.1167699758195062</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05515820696318782</v>
+        <v>0.02933672747916771</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1105989168656711</v>
+        <v>0.1166299359386032</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08248139250660974</v>
+        <v>0.01861111565144462</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1082787874134219</v>
+        <v>0.1190482233614016</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02315794214084826</v>
+        <v>0.01846910609809997</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1181286565678247</v>
+        <v>0.1198418781838109</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02692571731957734</v>
+        <v>0.03464049810970107</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1185351109021638</v>
+        <v>0.1175484423249696</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05435385917036251</v>
+        <v>0.02756451525072035</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1113362429781089</v>
+        <v>0.1174074688448605</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08234187149075406</v>
+        <v>0.01846910609809997</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1090006459961781</v>
+        <v>0.1198418781838109</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02204184620045983</v>
+        <v>0.01834583508248011</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1189109655517176</v>
+        <v>0.1206355330062203</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02657829893837695</v>
+        <v>0.03402746878475399</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1193201116366152</v>
+        <v>0.118326908830433</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05392658545742393</v>
+        <v>0.02674834755320554</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1120735690905467</v>
+        <v>0.1181850017511179</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0821052168357313</v>
+        <v>0.01834583508248011</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1097225045789342</v>
+        <v>0.1206355330062203</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02192432289639604</v>
+        <v>0.01823725094918746</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1196932745356105</v>
+        <v>0.1214291878286296</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02612598970284997</v>
+        <v>0.03363274074188613</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1201051123710666</v>
+        <v>0.1191053753358963</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05387671564298538</v>
+        <v>0.02534061514968761</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1128108952029845</v>
+        <v>0.1189625346573752</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08160811632487125</v>
+        <v>0.01823725094918746</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1104443631616904</v>
+        <v>0.1214291878286296</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02280537667799678</v>
+        <v>0.01823000659391665</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1204755835195034</v>
+        <v>0.122222842651039</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02606881337658197</v>
+        <v>0.03305868619745883</v>
       </c>
       <c r="K219" t="n">
-        <v>0.120890113105518</v>
+        <v>0.1198838418413597</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05300457954566012</v>
+        <v>0.02509370880323064</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1135482213154223</v>
+        <v>0.1197400675636326</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08211580756044501</v>
+        <v>0.01823000659391665</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1111662217444465</v>
+        <v>0.122222842651039</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0226850119946019</v>
+        <v>0.01802353084751264</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1212578925033962</v>
+        <v>0.1230164974734483</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02570679372315859</v>
+        <v>0.03290767736783332</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1216751138399695</v>
+        <v>0.1206623083468231</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05281050698406145</v>
+        <v>0.02548423221611301</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1142855474278601</v>
+        <v>0.1205176004698899</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08242892338125252</v>
+        <v>0.01802353084751264</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1118880803272027</v>
+        <v>0.1230164974734483</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02256323329555122</v>
+        <v>0.01801789510212412</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1220402014872891</v>
+        <v>0.1238101522958576</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02563995450616542</v>
+        <v>0.03248208646937098</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1224601145744209</v>
+        <v>0.1214407748522865</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0519948277768027</v>
+        <v>0.02568439433099623</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1150228735402979</v>
+        <v>0.1212951333761473</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08224809662609384</v>
+        <v>0.01801789510212412</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1126099389099588</v>
+        <v>0.1238101522958576</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02144004503018463</v>
+        <v>0.01791317074989972</v>
       </c>
       <c r="G222" t="n">
-        <v>0.122822510471182</v>
+        <v>0.124603807118267</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02506831948918806</v>
+        <v>0.03188428571843299</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1232451153088723</v>
+        <v>0.1222192413577498</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05135787174249712</v>
+        <v>0.02538488290254304</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1157601996527357</v>
+        <v>0.1220726662824047</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08247396013376862</v>
+        <v>0.01791317074989972</v>
       </c>
       <c r="O222" t="n">
-        <v>0.113331797492715</v>
+        <v>0.124603807118267</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02231545164784195</v>
+        <v>0.01770942918298812</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1236048194550749</v>
+        <v>0.1253974619406763</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02479191243581208</v>
+        <v>0.03161662707690641</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1240301160433237</v>
+        <v>0.1229977078632132</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05099996869975801</v>
+        <v>0.02558587840272747</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1164975257651735</v>
+        <v>0.122850199188662</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08190714674307714</v>
+        <v>0.01770942918298812</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1140536560754711</v>
+        <v>0.1253974619406763</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02218945759786307</v>
+        <v>0.01750674179353799</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1243871284389678</v>
+        <v>0.1261911167630857</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02471075710962309</v>
+        <v>0.03096465908751667</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1248151167777751</v>
+        <v>0.1237761743686766</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05042144846719868</v>
+        <v>0.02538756130352338</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1172348518776114</v>
+        <v>0.1236277320949194</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08234828929281918</v>
+        <v>0.01750674179353799</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1147755146582273</v>
+        <v>0.1261911167630857</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0210620673295878</v>
+        <v>0.017305179973698</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1251694374228606</v>
+        <v>0.126984771585495</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02442487727420671</v>
+        <v>0.03071464522791853</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1256001175122265</v>
+        <v>0.12455464087414</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04982264086343241</v>
+        <v>0.02529011207690463</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1179721779900492</v>
+        <v>0.1244052650011767</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08189802062179474</v>
+        <v>0.017305179973698</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1154973732409834</v>
+        <v>0.126984771585495</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01993328529235603</v>
+        <v>0.01720481511561676</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1259517464067535</v>
+        <v>0.1277784264079044</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02423429669314854</v>
+        <v>0.03026677343900955</v>
       </c>
       <c r="K226" t="n">
-        <v>0.126385118246678</v>
+        <v>0.1253331073796033</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04920387570707249</v>
+        <v>0.02499371119484506</v>
       </c>
       <c r="M226" t="n">
-        <v>0.118709504102487</v>
+        <v>0.1251827979074341</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08235697356880373</v>
+        <v>0.01720481511561676</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1162192318237396</v>
+        <v>0.1277784264079044</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02080311593550756</v>
+        <v>0.01740571861144301</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1267340553906464</v>
+        <v>0.1285720812303137</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02373903913003414</v>
+        <v>0.02992123166168745</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1271701189811294</v>
+        <v>0.1261115738850667</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04846548281673232</v>
+        <v>0.02489853912931866</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1194468302149248</v>
+        <v>0.1259603308136914</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08262578097264622</v>
+        <v>0.01740571861144301</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1169410904064957</v>
+        <v>0.1285720812303137</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02067156370838232</v>
+        <v>0.01700796185332538</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1275163643745393</v>
+        <v>0.1293657360527231</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02363912834844914</v>
+        <v>0.02967820783684985</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1279551197155808</v>
+        <v>0.1268900403905301</v>
       </c>
       <c r="L228" t="n">
-        <v>0.048307792011025</v>
+        <v>0.0251047763522993</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1201841563273626</v>
+        <v>0.1267378637199488</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08250507567212206</v>
+        <v>0.01700796185332538</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1176629489892519</v>
+        <v>0.1293657360527231</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01953863306032009</v>
+        <v>0.01701161623341252</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1282986733584321</v>
+        <v>0.1301593908751324</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02303458811197916</v>
+        <v>0.02943788990539445</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1287401204500322</v>
+        <v>0.1276685068959935</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04743113310856395</v>
+        <v>0.0253126033357608</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1209214824398004</v>
+        <v>0.1275153966262061</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08249549050603122</v>
+        <v>0.01701161623341252</v>
       </c>
       <c r="O229" t="n">
-        <v>0.118384807572008</v>
+        <v>0.1301593908751324</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02140432844066075</v>
+        <v>0.01711675314385312</v>
       </c>
       <c r="G230" t="n">
-        <v>0.129080982342325</v>
+        <v>0.1309530456975417</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02292544218420975</v>
+        <v>0.02870046580821892</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1295251211844836</v>
+        <v>0.1284469734014568</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04653583592796243</v>
+        <v>0.02552220055167698</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1216588085522382</v>
+        <v>0.1282929295324635</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08259765831317367</v>
+        <v>0.01711675314385312</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1191066661547641</v>
+        <v>0.1309530456975417</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01926865429874414</v>
+        <v>0.01682344397679583</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1298632913262179</v>
+        <v>0.1317467005199511</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02251171432872653</v>
+        <v>0.02886612348622089</v>
       </c>
       <c r="K231" t="n">
-        <v>0.130310121918935</v>
+        <v>0.1292254399069202</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04612223028783374</v>
+        <v>0.0254337484720219</v>
       </c>
       <c r="M231" t="n">
-        <v>0.122396134664676</v>
+        <v>0.1290704624387208</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0827122119323494</v>
+        <v>0.01682344397679583</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1198285247375203</v>
+        <v>0.1317467005199511</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02113161508391013</v>
+        <v>0.01693176012438931</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1306456003101108</v>
+        <v>0.1325403553423604</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02229342830911511</v>
+        <v>0.02833505088029808</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1310951226533864</v>
+        <v>0.1300039064123836</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04529064600679117</v>
+        <v>0.02544742756876933</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1231334607771138</v>
+        <v>0.1298479953449782</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08293978420235826</v>
+        <v>0.01693176012438931</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1205503833202765</v>
+        <v>0.1325403553423604</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01999321524549857</v>
+        <v>0.01674177297878224</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1314279092940037</v>
+        <v>0.1333340101647698</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02197060788896107</v>
+        <v>0.02800743593134805</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1318801233878379</v>
+        <v>0.130782372917847</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04454141290344804</v>
+        <v>0.02576341831389317</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1238707868895516</v>
+        <v>0.1306255282512356</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08268100796200034</v>
+        <v>0.01674177297878224</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1212722419030326</v>
+        <v>0.1333340101647698</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01885345923284929</v>
+        <v>0.01665355393212327</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1322102182778966</v>
+        <v>0.1341276649871791</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02144327683185003</v>
+        <v>0.02738346658026861</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1326651241222893</v>
+        <v>0.1315608394233103</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04367486079641761</v>
+        <v>0.02548190117936727</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1246081130019894</v>
+        <v>0.1314030611574929</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08323651605007548</v>
+        <v>0.01665355393212327</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1219941004857887</v>
+        <v>0.1341276649871791</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02071235149530217</v>
+        <v>0.01666717437656108</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1329925272617894</v>
+        <v>0.1349213198095885</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02131145890136756</v>
+        <v>0.02706333076795733</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1334501248567407</v>
+        <v>0.1323393059287737</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04269131950431315</v>
+        <v>0.02580305663716559</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1253454391144272</v>
+        <v>0.1321805940637502</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08350694130538378</v>
+        <v>0.01666717437656108</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1227159590685449</v>
+        <v>0.1349213198095885</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01856989648219703</v>
+        <v>0.01638270570424433</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1337748362456823</v>
+        <v>0.1357149746319978</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0208751778610993</v>
+        <v>0.02704721643531185</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1342351255911921</v>
+        <v>0.1331177724342371</v>
       </c>
       <c r="L236" t="n">
-        <v>0.042191118845748</v>
+        <v>0.02542706515926191</v>
       </c>
       <c r="M236" t="n">
-        <v>0.126082765226865</v>
+        <v>0.1329581269700076</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08339291656672493</v>
+        <v>0.01638270570424433</v>
       </c>
       <c r="O236" t="n">
-        <v>0.123437817651301</v>
+        <v>0.1357149746319978</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02042609864287376</v>
+        <v>0.01620021930732167</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1345571452295752</v>
+        <v>0.1365086294544071</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02053445747463081</v>
+        <v>0.02653531152322997</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1350201263256435</v>
+        <v>0.1338962389397005</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04157458863933541</v>
+        <v>0.02535410721763021</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1268200913393029</v>
+        <v>0.133735659876265</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08319507467289916</v>
+        <v>0.01620021930732167</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1241596762340572</v>
+        <v>0.1365086294544071</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02028096242667218</v>
+        <v>0.01641978657794177</v>
       </c>
       <c r="G238" t="n">
-        <v>0.135339454213468</v>
+        <v>0.1373022842768165</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0203893215055477</v>
+        <v>0.02622780397260924</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1358051270600949</v>
+        <v>0.1346747054451638</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0407420587036888</v>
+        <v>0.02518436328424434</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1275574174517407</v>
+        <v>0.1345131927825223</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08411404846270631</v>
+        <v>0.01641978657794177</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1248815348168133</v>
+        <v>0.1373022842768165</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02013449228293215</v>
+        <v>0.0160414789082533</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1361217631973609</v>
+        <v>0.1380959390992259</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01973979371743562</v>
+        <v>0.02592488172434734</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1365901277945464</v>
+        <v>0.1354531719506272</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03969385885742127</v>
+        <v>0.02581801383107818</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1282947435641785</v>
+        <v>0.1352907256887797</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08375047077494624</v>
+        <v>0.0160414789082533</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1256033933995695</v>
+        <v>0.1380959390992259</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01898669266099353</v>
+        <v>0.0161653676904049</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1369040721812538</v>
+        <v>0.1388895939216352</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01948589787388004</v>
+        <v>0.02552673271934203</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1373751285289978</v>
+        <v>0.1362316384560906</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03893031891914625</v>
+        <v>0.02525523933010554</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1290320696766163</v>
+        <v>0.136068258595037</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08450497444841909</v>
+        <v>0.0161653676904049</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1263252519823256</v>
+        <v>0.1388895939216352</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01983756801019617</v>
+        <v>0.01619152431654529</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1376863811651467</v>
+        <v>0.1396832487440445</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0191276577384667</v>
+        <v>0.02563354489849082</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1381601292634492</v>
+        <v>0.137010104961554</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03785176870747697</v>
+        <v>0.02609622025330044</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1297693957890541</v>
+        <v>0.1368457915012944</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08437819232192478</v>
+        <v>0.01619152431654529</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1270471105650818</v>
+        <v>0.1396832487440445</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01968712277987989</v>
+        <v>0.01592002017882307</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1384686901490396</v>
+        <v>0.1404769035664539</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01866509707478115</v>
+        <v>0.02514550620269149</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1389451299979006</v>
+        <v>0.1377885714670173</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03725853804102675</v>
+        <v>0.02614113707263666</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1305067219014919</v>
+        <v>0.1376233244075517</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08517075723426309</v>
+        <v>0.01592002017882307</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1277689691478379</v>
+        <v>0.1404769035664539</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01853536141938459</v>
+        <v>0.01585092666938695</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1392509991329325</v>
+        <v>0.1412705583888632</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01839823964640894</v>
+        <v>0.0251628045728417</v>
       </c>
       <c r="K243" t="n">
-        <v>0.139730130732352</v>
+        <v>0.1385670379724807</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03615095673840887</v>
+        <v>0.02569017026008813</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1312440480139297</v>
+        <v>0.1384008573138091</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08478330202423406</v>
+        <v>0.01585092666938695</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1284908277305941</v>
+        <v>0.1412705583888632</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01838228837805011</v>
+        <v>0.01598431518038559</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1400333081168253</v>
+        <v>0.1420642132112725</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01802710921693572</v>
+        <v>0.02438562794983909</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1405151314668034</v>
+        <v>0.1393455044779441</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03482935461823666</v>
+        <v>0.02584350028762866</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1319813741263675</v>
+        <v>0.1391783902200665</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08571645953063778</v>
+        <v>0.01598431518038559</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1292126863133502</v>
+        <v>0.1420642132112725</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01822790810521627</v>
+        <v>0.01592025710396763</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1408156171007182</v>
+        <v>0.1428578680336819</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01765172954994709</v>
+        <v>0.02421416427458128</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1413001322012548</v>
+        <v>0.1401239709834075</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03419406149912341</v>
+        <v>0.02630130762723226</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1327187002388053</v>
+        <v>0.1399559231263238</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08617086259227408</v>
+        <v>0.01592025710396763</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1299345448961063</v>
+        <v>0.1428578680336819</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01807222505022298</v>
+        <v>0.01565882383228176</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1415979260846111</v>
+        <v>0.1436515228560913</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01737212440902862</v>
+        <v>0.02434860148796605</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1420851329357063</v>
+        <v>0.1409024374888708</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03294540719968234</v>
+        <v>0.02576377275087272</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1334560263512431</v>
+        <v>0.1407334560325811</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08584714404794297</v>
+        <v>0.01565882383228176</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1306564034788625</v>
+        <v>0.1436515228560913</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01691524366241003</v>
+        <v>0.01560008675747661</v>
       </c>
       <c r="G247" t="n">
-        <v>0.142380235068504</v>
+        <v>0.1444451776785006</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01678831755776594</v>
+        <v>0.02418912753089097</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1428701336701577</v>
+        <v>0.1416809039943342</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03248372153852677</v>
+        <v>0.02633107613052393</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1341933524636809</v>
+        <v>0.1415109889388385</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08714593673644433</v>
+        <v>0.01560008675747661</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1313782620616186</v>
+        <v>0.1444451776785006</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0167569683911173</v>
+        <v>0.01574411727170087</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1431625440523969</v>
+        <v>0.1452388325009099</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01670033275974463</v>
+        <v>0.02373593034425373</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1436551344046091</v>
+        <v>0.1424593704997976</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03110933433427004</v>
+        <v>0.02640339823815979</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1349306785761187</v>
+        <v>0.1422885218450959</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08726787349657811</v>
+        <v>0.01574411727170087</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1321001206443748</v>
+        <v>0.1452388325009099</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01659740368568463</v>
+        <v>0.01539098676710321</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1439448530362897</v>
+        <v>0.1460324873233193</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01620819377855029</v>
+        <v>0.02338919786895202</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1444401351390605</v>
+        <v>0.1432378370052609</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03002257540552544</v>
+        <v>0.02648091954575416</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1356680046885565</v>
+        <v>0.1430660547513532</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08721358716714439</v>
+        <v>0.01539098676710321</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1328219792271309</v>
+        <v>0.1460324873233193</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01843655399545191</v>
+        <v>0.01544076663583228</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1447271620201826</v>
+        <v>0.1468261421457286</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01581192437776853</v>
+        <v>0.02294911804588348</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1452251358735119</v>
+        <v>0.1440163035107243</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02912377457090623</v>
+        <v>0.02586382052528091</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1364053308009943</v>
+        <v>0.1438435876576106</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08768371058694296</v>
+        <v>0.01544076663583228</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1335438378098871</v>
+        <v>0.1468261421457286</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01627442376975893</v>
+        <v>0.01529352827003676</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1455094710040755</v>
+        <v>0.147619796968138</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01551154832098493</v>
+        <v>0.02281587881594579</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1460101366079634</v>
+        <v>0.1447947700161877</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02861326164902572</v>
+        <v>0.02615228164871403</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1371426569134322</v>
+        <v>0.1446211205638679</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08847887659477399</v>
+        <v>0.01529352827003676</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1342656963926432</v>
+        <v>0.147619796968138</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0171110174579456</v>
+        <v>0.01544934306186528</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1462917799879684</v>
+        <v>0.1484134517905473</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0150070893717851</v>
+        <v>0.02238966812003665</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1467951373424148</v>
+        <v>0.1455732365216511</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02759136645849716</v>
+        <v>0.02674648338802726</v>
       </c>
       <c r="M252" t="n">
-        <v>0.13787998302587</v>
+        <v>0.1453986534701253</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08939971802943719</v>
+        <v>0.01544934306186528</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1349875549753994</v>
+        <v>0.1484134517905473</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01594633950935173</v>
+        <v>0.01550828240346654</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1470740889718612</v>
+        <v>0.1492071066129567</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01459857129375464</v>
+        <v>0.02257067389905362</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1475801380768662</v>
+        <v>0.1463517030271145</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02615841881793396</v>
+        <v>0.02684660621519458</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1386173091383077</v>
+        <v>0.1461761863763826</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08914686772973263</v>
+        <v>0.01550828240346654</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1357094135581555</v>
+        <v>0.1492071066129567</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01678039437331719</v>
+        <v>0.01547041768698919</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1478563979557541</v>
+        <v>0.150000761435366</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01428601785047914</v>
+        <v>0.02195908409389449</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1483651388113176</v>
+        <v>0.1471301695325778</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02521474854594929</v>
+        <v>0.02705283060218983</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1393546352507456</v>
+        <v>0.14695371928264</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08972095853446027</v>
+        <v>0.01547041768698919</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1364312721409117</v>
+        <v>0.150000761435366</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01561318649918184</v>
+        <v>0.01543582030458189</v>
       </c>
       <c r="G255" t="n">
-        <v>0.148638706939647</v>
+        <v>0.1507944162577753</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01386945280554425</v>
+        <v>0.02215508664545685</v>
       </c>
       <c r="K255" t="n">
-        <v>0.149150139545769</v>
+        <v>0.1479086360380412</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02446068546115648</v>
+        <v>0.02626533702098688</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1400919613631834</v>
+        <v>0.1477312521888973</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09032262328242013</v>
+        <v>0.01543582030458189</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1371531307236678</v>
+        <v>0.1507944162577753</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01744472033628552</v>
+        <v>0.01510456164839331</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1494210159235399</v>
+        <v>0.1515880710801847</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01344889992253549</v>
+        <v>0.02185886949463839</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1499351402802204</v>
+        <v>0.1486871025435046</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02329655938216887</v>
+        <v>0.02688430594355967</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1408292874756212</v>
+        <v>0.1485087850951547</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09155249481241196</v>
+        <v>0.01510456164839331</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1378749893064239</v>
+        <v>0.1515880710801847</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01727500033396807</v>
+        <v>0.01537671311057212</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1502033249074328</v>
+        <v>0.1523817259025941</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01302438296503849</v>
+        <v>0.0218706205823368</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1507201410146718</v>
+        <v>0.149465569048968</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02182270012759971</v>
+        <v>0.02690991784188201</v>
       </c>
       <c r="M257" t="n">
-        <v>0.141566613588059</v>
+        <v>0.149286318001412</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09191120596323599</v>
+        <v>0.01537671311057212</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1385968478891801</v>
+        <v>0.1523817259025941</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01710403094156936</v>
+        <v>0.01535234608326698</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1509856338913257</v>
+        <v>0.1531753807250034</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01239592569663888</v>
+        <v>0.02179052784944971</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1515051417491232</v>
+        <v>0.1502440355544313</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02093943751606228</v>
+        <v>0.02754235318792786</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1423039397004968</v>
+        <v>0.1500638509076694</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09289938957369187</v>
+        <v>0.01535234608326698</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1393187064719363</v>
+        <v>0.1531753807250034</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01493181660842924</v>
+        <v>0.01503153195862655</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1517679428752185</v>
+        <v>0.1539690355474127</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01216355188092223</v>
+        <v>0.02161877923687477</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1522901424835747</v>
+        <v>0.1510225020598947</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0201471013661699</v>
+        <v>0.02768179245367103</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1430412658129346</v>
+        <v>0.1508413838139268</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0935176784825798</v>
+        <v>0.01503153195862655</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1400405650546924</v>
+        <v>0.1539690355474127</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01475836178388755</v>
+        <v>0.01531434212879949</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1525502518591114</v>
+        <v>0.1547626903698221</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01162728528147412</v>
+        <v>0.02125556268550971</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1530751432180261</v>
+        <v>0.1518009685653581</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01884602149653586</v>
+        <v>0.02722841611108545</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1437785919253724</v>
+        <v>0.1516189167201841</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09396670552869968</v>
+        <v>0.01531434212879949</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1407624236374485</v>
+        <v>0.1547626903698221</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01458367091728416</v>
+        <v>0.01500084798593448</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1533325608430043</v>
+        <v>0.1555563451922314</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01098714966188017</v>
+        <v>0.02080106613625216</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1538601439524775</v>
+        <v>0.1525794350708215</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01793652772577342</v>
+        <v>0.02798240463214496</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1445159180378102</v>
+        <v>0.1523964496264415</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09544710355085134</v>
+        <v>0.01500084798593448</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1414842822202047</v>
+        <v>0.1555563451922314</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01640774845795891</v>
+        <v>0.01529112092218017</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1541148698268971</v>
+        <v>0.1563500000146407</v>
       </c>
       <c r="J262" t="n">
-        <v>0.010843168785726</v>
+        <v>0.02115547752999977</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1546451446869289</v>
+        <v>0.1533579015762848</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01641894987249592</v>
+        <v>0.02814393848882346</v>
       </c>
       <c r="M262" t="n">
-        <v>0.145253244150248</v>
+        <v>0.1531739825326988</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09605950538783492</v>
+        <v>0.01529112092218017</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1422061408029608</v>
+        <v>0.1563500000146407</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01523059885525163</v>
+        <v>0.01508523232968523</v>
       </c>
       <c r="G263" t="n">
-        <v>0.15489717881079</v>
+        <v>0.1571436548370501</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01019536641659718</v>
+        <v>0.02081898480765024</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1554301454213803</v>
+        <v>0.1541363680817482</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01569361775531664</v>
+        <v>0.02741319815309484</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1459905702626859</v>
+        <v>0.1539515154389562</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09710454387845019</v>
+        <v>0.01508523232968523</v>
       </c>
       <c r="O263" t="n">
-        <v>0.142927999385717</v>
+        <v>0.1571436548370501</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01505222655850221</v>
+        <v>0.01498325360059834</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1556794877946829</v>
+        <v>0.1579373096594595</v>
       </c>
       <c r="J264" t="n">
-        <v>0.009943766318079333</v>
+        <v>0.0205917759101012</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1562151461558318</v>
+        <v>0.1549148345872116</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0141608611928489</v>
+        <v>0.02819036409693298</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1467278963751237</v>
+        <v>0.1547290483452135</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09768285186149717</v>
+        <v>0.01498325360059834</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1436498579684731</v>
+        <v>0.1579373096594595</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06355802365987898</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01439657451750714</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001401399901438991</v>
+        <v>0.0009387074781564003</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007936548224093439</v>
+        <v>0.001643007576639692</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005317711752054283</v>
+        <v>0.002752344483940371</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007784665054633748</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0063286617134094</v>
+        <v>0.009135825487418453</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007775329062573545</v>
+        <v>0.001650778298764541</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001401399901438991</v>
+        <v>0.01689788057377611</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007936548224093439</v>
+        <v>0.001646415634965626</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002468978810416758</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001587309644818688</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009965112560709338</v>
+        <v>0.005529033172143955</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00155693301092675</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01277820790922013</v>
+        <v>0.01776700160150424</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001555065812514709</v>
+        <v>0.003590953954349333</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002468978810416758</v>
+        <v>0.02811318747740199</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001587309644818688</v>
+        <v>0.003192284384862947</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003762647676236887</v>
+        <v>0.00547279686681891</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002380964467228032</v>
+        <v>0.004929022729919076</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01447441019461476</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002335399516390124</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01848893449233896</v>
+        <v>0.02037593403182864</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002332598718772063</v>
+        <v>0.004952334896293623</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003762647676236887</v>
+        <v>0.03293475823887987</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002380964467228032</v>
+        <v>0.004939246904896877</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005042317448202945</v>
+        <v>0.00815866424204504</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003174619289637376</v>
+        <v>0.006572030306558768</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01877781242241991</v>
+        <v>0.009477101583962963</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003113866021853499</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02430113736767275</v>
+        <v>0.02358021235181146</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003110131625029418</v>
+        <v>0.006603113195058164</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005042317448202945</v>
+        <v>0.03782811225324151</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003174619289637376</v>
+        <v>0.006585662539862504</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.01064496104965153</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.00821503788319846</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02230752701277436</v>
+        <v>0.01133567852590728</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003892332527316874</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02900000000000003</v>
+        <v>0.02589168414527623</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003937262228260873</v>
+        <v>0.008253891493822704</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.04002111647065693</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.00823207817482813</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007128208242988245</v>
+        <v>0.01096537940214901</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004761928934456064</v>
+        <v>0.009858045459838153</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0249957617343276</v>
+        <v>0.01273792036544198</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004670799032780249</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03173113380740455</v>
+        <v>0.0273471717862476</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004665197437544126</v>
+        <v>0.009904669792587245</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007128208242988245</v>
+        <v>0.04356176155635649</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004761928934456064</v>
+        <v>0.009878493809793755</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007942189035439022</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005555583756865407</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02727472435572906</v>
+        <v>0.01401804718740762</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005449265538243623</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03540579265777777</v>
+        <v>0.02948349764875016</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005442730343801481</v>
+        <v>0.01155544809135179</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.007942189035439022</v>
+        <v>0.04579803817557038</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005555583756865407</v>
+        <v>0.01152490944475938</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008817335829959312</v>
+        <v>0.01225793804443746</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006349238579274752</v>
+        <v>0.01314406061311754</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02899999999999997</v>
+        <v>0.01531027907664483</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006098116582491575</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03858422999972655</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006220263250058836</v>
+        <v>0.0136426729368932</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.008817335829959312</v>
+        <v>0.0484710128920724</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006349238579274752</v>
+        <v>0.01277450284090908</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009755567267335688</v>
+        <v>0.01434562213772279</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007142893401684095</v>
+        <v>0.01478706818975723</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03010187329489317</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007006198549170373</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04117011934177228</v>
+        <v>0.03354864000937635</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00699779615631619</v>
+        <v>0.01485700468888087</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009755567267335688</v>
+        <v>0.05253669845261671</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007142893401684095</v>
+        <v>0.01481774071469063</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01055880198835468</v>
+        <v>0.01441375452788151</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00793654822409344</v>
+        <v>0.01643007576639692</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03029503511150936</v>
+        <v>0.01800291346996211</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007784665054633749</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04386713419243654</v>
+        <v>0.03616658626962491</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007775329062573545</v>
+        <v>0.01650778298764541</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01055880198835468</v>
+        <v>0.05564049035888391</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00793654822409344</v>
+        <v>0.01646415634965626</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01112895863380279</v>
+        <v>0.01645379357972693</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008730203046502783</v>
+        <v>0.01807308334303661</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03128268953743615</v>
+        <v>0.01924960929661079</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008563131560097123</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04567894806024075</v>
+        <v>0.03824506126789326</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008552861968830899</v>
+        <v>0.01815856128640995</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01112895863380279</v>
+        <v>0.0597149379924764</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008730203046502783</v>
+        <v>0.01811057198462188</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01186795584446661</v>
+        <v>0.01745719765807235</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009523857868912128</v>
+        <v>0.01971609091967631</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.02038145111359164</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009704007800025749</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0484710128920724</v>
+        <v>0.04044718543591713</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009401137351009965</v>
+        <v>0.01980933958517449</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01186795584446661</v>
+        <v>0.06240389764652327</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009523857868912128</v>
+        <v>0.01975698761958751</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01257771226113265</v>
+        <v>0.01741542512773104</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01031751269132147</v>
+        <v>0.021359098496316</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03209618174536083</v>
+        <v>0.02158513157547676</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01012006457102387</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04987178259545494</v>
+        <v>0.04303607920543204</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01010792778134561</v>
+        <v>0.02146011788393903</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01257771226113265</v>
+        <v>0.06685122561415369</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01031751269132147</v>
+        <v>0.02140340325455314</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01346014652458741</v>
+        <v>0.0183199343535163</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01111116751373081</v>
+        <v>0.02300210607295569</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03315728568063539</v>
+        <v>0.02264734333683809</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01089853107648725</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05112248119145679</v>
+        <v>0.04567486300817353</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01088546068760296</v>
+        <v>0.02311089618270357</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01346014652458741</v>
+        <v>0.07020077818849679</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01111116751373081</v>
+        <v>0.02304981888951876</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0142171772756175</v>
+        <v>0.02116218370024141</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01190482233614016</v>
+        <v>0.02464511364959538</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03395103051212478</v>
+        <v>0.02395477905224767</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01167699758195062</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05296102744515641</v>
+        <v>0.04792665727587728</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01166299359386032</v>
+        <v>0.02476167448146811</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0142171772756175</v>
+        <v>0.07339641166268168</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01190482233614016</v>
+        <v>0.02469623452448439</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0148507231550094</v>
+        <v>0.01993363153271966</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0126984771585495</v>
+        <v>0.02628812122623507</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03497496157787233</v>
+        <v>0.02489413137627754</v>
       </c>
       <c r="K81" t="n">
-        <v>0.012455464087414</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.054886008407866</v>
+        <v>0.04975458244027878</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01244052650011767</v>
+        <v>0.02641245278023266</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0148507231550094</v>
+        <v>0.07618198232983736</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0126984771585495</v>
+        <v>0.02634265015945001</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01536270280354969</v>
+        <v>0.02062573621576435</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01349213198095885</v>
+        <v>0.02793112880287476</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03542662421592147</v>
+        <v>0.0257520929634997</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01323393059287737</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05669601113089756</v>
+        <v>0.05182175893311369</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01321805940637503</v>
+        <v>0.0280632310789972</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01536270280354969</v>
+        <v>0.07910134648309314</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01349213198095885</v>
+        <v>0.02798906579441564</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.02322995611418879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01439657451750714</v>
+        <v>0.02957413637951446</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03640356376431544</v>
+        <v>0.02681535646848618</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01401239709834075</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05838962266556336</v>
+        <v>0.05329130718611763</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01399559231263238</v>
+        <v>0.02971400937776174</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.08199836041557801</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01439657451750714</v>
+        <v>0.02963548142938127</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01663904713782544</v>
+        <v>0.02373774959280623</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01507944162577753</v>
+        <v>0.03121714395615415</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03730332556109772</v>
+        <v>0.02727061454580899</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01479086360380412</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05966543006317554</v>
+        <v>0.05492634763102608</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01477312521888973</v>
+        <v>0.03136478767652628</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01663904713782544</v>
+        <v>0.08331688042042118</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01507944162577753</v>
+        <v>0.03128189706434689</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01723053251413607</v>
+        <v>0.02414057501643</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01587309644818688</v>
+        <v>0.03286015153279384</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03842345494431165</v>
+        <v>0.02790455985004016</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0155693301092675</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0611220203750461</v>
+        <v>0.05669000069957472</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01555065812514709</v>
+        <v>0.03301556597529082</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01723053251413607</v>
+        <v>0.08570076279075178</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01587309644818688</v>
+        <v>0.03292831269931252</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01772839374174122</v>
+        <v>0.02246824981778093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01666675127059622</v>
+        <v>0.03450315910943353</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03936149725200053</v>
+        <v>0.02850388503575164</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01634779661473087</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0635579806524873</v>
+        <v>0.05754538682349911</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01632819103140444</v>
+        <v>0.03466634427405536</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01772839374174122</v>
+        <v>0.08624863323347215</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01666675127059622</v>
+        <v>0.03457472833427815</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01843127527454555</v>
+        <v>0.02378548635188783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01746040609300557</v>
+        <v>0.03614616668607323</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04001499782220774</v>
+        <v>0.02909869824689593</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01712626312019425</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06507189794681123</v>
+        <v>0.05792328135635497</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0171057239376618</v>
+        <v>0.0363171225728199</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01843127527454555</v>
+        <v>0.08759791515741938</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01746040609300557</v>
+        <v>0.03622114396924377</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01903782156645373</v>
+        <v>0.02509156313147388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01825406091541491</v>
+        <v>0.03778917426271292</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04128150199297667</v>
+        <v>0.02937918750538424</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01790472962565762</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06686235930933004</v>
+        <v>0.05877864867119395</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01788325684391915</v>
+        <v>0.03796790087158444</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01903782156645373</v>
+        <v>0.08860996092693768</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01825406091541491</v>
+        <v>0.03786755960420939</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01944667707137039</v>
+        <v>0.02538433564077131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01904771573782426</v>
+        <v>0.03943218183935261</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04225855510235066</v>
+        <v>0.02954637163543815</v>
       </c>
       <c r="K89" t="n">
-        <v>0.018683196131121</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06782795179135587</v>
+        <v>0.05990630994642968</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0186607897501765</v>
+        <v>0.03961867917034898</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01944667707137039</v>
+        <v>0.09007705591919929</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01904771573782426</v>
+        <v>0.03951397523917502</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02015648624320021</v>
+        <v>0.02466165936401233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0198413705602336</v>
+        <v>0.0410751894159923</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04324370248837303</v>
+        <v>0.02989765223900472</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01946166263658437</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06986726244420088</v>
+        <v>0.06060108277093934</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01943832265643386</v>
+        <v>0.04126945746911352</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02015648624320021</v>
+        <v>0.09069148551137668</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0198413705602336</v>
+        <v>0.04116039087414065</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02076589353584783</v>
+        <v>0.02492138978542916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02063502538264294</v>
+        <v>0.042718196992632</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04413448948908719</v>
+        <v>0.03023043091803104</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02024012914204774</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07107887831917714</v>
+        <v>0.06065778473360012</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02021585556269121</v>
+        <v>0.04292023576787806</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02076589353584783</v>
+        <v>0.09184553508064175</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02063502538264294</v>
+        <v>0.04280680650910627</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02127354340321792</v>
+        <v>0.02416138238925402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02142868020505229</v>
+        <v>0.04436120456927168</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04542846144253648</v>
+        <v>0.0306421092744642</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02101859564751112</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07286138646759682</v>
+        <v>0.06177123342328938</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02099338846894857</v>
+        <v>0.0445710140666426</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02127354340321792</v>
+        <v>0.09293149000416712</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02142868020505229</v>
+        <v>0.0444532221440719</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02187808029921512</v>
+        <v>0.02437949265971914</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02222233502746163</v>
+        <v>0.04600421214591138</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0462231636867643</v>
+        <v>0.03093008891025131</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02179706215297449</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0738133739407722</v>
+        <v>0.06183624642888427</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02177092137520592</v>
+        <v>0.04622179236540715</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02187808029921512</v>
+        <v>0.09334163565912496</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02222233502746163</v>
+        <v>0.04609963777903753</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02247814867774411</v>
+        <v>0.02657357608105675</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02301598984987098</v>
+        <v>0.04764721972255107</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04731614155981392</v>
+        <v>0.03109177142733947</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02257552865843787</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0756334277900152</v>
+        <v>0.06264764133926209</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02254845428146328</v>
+        <v>0.04787257066417169</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02247814867774411</v>
+        <v>0.09426825742268746</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02301598984987098</v>
+        <v>0.04774605341400315</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02297239299270955</v>
+        <v>0.02674148813749904</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02380964467228032</v>
+        <v>0.04929022729919076</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04840494039972876</v>
+        <v>0.03132455842767573</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02335399516390124</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07642013506663803</v>
+        <v>0.06340023574330003</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02332598718772063</v>
+        <v>0.04952334896293623</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02297239299270955</v>
+        <v>0.09460364067202692</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02380964467228032</v>
+        <v>0.04939246904896877</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02375945769801606</v>
+        <v>0.02488108431327824</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02460329949468966</v>
+        <v>0.05093323487583045</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04938710554455217</v>
+        <v>0.03152585151320722</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02413246166936462</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07847208282195295</v>
+        <v>0.06378884722987538</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02410352009397799</v>
+        <v>0.05117412726170077</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02375945769801606</v>
+        <v>0.09534007078431561</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02460329949468966</v>
+        <v>0.0510388846839344</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02443798724756832</v>
+        <v>0.02699022009262658</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02539695431709901</v>
+        <v>0.05257624245247015</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0498601823323275</v>
+        <v>0.03199305228588099</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02491092817482799</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07908785810727192</v>
+        <v>0.0640082933878654</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02488105300023534</v>
+        <v>0.05282490556046531</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02443798724756832</v>
+        <v>0.09576983313672582</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02539695431709901</v>
+        <v>0.05268530031890003</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02480662609527098</v>
+        <v>0.02606675095977629</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02619060913950835</v>
+        <v>0.05421925002910983</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05132171610109812</v>
+        <v>0.03212356234764419</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02568939468029137</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08116604797390725</v>
+        <v>0.06435339180614724</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0256585859064927</v>
+        <v>0.05447568385922984</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02480662609527098</v>
+        <v>0.09628521310642985</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02619060913950835</v>
+        <v>0.05433171595386566</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02556401869502874</v>
+        <v>0.02711604731975793</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02698426396191769</v>
+        <v>0.05586225760574953</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05196925218890738</v>
+        <v>0.03191478330044387</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02646786118575474</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08190523947317097</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02643611881275005</v>
+        <v>0.05612646215799439</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02556401869502874</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02698426396191769</v>
+        <v>0.05597813158883128</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02610880950074621</v>
+        <v>0.02511477785865591</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02777791878432704</v>
+        <v>0.05750526518238921</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05300033593379866</v>
+        <v>0.03227253131770426</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02724632769121812</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08310401965637521</v>
+        <v>0.06419981577909556</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0272136517190074</v>
+        <v>0.05777724045675893</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02610880950074621</v>
+        <v>0.09674199720373478</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02777791878432704</v>
+        <v>0.05762454722379691</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02633964296632804</v>
+        <v>0.0250989546292418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02857157360673638</v>
+        <v>0.05914827275902891</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05401251267381532</v>
+        <v>0.03217080955293768</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02802479419668149</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08386097557483219</v>
+        <v>0.06439937604678531</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02799118462526476</v>
+        <v>0.05942801875552348</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02633964296632804</v>
+        <v>0.09620712604994985</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02857157360673638</v>
+        <v>0.05927096285876254</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02715516354567891</v>
+        <v>0.02606593338044903</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02936522842914573</v>
+        <v>0.0607912803356686</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05480332774700064</v>
+        <v>0.0322512697535972</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02880326070214487</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08517469427985397</v>
+        <v>0.0644517287901277</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02876871753152211</v>
+        <v>0.06107879705428801</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02715516354567891</v>
+        <v>0.0959091434308445</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02936522842914573</v>
+        <v>0.06091737849372816</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02735401569270349</v>
+        <v>0.02501684433393164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03015888325155507</v>
+        <v>0.0624342879123083</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0552703264913981</v>
+        <v>0.03221105813649712</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02958172720760824</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08614376282275266</v>
+        <v>0.06426335223684893</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02954625043777947</v>
+        <v>0.06272957535305256</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02735401569270349</v>
+        <v>0.09615211517512651</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03015888325155507</v>
+        <v>0.06256379412869378</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02803484386130639</v>
+        <v>0.02495281771134366</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03095253807396441</v>
+        <v>0.06407729548894799</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05621105424505093</v>
+        <v>0.03195154413234497</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03036019371307161</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08736676825484058</v>
+        <v>0.06393697766706322</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03032378334403682</v>
+        <v>0.06438035365181709</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02803484386130639</v>
+        <v>0.0955401071115034</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03095253807396441</v>
+        <v>0.0642102097636594</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02829629250539233</v>
+        <v>0.02687498373433912</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03174619289637376</v>
+        <v>0.06572030306558768</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05732305634600263</v>
+        <v>0.03197409717184825</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03113866021853499</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08874229762742969</v>
+        <v>0.06417533636088471</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03110131625029418</v>
+        <v>0.06603113195058163</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02829629250539233</v>
+        <v>0.09607718506868285</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03174619289637376</v>
+        <v>0.06585662539862504</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02873700607886592</v>
+        <v>0.02678447262457203</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0325398477187831</v>
+        <v>0.06736331064222738</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05770387813229647</v>
+        <v>0.03188008668571454</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03191712672399837</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08956893799183213</v>
+        <v>0.06338115959842749</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03187884915655154</v>
+        <v>0.06768191024934618</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02873700607886592</v>
+        <v>0.09536741487537226</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0325398477187831</v>
+        <v>0.06750304103359066</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02945562903563181</v>
+        <v>0.02468241460369643</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03333350254119245</v>
+        <v>0.06900631821886706</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05905106494197576</v>
+        <v>0.03167088210465131</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03269559322946174</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09004527639936027</v>
+        <v>0.06365717865980583</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03265638206280889</v>
+        <v>0.06933268854811073</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02945562903563181</v>
+        <v>0.09461486236027938</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03333350254119245</v>
+        <v>0.06914945666855629</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02975080582959472</v>
+        <v>0.02656993989336633</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03412715736360179</v>
+        <v>0.07064932579550676</v>
       </c>
       <c r="J108" t="n">
-        <v>0.059162162113084</v>
+        <v>0.03164785285936614</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03347405973492511</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09086989990132599</v>
+        <v>0.06350612482513371</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03343391496906625</v>
+        <v>0.07098346684687526</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02975080582959472</v>
+        <v>0.0951235933521119</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03412715736360179</v>
+        <v>0.07079587230352191</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03012118091465923</v>
+        <v>0.02544817871523577</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03492081218601113</v>
+        <v>0.07229233337214645</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06033471498366441</v>
+        <v>0.03151236838056654</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03425252624038849</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09174139554904148</v>
+        <v>0.06263072937452543</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0342114478753236</v>
+        <v>0.07263424514563981</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03012118091465923</v>
+        <v>0.09469767367957727</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03492081218601113</v>
+        <v>0.07244228793848753</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03046539874473006</v>
+        <v>0.02431826129095877</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03571446700842048</v>
+        <v>0.07393534094878614</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06066626889176044</v>
+        <v>0.03146579809896004</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03503099274585186</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09225835039381891</v>
+        <v>0.062833723588095</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03498898078158095</v>
+        <v>0.07428502344440434</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03046539874473006</v>
+        <v>0.09344116917138306</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03571446700842048</v>
+        <v>0.07408870357345317</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03058210377371183</v>
+        <v>0.02618131784218936</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03650812183082982</v>
+        <v>0.07557834852542583</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06165436917541539</v>
+        <v>0.03120951144525413</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03580945925131523</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09301935148697055</v>
+        <v>0.06261783874595664</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03576651368783831</v>
+        <v>0.07593580174316888</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03058210377371183</v>
+        <v>0.093458145656237</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03650812183082982</v>
+        <v>0.07573511920841879</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03116994045550918</v>
+        <v>0.02603847859058155</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03730177665323917</v>
+        <v>0.07722135610206553</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06179656117267268</v>
+        <v>0.03114487785015639</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03658792575677862</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09352298587980823</v>
+        <v>0.06218580612822447</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03654404659409566</v>
+        <v>0.07758658004193342</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03116994045550918</v>
+        <v>0.09285266896284666</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03730177665323917</v>
+        <v>0.07738153484338442</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03122755324402682</v>
+        <v>0.02389087375778939</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03809543147564851</v>
+        <v>0.07886436367870522</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06259039022157567</v>
+        <v>0.03087326674437432</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03736639226224199</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09476784062364446</v>
+        <v>0.06164035701501266</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03732157950035301</v>
+        <v>0.07923735834069796</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03122755324402682</v>
+        <v>0.09212880491991965</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03809543147564851</v>
+        <v>0.07902795047835004</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03145358659316938</v>
+        <v>0.02473963356546689</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03888908629805785</v>
+        <v>0.08050737125534491</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06273340166016764</v>
+        <v>0.03049604755861549</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03814485876770537</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09535250276979107</v>
+        <v>0.06158422268643532</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03809911240661037</v>
+        <v>0.08088813663946251</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03145358659316938</v>
+        <v>0.09199061935616354</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03888908629805785</v>
+        <v>0.08067436611331567</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03154668495684153</v>
+        <v>0.02458588823526806</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03968274112046719</v>
+        <v>0.0821503788319846</v>
       </c>
       <c r="J115" t="n">
-        <v>0.063223140826492</v>
+        <v>0.03041458972358736</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03892332527316874</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09517555936956035</v>
+        <v>0.06112013442260661</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03887664531286772</v>
+        <v>0.08253891493822704</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03154668495684153</v>
+        <v>0.09124217810028584</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03968274112046719</v>
+        <v>0.08232078174828129</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0320054927889479</v>
+        <v>0.02543076798884696</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04047639594287654</v>
+        <v>0.0837933864086243</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0633571530585921</v>
+        <v>0.03013026266999752</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03970179177863211</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09593559747426444</v>
+        <v>0.06025082350364069</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03965417821912507</v>
+        <v>0.08418969323699159</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0320054927889479</v>
+        <v>0.09078754698099428</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04047639594287654</v>
+        <v>0.08396719738324693</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03182865454339318</v>
+        <v>0.0252754030478576</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04127005076528589</v>
+        <v>0.08543639398526399</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06353298369451132</v>
+        <v>0.03014443582855345</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04048025828409549</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09583120413521545</v>
+        <v>0.06007902120965161</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04043171112538243</v>
+        <v>0.08584047153575612</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03182865454339318</v>
+        <v>0.09023079182699639</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04127005076528589</v>
+        <v>0.08561361301821255</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.031914814674082</v>
+        <v>0.02312092363395401</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04206370558769523</v>
+        <v>0.08707940156190368</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06374817807229299</v>
+        <v>0.02975847862996271</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04125872478955886</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09576096640372544</v>
+        <v>0.06010745882075366</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04120924403163978</v>
+        <v>0.08749124983452067</v>
       </c>
       <c r="N118" t="n">
-        <v>0.031914814674082</v>
+        <v>0.0899759784669999</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04206370558769523</v>
+        <v>0.08726002865317817</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.02496779595553112</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04285736041010457</v>
+        <v>0.08872240913854336</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0645002815299805</v>
+        <v>0.02957376050493282</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04203719129502224</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09652347133110672</v>
+        <v>0.05953886761706093</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04198677693789714</v>
+        <v>0.0891420281332852</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.08942717272971229</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04285736041010457</v>
+        <v>0.0889064442881438</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03217220047672932</v>
+        <v>0.02379854600748026</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04365101523251392</v>
+        <v>0.09036541671518306</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.02968952012354407</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04281565780048562</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.05936630726256353</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04276430984415449</v>
+        <v>0.09079280643204975</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03217220047672932</v>
+        <v>0.08824618230383946</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04365101523251392</v>
+        <v>0.09055285992310942</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03206635699202275</v>
+        <v>0.02460773015449162</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04444467005492326</v>
+        <v>0.09200842429182275</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06420667323217091</v>
+        <v>0.02948295614337322</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04359412430594899</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09694180572570943</v>
+        <v>0.05884359586736732</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04354184275041185</v>
+        <v>0.09244358473081429</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03206635699202275</v>
+        <v>0.0872842058120582</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04444467005492326</v>
+        <v>0.09219927555807506</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03215341318595875</v>
+        <v>0.02239903079381524</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04523832487733261</v>
+        <v>0.09365143186846243</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06449037130199894</v>
+        <v>0.02915105887610572</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04437259081141236</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09653110253145775</v>
+        <v>0.05807188062945681</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0443193756566692</v>
+        <v>0.09409436302957884</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03215341318595875</v>
+        <v>0.08705410763873606</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04523832487733261</v>
+        <v>0.09384569119304068</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03223362086886447</v>
+        <v>0.02417613032270132</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04603197969974195</v>
+        <v>0.09529443944510213</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06445241374116772</v>
+        <v>0.02869829009068198</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04515105731687574</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09660454895678522</v>
+        <v>0.05796006038592813</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04509690856292656</v>
+        <v>0.09574514132834337</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03223362086886447</v>
+        <v>0.08646913473981216</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04603197969974195</v>
+        <v>0.09549210682800631</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03190723185106707</v>
+        <v>0.02394271113839991</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04682563452215129</v>
+        <v>0.09693744702174183</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06389357063381451</v>
+        <v>0.02842911155604229</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04592952382233911</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0959624701022313</v>
+        <v>0.05731703397387733</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04587444146918391</v>
+        <v>0.09739591962710792</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03190723185106707</v>
+        <v>0.08544253407122543</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04682563452215129</v>
+        <v>0.09713852246297193</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0320744979428937</v>
+        <v>0.02170245563816118</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04761928934456063</v>
+        <v>0.09858045459838152</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06431461206407657</v>
+        <v>0.02834798504112697</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04670799032780248</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09640519106833567</v>
+        <v>0.05675170023040044</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04665197437544127</v>
+        <v>0.09904669792587245</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0320744979428937</v>
+        <v>0.08438755258891528</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04761928934456063</v>
+        <v>0.09878493809793755</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03203567095467152</v>
+        <v>0.0224590462192352</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04841294416696998</v>
+        <v>0.1002234621750212</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06411630811609129</v>
+        <v>0.02805937231487642</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04748645683326586</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09653303695563792</v>
+        <v>0.05607295799259354</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04742950728169862</v>
+        <v>0.100697476224637</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03203567095467152</v>
+        <v>0.08371743724882058</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04841294416696998</v>
+        <v>0.1004313537329032</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0318910026967277</v>
+        <v>0.02321616527887211</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04920659898937933</v>
+        <v>0.1018664697516609</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06389942887399588</v>
+        <v>0.02786773514623091</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04826492333872924</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09654633286467768</v>
+        <v>0.05508970609755273</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04820704018795598</v>
+        <v>0.1023482545234015</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0318910026967277</v>
+        <v>0.08284543500688046</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04920659898937933</v>
+        <v>0.1020777693678688</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03194074497938938</v>
+        <v>0.02097749521432201</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05000025381178867</v>
+        <v>0.1035094773283006</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06356474442192764</v>
+        <v>0.0272775353041308</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04904338984419261</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09604540389599447</v>
+        <v>0.05511084338237399</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04898457309421333</v>
+        <v>0.1039990328221661</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03194074497938938</v>
+        <v>0.08238479281903416</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05000025381178867</v>
+        <v>0.1037241850028344</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03188514961298372</v>
+        <v>0.02174671842283504</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05079390863419801</v>
+        <v>0.1051524849049403</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06381302484402387</v>
+        <v>0.0271932345575164</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04982185634965599</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09613057515012807</v>
+        <v>0.05454526868415344</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04976210600047069</v>
+        <v>0.1056498111209306</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03188514961298372</v>
+        <v>0.08084875764122079</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05079390863419801</v>
+        <v>0.1053706006378001</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03172446840783787</v>
+        <v>0.02252676730594325</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05158756345660736</v>
+        <v>0.10679549248158</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06344504022442185</v>
+        <v>0.02691929467532807</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05060032285511936</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09620217172761808</v>
+        <v>0.0538018808399871</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05053963890672804</v>
+        <v>0.1073005894196952</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03172446840783787</v>
+        <v>0.07985057642937932</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05158756345660736</v>
+        <v>0.1070170162727657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03175895317427899</v>
+        <v>0.02129522157450835</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0523812182790167</v>
+        <v>0.1084385000582197</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06316156064725886</v>
+        <v>0.02645639568395945</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05137878936058273</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09536051872900403</v>
+        <v>0.05307436434000187</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0513171718129854</v>
+        <v>0.1089513677184597</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03175895317427899</v>
+        <v>0.07914338194921894</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0523812182790167</v>
+        <v>0.1086634319077313</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03158885572263424</v>
+        <v>0.02004401807143925</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05317487310142605</v>
+        <v>0.1100815076348594</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06306335619667222</v>
+        <v>0.02617377133594648</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05215725586604611</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09560594125482552</v>
+        <v>0.05290102964388185</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05209470471924275</v>
+        <v>0.1106021460172242</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03158885572263424</v>
+        <v>0.07836092342169759</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05317487310142605</v>
+        <v>0.1103098475426969</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03161442786323078</v>
+        <v>0.02177842814947829</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05396852792383539</v>
+        <v>0.1117245152114991</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06265119695679922</v>
+        <v>0.0259688065389313</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05293572237150949</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0956387644056223</v>
+        <v>0.05178517718398304</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05287223762550011</v>
+        <v>0.1122529243159888</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03161442786323078</v>
+        <v>0.07792163728748475</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05396852792383539</v>
+        <v>0.1119562631776626</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03133592140639574</v>
+        <v>0.02050372316136776</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05476218274624473</v>
+        <v>0.1133675227881387</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06262585301177709</v>
+        <v>0.02554788831645916</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05371418887697286</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09525931328193388</v>
+        <v>0.05133954564821538</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05364977053175745</v>
+        <v>0.1139037026147533</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03133592140639574</v>
+        <v>0.07704448656788804</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05476218274624473</v>
+        <v>0.1136026788126282</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03145358816245632</v>
+        <v>0.01922517445984995</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05555583756865408</v>
+        <v>0.1150105303647784</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06208809444574317</v>
+        <v>0.02541740369207514</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05449265538243624</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09536791298429981</v>
+        <v>0.05047687372448886</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05442730343801481</v>
+        <v>0.1155544809135179</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03145358816245632</v>
+        <v>0.07544843428421499</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05555583756865408</v>
+        <v>0.1152490944475938</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03116767994173963</v>
+        <v>0.02094805339766718</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05634949239106341</v>
+        <v>0.1166535379414181</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06193869134283472</v>
+        <v>0.02518373968932448</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05527112188789961</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09486488861325987</v>
+        <v>0.05000990010071332</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05520483634427216</v>
+        <v>0.1172052592122824</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03116767994173963</v>
+        <v>0.07465244345777317</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05634949239106341</v>
+        <v>0.1168955100825594</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03107844855457285</v>
+        <v>0.02067763132756174</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05714314721347276</v>
+        <v>0.1182965455180578</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06167841378718908</v>
+        <v>0.02485328333175232</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05604958839336299</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09415056526935356</v>
+        <v>0.04935136346479885</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05598236925052952</v>
+        <v>0.118856037511047</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03107844855457285</v>
+        <v>0.07367547710987016</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05714314721347276</v>
+        <v>0.1185419257175251</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03118614581128312</v>
+        <v>0.01941917960227593</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05793680203588211</v>
+        <v>0.1199395530946975</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06190803186294344</v>
+        <v>0.02433242164290383</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05682805489882636</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09482526805312064</v>
+        <v>0.04871400250465527</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05675990215678687</v>
+        <v>0.1205068158098115</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03118614581128312</v>
+        <v>0.07303649826181358</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05793680203588211</v>
+        <v>0.1201883413524907</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03099102352219761</v>
+        <v>0.01817796957455205</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05873045685829145</v>
+        <v>0.1215825606713372</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06132831565423519</v>
+        <v>0.02412754164632419</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05760652140428973</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09398932206510052</v>
+        <v>0.04841055590819257</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05753743506304423</v>
+        <v>0.122157594108576</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03099102352219761</v>
+        <v>0.07215446993491081</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05873045685829145</v>
+        <v>0.1218347569874563</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03089333349764349</v>
+        <v>0.01895927259713243</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0595241116807008</v>
+        <v>0.1232255682479769</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06084003524520157</v>
+        <v>0.02384503036555853</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05838498790975311</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09404305240583288</v>
+        <v>0.04745376236332061</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05831496796930158</v>
+        <v>0.1238083724073406</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03089333349764349</v>
+        <v>0.07104835515046942</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0595241116807008</v>
+        <v>0.1234811726224219</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0306933275479479</v>
+        <v>0.01876836002275933</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06031776650311014</v>
+        <v>0.1248685758246166</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06094396071997987</v>
+        <v>0.02369127482415209</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05916345441521648</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09368678417585746</v>
+        <v>0.04715636055794944</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05909250087555894</v>
+        <v>0.1254591507061051</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0306933275479479</v>
+        <v>0.07033711692979705</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06031776650311014</v>
+        <v>0.1251275882573876</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03059125748343798</v>
+        <v>0.01761050320417507</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06111142132551949</v>
+        <v>0.1265115834012563</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06044086216270741</v>
+        <v>0.02347266204564996</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05994192092067985</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09292084247571381</v>
+        <v>0.04633108917998896</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05987003378181629</v>
+        <v>0.1271099290048696</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03059125748343798</v>
+        <v>0.07023971829420123</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06111142132551949</v>
+        <v>0.1267740038923532</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03078737511444091</v>
+        <v>0.01949097349412197</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06190507614792882</v>
+        <v>0.128154590977896</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05983150965752143</v>
+        <v>0.02329557905359737</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06072038742614323</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09274555240594146</v>
+        <v>0.04629068691734903</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06064756668807365</v>
+        <v>0.1287607073036342</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03078737511444091</v>
+        <v>0.06917512226498945</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06190507614792882</v>
+        <v>0.1284204195273188</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03068193225128382</v>
+        <v>0.01841504224534229</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06269873097033817</v>
+        <v>0.1297975985545357</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05981667328855922</v>
+        <v>0.02296641287153944</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06149885393160661</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09306123906708014</v>
+        <v>0.04604789245793969</v>
       </c>
       <c r="M144" t="n">
-        <v>0.061425099594331</v>
+        <v>0.1304114856023987</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03068193225128382</v>
+        <v>0.06936229186346932</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06269873097033817</v>
+        <v>0.1300668351622845</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03047518070429391</v>
+        <v>0.01938798081057836</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06349238579274752</v>
+        <v>0.1314406061311754</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0593971231399581</v>
+        <v>0.02289155052302136</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06227732043706999</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09236822755966939</v>
+        <v>0.04591544448967083</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06220263250058836</v>
+        <v>0.1320622639011633</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03047518070429391</v>
+        <v>0.06912019011094839</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06349238579274752</v>
+        <v>0.1317132507972501</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03046737228379828</v>
+        <v>0.01939174006117653</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06428604061515686</v>
+        <v>0.1330836137078151</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05947362929585534</v>
+        <v>0.02277522229676632</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06305578694253336</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0918668429842488</v>
+        <v>0.04559590068438346</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0629801654068457</v>
+        <v>0.1337130421999278</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03046737228379828</v>
+        <v>0.06932117825327616</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06428604061515686</v>
+        <v>0.1333596664322157</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03035875880012413</v>
+        <v>0.01740303131600132</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0650796954375662</v>
+        <v>0.1347266212844548</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05894696184038822</v>
+        <v>0.02298245644564884</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06383425344799673</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09225741044135816</v>
+        <v>0.04611303258059424</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06375769831310307</v>
+        <v>0.1353638204986924</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03035875880012413</v>
+        <v>0.0691551853693203</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0650796954375662</v>
+        <v>0.1350060820671813</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0302495920635986</v>
+        <v>0.01842146127919297</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06587335025997555</v>
+        <v>0.1363696288610944</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0582178908576941</v>
+        <v>0.02279861525009473</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06461271995346012</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09194025503153691</v>
+        <v>0.04574785011222496</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06453523121936042</v>
+        <v>0.1370145987974569</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0302495920635986</v>
+        <v>0.06941515738700249</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06587335025997555</v>
+        <v>0.1366524977021469</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02984012388454885</v>
+        <v>0.01744664261367215</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06666700508238489</v>
+        <v>0.1380126364377341</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05788718643191015</v>
+        <v>0.02312322939394043</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06539118645892349</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09091570185532472</v>
+        <v>0.04629941724512837</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06531276412561778</v>
+        <v>0.1386653770962215</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02984012388454885</v>
+        <v>0.06889970091042474</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06666700508238489</v>
+        <v>0.1382989133371126</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03003060607330202</v>
+        <v>0.01947818798235953</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06746065990479423</v>
+        <v>0.1396556440143738</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05785561864717376</v>
+        <v>0.02295582956102245</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06616965296438686</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09078407601326127</v>
+        <v>0.0461667979451571</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06609029703187512</v>
+        <v>0.140316155394986</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03003060607330202</v>
+        <v>0.06940742254368898</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06746065990479423</v>
+        <v>0.1399453289720782</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02962129044018529</v>
+        <v>0.01951571004817582</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06825431472720357</v>
+        <v>0.1412986515910135</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05762395758762212</v>
+        <v>0.0230959464351773</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06694811946985023</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09104570260588607</v>
+        <v>0.04594905617816386</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06686782993813249</v>
+        <v>0.1419669336937505</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02962129044018529</v>
+        <v>0.06883692889089715</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06825431472720357</v>
+        <v>0.1415917446070438</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02951242879552579</v>
+        <v>0.01755882147404168</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06904796954961293</v>
+        <v>0.1429416591676532</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05729297333739261</v>
+        <v>0.02304311070024144</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0677265859753136</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09000090673373878</v>
+        <v>0.0465452559100013</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06764536284438984</v>
+        <v>0.1436177119925151</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02951242879552579</v>
+        <v>0.06958682655615123</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06904796954961293</v>
+        <v>0.1432381602420094</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0297042729496507</v>
+        <v>0.01760713492287778</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06984162437202227</v>
+        <v>0.1445846667442929</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05696343598062248</v>
+        <v>0.02299685304005139</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06850505248077698</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08995001349735904</v>
+        <v>0.04655446110652212</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06842289575064719</v>
+        <v>0.1452684902912796</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0297042729496507</v>
+        <v>0.06995572214355311</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06984162437202227</v>
+        <v>0.1448845758769751</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02939707471288713</v>
+        <v>0.01766026305760483</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07063527919443162</v>
+        <v>0.1462276743209326</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05633611560144905</v>
+        <v>0.02325670413844359</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06928351898624036</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08959334799728641</v>
+        <v>0.04627573573357893</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06920042865690454</v>
+        <v>0.1469192685900441</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02939707471288713</v>
+        <v>0.06994222225720481</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07063527919443162</v>
+        <v>0.1465309915119407</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02939100426447622</v>
+        <v>0.01871781854114348</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07142893401684096</v>
+        <v>0.1478706818975723</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05631178228400952</v>
+        <v>0.02342219467925459</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07006198549170373</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08873123533406052</v>
+        <v>0.04670814375702448</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0699779615631619</v>
+        <v>0.1485700468888087</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02939100426447622</v>
+        <v>0.06994493350120823</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07142893401684096</v>
+        <v>0.1481774071469063</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02928233722751264</v>
+        <v>0.01977941403641446</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0722225888392503</v>
+        <v>0.149513689474212</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05619120611244127</v>
+        <v>0.02349285534632084</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0708404519971671</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08916400060822105</v>
+        <v>0.04705074914271143</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07075549446941926</v>
+        <v>0.1502208251875732</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02928233722751264</v>
+        <v>0.07066246247966523</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0722225888392503</v>
+        <v>0.149823822781872</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02896904343566588</v>
+        <v>0.01784467216391249</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07301624366165964</v>
+        <v>0.1511566970508517</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05537515717088157</v>
+        <v>0.02326821682347885</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07161891850263047</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08809196892030757</v>
+        <v>0.04660261585649245</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07153302737567661</v>
+        <v>0.1518716034863378</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02896904343566588</v>
+        <v>0.07089341579667791</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07301624366165964</v>
+        <v>0.1514702384168376</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02905126037866905</v>
+        <v>0.01794679100871752</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07380989848406898</v>
+        <v>0.1527997046274913</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05526440554346768</v>
+        <v>0.02355369211937021</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07239738500809385</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08771546537085978</v>
+        <v>0.04738399849477259</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07231056028193396</v>
+        <v>0.1535223817851023</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02905126037866905</v>
+        <v>0.07041117229254257</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07380989848406898</v>
+        <v>0.1531166540518032</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02872912554625529</v>
+        <v>0.01910912213009739</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07460355330647833</v>
+        <v>0.1544427122041311</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05495972131433688</v>
+        <v>0.02380417923325243</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07317585151355724</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0880348150604171</v>
+        <v>0.04710416692355118</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07308809318819132</v>
+        <v>0.1551731600838668</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02872912554625529</v>
+        <v>0.07084909066256218</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07460355330647833</v>
+        <v>0.1547630696867688</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02890277642815768</v>
+        <v>0.02031997275649886</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07539720812888767</v>
+        <v>0.1560857197807707</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05486187456762651</v>
+        <v>0.02382195025366284</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07395431801902061</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0876503430895193</v>
+        <v>0.04755500138817553</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07386562609444867</v>
+        <v>0.1568239383826314</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02890277642815768</v>
+        <v>0.07167033287236663</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07539720812888767</v>
+        <v>0.1564094853217345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02867235051410937</v>
+        <v>0.02056765011636869</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07619086295129703</v>
+        <v>0.1577287273574104</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05407163538747381</v>
+        <v>0.02419283765836001</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07473278452448398</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.086762374558706</v>
+        <v>0.04830824527693672</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07464315900070602</v>
+        <v>0.1584747166813959</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02867235051410937</v>
+        <v>0.0725328356628745</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07619086295129703</v>
+        <v>0.1580559009567001</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02843798529384343</v>
+        <v>0.01884046143815355</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07698451777370637</v>
+        <v>0.1593717349340501</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05388977385801608</v>
+        <v>0.02430267392510256</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07551125102994735</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08617123456851672</v>
+        <v>0.04873564197812616</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07542069190696338</v>
+        <v>0.1601254949801605</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02843798529384343</v>
+        <v>0.07399453577500448</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07698451777370637</v>
+        <v>0.1597023165916657</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02849981825709307</v>
+        <v>0.02112671395030027</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0777781725961157</v>
+        <v>0.1610147425106898</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05371706006339064</v>
+        <v>0.024937291531649</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07628971753541074</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08587724821949122</v>
+        <v>0.05000893488003494</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07619822481322074</v>
+        <v>0.161776273278925</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02849981825709307</v>
+        <v>0.07441336994967507</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0777781725961157</v>
+        <v>0.1613487322266313</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02825798689359132</v>
+        <v>0.02041471488125553</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07857182741852504</v>
+        <v>0.1626577500873295</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05355426401884147</v>
+        <v>0.02518252295575796</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07706818404087411</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08568074061216896</v>
+        <v>0.05049986737095433</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07697575771947809</v>
+        <v>0.1634270515776896</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02825798689359132</v>
+        <v>0.07544727492780501</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07857182741852504</v>
+        <v>0.162995147861597</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02801262869307133</v>
+        <v>0.02169277145946607</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07936548224093438</v>
+        <v>0.1643007576639692</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05329869071036589</v>
+        <v>0.02532420067518799</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07784665054633748</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08578203684708963</v>
+        <v>0.05108018283917559</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07775329062573544</v>
+        <v>0.1650778298764541</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02801262869307133</v>
+        <v>0.07675418745031282</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07936548224093438</v>
+        <v>0.1646415634965626</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02776388114526623</v>
+        <v>0.01994919091337865</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08015913706334374</v>
+        <v>0.1659437652406089</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05294688842974524</v>
+        <v>0.02564815716769765</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07862511705180085</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08478146202479281</v>
+        <v>0.05202162467298993</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0785308235319928</v>
+        <v>0.1667286081752186</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02776388114526623</v>
+        <v>0.07799204425811707</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08015913706334374</v>
+        <v>0.1662879791315282</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02761188173990911</v>
+        <v>0.02017233095148709</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08095279188575308</v>
+        <v>0.1675867728172486</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05289840302035925</v>
+        <v>0.02624022491104552</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07940358355726422</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08467934124581816</v>
+        <v>0.05219593626068852</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07930835643825014</v>
+        <v>0.1683793864739832</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02761188173990911</v>
+        <v>0.07911878209213646</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08095279188575308</v>
+        <v>0.1679343947664939</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02775676796673308</v>
+        <v>0.02137421053672716</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08174644670816243</v>
+        <v>0.1692297803938883</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05235278032558749</v>
+        <v>0.02619176593416024</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08018205006272761</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08427599961070531</v>
+        <v>0.05289242274855185</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08008588934450751</v>
+        <v>0.1700301647727477</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02775676796673308</v>
+        <v>0.07904734047699208</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08174644670816243</v>
+        <v>0.1695808104014595</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02729867731547132</v>
+        <v>0.02057105308905239</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08254010153057177</v>
+        <v>0.170872787970528</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05240956618880963</v>
+        <v>0.0264308327613214</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08096051656819098</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08367053816858777</v>
+        <v>0.05356897895531465</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08086342225076486</v>
+        <v>0.1716809430715122</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02729867731547132</v>
+        <v>0.07965599730077222</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08254010153057177</v>
+        <v>0.1712272260364251</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02713774727585688</v>
+        <v>0.0217632295383692</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08333375635298111</v>
+        <v>0.1725157955471677</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05196830645340525</v>
+        <v>0.02696402566594491</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08173898307365435</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08354861635569216</v>
+        <v>0.05353391133512603</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08164095515702222</v>
+        <v>0.1733317213702768</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02713774727585688</v>
+        <v>0.08074764075562391</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08333375635298111</v>
+        <v>0.1728736416713907</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02727411533762292</v>
+        <v>0.02195111081458396</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08412741117539045</v>
+        <v>0.1741588031238074</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05192854696275398</v>
+        <v>0.02699179408447751</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08251744957911772</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08330594458493351</v>
+        <v>0.05388811627275575</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08241848806327956</v>
+        <v>0.1749824996690413</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02727411533762292</v>
+        <v>0.0810236052147264</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08412741117539045</v>
+        <v>0.1745200573063563</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02690791899050252</v>
+        <v>0.02213506784760303</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08492106599779981</v>
+        <v>0.175801810700447</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05188983356023549</v>
+        <v>0.02731458745336583</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0832959160845811</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08204242432593178</v>
+        <v>0.05453249015297337</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08319602096953693</v>
+        <v>0.1766332779678059</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02690791899050252</v>
+        <v>0.08178522505125929</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08492106599779981</v>
+        <v>0.176166472941322</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02663929572422884</v>
+        <v>0.02231547156733283</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08571472082020914</v>
+        <v>0.1774448182770867</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05165171208922936</v>
+        <v>0.02763285520905658</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08407438259004447</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08185795704830673</v>
+        <v>0.05486792936054874</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08397355387579428</v>
+        <v>0.1782840562665704</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02663929572422884</v>
+        <v>0.08313383463840168</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08571472082020914</v>
+        <v>0.1778128885762876</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02676838302853495</v>
+        <v>0.02349269290367973</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08650837564261848</v>
+        <v>0.1790878258537264</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05111372839311526</v>
+        <v>0.02764704678799638</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08485284909550786</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08115244422167822</v>
+        <v>0.05529533028025144</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08475108678205164</v>
+        <v>0.179934834565335</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02676838302853495</v>
+        <v>0.0838707683493331</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08650837564261848</v>
+        <v>0.1794593042112532</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.026495318393154</v>
+        <v>0.0216671027865501</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08730203046502784</v>
+        <v>0.1807308334303661</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0509754283152728</v>
+        <v>0.02795761162663198</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08563131560097123</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08092578731566602</v>
+        <v>0.05571558929685122</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08552861968830898</v>
+        <v>0.1815856128640995</v>
       </c>
       <c r="N175" t="n">
-        <v>0.026495318393154</v>
+        <v>0.08409736055723288</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08730203046502784</v>
+        <v>0.1811057198462188</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0262202393078191</v>
+        <v>0.02183907214585034</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08809568528743718</v>
+        <v>0.1823738410070058</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05043635769908159</v>
+        <v>0.02826499916140997</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0864097821064346</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08007788779989</v>
+        <v>0.05652960279511773</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08630615259456635</v>
+        <v>0.1832363911628641</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0262202393078191</v>
+        <v>0.08471494563528037</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08809568528743718</v>
+        <v>0.1827521354811845</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02594328326226338</v>
+        <v>0.02300897191148681</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08888934010984652</v>
+        <v>0.1840168485836455</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05009606238792128</v>
+        <v>0.02826965882877709</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08718824861189797</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0798086471439699</v>
+        <v>0.05703826715982069</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0870836855008237</v>
+        <v>0.1848871694616286</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02594328326226338</v>
+        <v>0.08482485795665501</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08888934010984652</v>
+        <v>0.1843985511161501</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02576458774621995</v>
+        <v>0.02417717301336591</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08968299493225586</v>
+        <v>0.1856598561602852</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0504540882251715</v>
+        <v>0.02867204006518</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08796671511736136</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07941796681752572</v>
+        <v>0.05694247877572978</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08786121840708105</v>
+        <v>0.1865379477603931</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02576458774621995</v>
+        <v>0.08602843189453602</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08968299493225586</v>
+        <v>0.1860449667511157</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0255842902494219</v>
+        <v>0.02434903080703279</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09047664975466521</v>
+        <v>0.1873028637369249</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05020998105421187</v>
+        <v>0.02887353324203758</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08874518162282473</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07890574829017721</v>
+        <v>0.05784644683421813</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0886387513133384</v>
+        <v>0.1881887260591577</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0255842902494219</v>
+        <v>0.08633831519964985</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09047664975466521</v>
+        <v>0.1876913823860814</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02560252826160239</v>
+        <v>0.02253061862199863</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09127030457707455</v>
+        <v>0.1889458713135646</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04966328671842202</v>
+        <v>0.02878584986450761</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0895236481282881</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07757189303154405</v>
+        <v>0.05807341498354052</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08941628421959576</v>
+        <v>0.1898395043579222</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02560252826160239</v>
+        <v>0.08698422599487493</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09127030457707455</v>
+        <v>0.189337798021047</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02521943927249451</v>
+        <v>0.02471582394664742</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09206395939948391</v>
+        <v>0.1905888788902043</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04951355106118152</v>
+        <v>0.02920637956084043</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09030211463375147</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07731630251124633</v>
+        <v>0.05811517271731981</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09019381712585312</v>
+        <v>0.1914902826566867</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02521943927249451</v>
+        <v>0.087547109065924</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09206395939948391</v>
+        <v>0.1909842136560126</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02533516077183139</v>
+        <v>0.02289827485940706</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09285761422189324</v>
+        <v>0.192231886466844</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04886031992587012</v>
+        <v>0.02942740180556597</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09108058113921484</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07683887819890378</v>
+        <v>0.05875632172619186</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09097135003211047</v>
+        <v>0.1931410609554513</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02533516077183139</v>
+        <v>0.08840404223504694</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09285761422189324</v>
+        <v>0.1926306292909782</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02484983024934614</v>
+        <v>0.02407159943870547</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09365126904430258</v>
+        <v>0.1938748940434837</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04870313915586738</v>
+        <v>0.02974119607321407</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09185904764467823</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07633952156413615</v>
+        <v>0.05938146370079267</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09174888293836782</v>
+        <v>0.1947918392542158</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02484983024934614</v>
+        <v>0.08913210332449412</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09365126904430258</v>
+        <v>0.1942770449259439</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02496358519477188</v>
+        <v>0.0252294257629706</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09444492386671192</v>
+        <v>0.1955179016201234</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04864155459455291</v>
+        <v>0.02994004183831471</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0926375141501416</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07551813407656333</v>
+        <v>0.05997520033175807</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09252641584462518</v>
+        <v>0.1964426175529804</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02496358519477188</v>
+        <v>0.08960837015651557</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09444492386671192</v>
+        <v>0.1959234605609095</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02457656309784172</v>
+        <v>0.02336538191063035</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09523857868912126</v>
+        <v>0.197160909196763</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04837511208530634</v>
+        <v>0.02991621857539775</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09341598065560497</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07487461720580513</v>
+        <v>0.06012213330972399</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09330394875088253</v>
+        <v>0.1980933958517449</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02457656309784172</v>
+        <v>0.09060992055336148</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09523857868912126</v>
+        <v>0.1975698761958751</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0243889014482888</v>
+        <v>0.02447309596011269</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09603223351153062</v>
+        <v>0.1988039167734027</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04790335747150737</v>
+        <v>0.03006200575899311</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09419444716106835</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07330887242148137</v>
+        <v>0.06040686432532635</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09408148165713989</v>
+        <v>0.1997441741505094</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0243889014482888</v>
+        <v>0.09041383233728201</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09603223351153062</v>
+        <v>0.1992162918308407</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02420073773584622</v>
+        <v>0.02354864614473844</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09682588833393996</v>
+        <v>0.2004469243500424</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04812583659653552</v>
+        <v>0.03036968286363072</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09497291366653172</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07302080119321197</v>
+        <v>0.06031399506920107</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09485901456339724</v>
+        <v>0.201394952449274</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02420073773584622</v>
+        <v>0.09069985869148545</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09682588833393996</v>
+        <v>0.2008627074658063</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02421220945024709</v>
+        <v>0.02461537226039556</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09761954315634931</v>
+        <v>0.2020899319266821</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04754209530377046</v>
+        <v>0.03035059743507657</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0957513801719951</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07191030499061668</v>
+        <v>0.06087499272079885</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0956365474696546</v>
+        <v>0.2030457307480385</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02421220945024709</v>
+        <v>0.09103973398712295</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09761954315634931</v>
+        <v>0.202509123100772</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02372345408122456</v>
+        <v>0.02568062595479604</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09841319797875865</v>
+        <v>0.2037329395033218</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04715167943659188</v>
+        <v>0.03022952410722095</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09652984667745848</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07137728528331522</v>
+        <v>0.060832467980241</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09641408037591195</v>
+        <v>0.2046965090468031</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02372345408122456</v>
+        <v>0.0908743366698061</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09841319797875865</v>
+        <v>0.2041555387357376</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02383460911851171</v>
+        <v>0.02474438377840619</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09920685280116799</v>
+        <v>0.2053759470799615</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04715413483837935</v>
+        <v>0.03060666175733778</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09730831318292185</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06992164354092761</v>
+        <v>0.06068636535919117</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09719161328216931</v>
+        <v>0.2063472873455676</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02383460911851171</v>
+        <v>0.09170358238281923</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09920685280116799</v>
+        <v>0.2058019543707033</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02334581205184168</v>
+        <v>0.02580662228169247</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1000005076235773</v>
+        <v>0.2070189546566012</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04654900735251247</v>
+        <v>0.0303819819728486</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09808677968838522</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06914328123307362</v>
+        <v>0.06123662818978726</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09796914618842666</v>
+        <v>0.2079980656443322</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02334581205184168</v>
+        <v>0.09142738676944634</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1000005076235773</v>
+        <v>0.2074483700056688</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02345720037094758</v>
+        <v>0.0258673180151212</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1007941624459867</v>
+        <v>0.2086619622332409</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04613584282237093</v>
+        <v>0.03055545634117494</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09886524619384859</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06874209982937307</v>
+        <v>0.06148319980416711</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09874667909468401</v>
+        <v>0.2096488439430967</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02345720037094758</v>
+        <v>0.09244566547297156</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1007941624459867</v>
+        <v>0.2090947856406345</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02306891156556251</v>
+        <v>0.02392644752915881</v>
       </c>
       <c r="G193" t="n">
-        <v>0.101587817268396</v>
+        <v>0.2103049698098806</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0459141870913343</v>
+        <v>0.03052705644973842</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09964371269931198</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06781800079944578</v>
+        <v>0.06142602353446866</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09952421200094137</v>
+        <v>0.2112996222418612</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02306891156556251</v>
+        <v>0.09175833413667905</v>
       </c>
       <c r="O193" t="n">
-        <v>0.101587817268396</v>
+        <v>0.2107412012756001</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02278108312541963</v>
+        <v>0.02498398737427165</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1023814720908054</v>
+        <v>0.2119479773865203</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04548358600278229</v>
+        <v>0.03069675388596049</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1004221792047753</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06667088561291157</v>
+        <v>0.06136504271282978</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1003017449071987</v>
+        <v>0.2129504005406258</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02278108312541963</v>
+        <v>0.09286530840385293</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1023814720908054</v>
+        <v>0.2123876169105658</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02269385254025202</v>
+        <v>0.02503991410092615</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1031751269132147</v>
+        <v>0.21359098496316</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04554358540009443</v>
+        <v>0.03066452023726278</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1012006457102387</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06530065573939026</v>
+        <v>0.06180020067138831</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1010792778134561</v>
+        <v>0.2146011788393903</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02269385254025202</v>
+        <v>0.09226650391777719</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1031751269132147</v>
+        <v>0.2140340325455314</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02250735729979281</v>
+        <v>0.02609420425958866</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1039687817356241</v>
+        <v>0.2152339925397997</v>
       </c>
       <c r="J196" t="n">
-        <v>0.045291140648898</v>
+        <v>0.03073032709106679</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1019791122157021</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06450721264850184</v>
+        <v>0.06183144074228225</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1018568107197134</v>
+        <v>0.2162519571381549</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02250735729979281</v>
+        <v>0.09316183632173619</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1039687817356241</v>
+        <v>0.215680448180497</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02222173489377514</v>
+        <v>0.02414683440072556</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1047624365580334</v>
+        <v>0.2168770001164393</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0444102511182369</v>
+        <v>0.03109414603479412</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1027575787211655</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06329045780986575</v>
+        <v>0.06165870625764941</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1026343436259708</v>
+        <v>0.2179027354369194</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02222173489377514</v>
+        <v>0.09255122125901383</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1047624365580334</v>
+        <v>0.2173268638154626</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0223341670883692</v>
+        <v>0.02519778107480327</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1055560913804428</v>
+        <v>0.218520007693079</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04410021854242924</v>
+        <v>0.03095594865586627</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1035360452266288</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06305029269310225</v>
+        <v>0.06188194054962762</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1034118765322281</v>
+        <v>0.2195535137356839</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0223341670883692</v>
+        <v>0.09273457437289429</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1055560913804428</v>
+        <v>0.2189732794504283</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02193540880030735</v>
+        <v>0.02624702083228816</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1063497462028521</v>
+        <v>0.2201630152697187</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04406341513783629</v>
+        <v>0.03091570654170485</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1043145117320922</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06208661876783095</v>
+        <v>0.06200108695035489</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1041894094384855</v>
+        <v>0.2212042920344485</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02193540880030735</v>
+        <v>0.09321181130666178</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1063497462028521</v>
+        <v>0.2206196950853939</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02162629944923651</v>
+        <v>0.02529453022364659</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1071434010252614</v>
+        <v>0.2218060228463584</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04330221312081939</v>
+        <v>0.03107339127973135</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1050929782375556</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06029933750367178</v>
+        <v>0.062616088791969</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1049669423447428</v>
+        <v>0.222855070333213</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02162629944923651</v>
+        <v>0.09398284770360027</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1071434010252614</v>
+        <v>0.2222661107203595</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02170855018814097</v>
+        <v>0.02534028579934499</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1079370558476708</v>
+        <v>0.2234490304229981</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04271898470773977</v>
+        <v>0.03122897445736739</v>
       </c>
       <c r="K201" t="n">
-        <v>0.105871444743019</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05978835037024433</v>
+        <v>0.06232688940660791</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1057444752510002</v>
+        <v>0.2245058486319776</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02170855018814097</v>
+        <v>0.09334759920699398</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1079370558476708</v>
+        <v>0.2239125263553251</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02138387217000512</v>
+        <v>0.0253842641098497</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1087307106700801</v>
+        <v>0.2250920379996378</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04221610211495877</v>
+        <v>0.03118242766203447</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1066499112484823</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0587377415697124</v>
+        <v>0.06253343212640952</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1065220081572576</v>
+        <v>0.2261566269307421</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02138387217000512</v>
+        <v>0.09340598146012707</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1087307106700801</v>
+        <v>0.2255589419902907</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02095397654781331</v>
+        <v>0.02542644170562713</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1095243654924895</v>
+        <v>0.2267350455762775</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04149593755883771</v>
+        <v>0.03133372248115415</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1074283777539457</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05660450987796972</v>
+        <v>0.06293566028351164</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1072995410635149</v>
+        <v>0.2278074052295066</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02095397654781331</v>
+        <v>0.09385791010628358</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1095243654924895</v>
+        <v>0.2272053576252564</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02092057447454983</v>
+        <v>0.02446679513714368</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1103180203148988</v>
+        <v>0.2283780531529172</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0410608632557378</v>
+        <v>0.03118283050214798</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1082068442594091</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05464624279732672</v>
+        <v>0.06253351721005218</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1080770739697723</v>
+        <v>0.2294581835282712</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02092057447454983</v>
+        <v>0.09390330078874759</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1103180203148988</v>
+        <v>0.228851773260222</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02058537710319906</v>
+        <v>0.0255053009548657</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1111116751373082</v>
+        <v>0.2300210607295569</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04041325142202037</v>
+        <v>0.03122972331243754</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1089853107648725</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05331533109084774</v>
+        <v>0.06312694623816906</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1088546068760296</v>
+        <v>0.2311089618270357</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02058537710319906</v>
+        <v>0.09394206915080333</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1111116751373082</v>
+        <v>0.2304981888951876</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02025009558674534</v>
+        <v>0.02454193570925959</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1119053299597175</v>
+        <v>0.2316640683061966</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04005547427404671</v>
+        <v>0.03137437249944433</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1097637772703358</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05126416552159668</v>
+        <v>0.06261589070000015</v>
       </c>
       <c r="M206" t="n">
-        <v>0.109632139782287</v>
+        <v>0.2327597401258003</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02025009558674534</v>
+        <v>0.09427413083573483</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1119053299597175</v>
+        <v>0.2321446045301532</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02011644107817299</v>
+        <v>0.02657667595079174</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1126989847821268</v>
+        <v>0.2333070758828363</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03928990402817814</v>
+        <v>0.03161674965058994</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1105422437757992</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04804513685263773</v>
+        <v>0.0633002939276833</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1104096726885443</v>
+        <v>0.2344105184245648</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02011644107817299</v>
+        <v>0.09429940148682636</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1126989847821268</v>
+        <v>0.2337910201651189</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02008612473046636</v>
+        <v>0.02660949822992855</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1134926396045362</v>
+        <v>0.234950083459476</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03881891290077585</v>
+        <v>0.03165682635329592</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1113207102812626</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04631063584703488</v>
+        <v>0.06298009925335643</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1111872055948017</v>
+        <v>0.2360612967233293</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02008612473046636</v>
+        <v>0.09501779674736177</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1134926396045362</v>
+        <v>0.2354374358000845</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01986085769660978</v>
+        <v>0.02664037909713637</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1142862944269455</v>
+        <v>0.2365930910361156</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03814487310820125</v>
+        <v>0.03159457419498381</v>
       </c>
       <c r="K209" t="n">
-        <v>0.112099176786726</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04371305326785213</v>
+        <v>0.06305525000915749</v>
       </c>
       <c r="M209" t="n">
-        <v>0.111964738501059</v>
+        <v>0.2377120750220939</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01986085769660978</v>
+        <v>0.0948292322606254</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1142862944269455</v>
+        <v>0.2370838514350501</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01934235112958763</v>
+        <v>0.02566929510288162</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1150799492493549</v>
+        <v>0.2382360986127553</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03807015686681556</v>
+        <v>0.03152996476307518</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1128776432921893</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04050477987815371</v>
+        <v>0.06352568952722426</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1127422714073164</v>
+        <v>0.2393628533208584</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01934235112958763</v>
+        <v>0.09483362366990133</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1150799492493549</v>
+        <v>0.2387302670700157</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01923231618238418</v>
+        <v>0.02669622279763064</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1158736040717642</v>
+        <v>0.239879106189395</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03719713639298006</v>
+        <v>0.03146296964499157</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1136561097976527</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03783820644100361</v>
+        <v>0.06319136113969465</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1135198043135737</v>
+        <v>0.241013631619623</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01923231618238418</v>
+        <v>0.09483088661847361</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1158736040717642</v>
+        <v>0.2403766827049814</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01923246400798383</v>
+        <v>0.02472113873184987</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1166672588941736</v>
+        <v>0.2415221137660347</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03652818390305609</v>
+        <v>0.03179356042815451</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1144345763031161</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03606572371946593</v>
+        <v>0.06365220817870662</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1142973372198311</v>
+        <v>0.2426644099183875</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01923246400798383</v>
+        <v>0.09522093674962645</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1166672588941736</v>
+        <v>0.242023098339947</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01904450575937089</v>
+        <v>0.02474401945600566</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1174609137165829</v>
+        <v>0.2431651213426744</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03636567161340493</v>
+        <v>0.03152170869998557</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1152130428085795</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03363972247660457</v>
+        <v>0.063708173976398</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1150748701260885</v>
+        <v>0.244315188217152</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01904450575937089</v>
+        <v>0.09520368970664389</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1174609137165829</v>
+        <v>0.2436695139749126</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01857015258952972</v>
+        <v>0.02676484152056442</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1182545685389922</v>
+        <v>0.2448081289193141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03541197174038779</v>
+        <v>0.03174738604790631</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1159915093140428</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03071259347548388</v>
+        <v>0.06335920186490665</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1158524030323458</v>
+        <v>0.2459659665159166</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01857015258952972</v>
+        <v>0.09497906113281018</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1182545685389922</v>
+        <v>0.2453159296098782</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01861111565144462</v>
+        <v>0.0267835814759925</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1190482233614016</v>
+        <v>0.2464511364959538</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03516945650036607</v>
+        <v>0.03157056405933827</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1167699758195062</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02933672747916771</v>
+        <v>0.0637052351763705</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1166299359386032</v>
+        <v>0.2476167448146812</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01861111565144462</v>
+        <v>0.09574696667140925</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1190482233614016</v>
+        <v>0.2469623452448439</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01846910609809997</v>
+        <v>0.02680021587275633</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1198418781838109</v>
+        <v>0.2480941440725935</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03464049810970107</v>
+        <v>0.031891214321703</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1175484423249696</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02756451525072035</v>
+        <v>0.06344621724292743</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1174074688448605</v>
+        <v>0.2492675231134457</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01846910609809997</v>
+        <v>0.09500732196572531</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1198418781838109</v>
+        <v>0.2486087608798095</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01834583508248011</v>
+        <v>0.02481472126132225</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1206355330062203</v>
+        <v>0.2497371516492332</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03402746878475399</v>
+        <v>0.03180930842242205</v>
       </c>
       <c r="K217" t="n">
-        <v>0.118326908830433</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02674834755320554</v>
+        <v>0.06328209139671531</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1181850017511179</v>
+        <v>0.2509183014122102</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01834583508248011</v>
+        <v>0.09566004265904254</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1206355330062203</v>
+        <v>0.2502551765147751</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01823725094918746</v>
+        <v>0.02682707419215669</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1214291878286296</v>
+        <v>0.2513801592258729</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03363274074188613</v>
+        <v>0.03172481794891699</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1191053753358963</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02534061514968761</v>
+        <v>0.06331280096987202</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1189625346573752</v>
+        <v>0.2525690797109748</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01823725094918746</v>
+        <v>0.09520504439464494</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1214291878286296</v>
+        <v>0.2519015921497408</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01823000659391665</v>
+        <v>0.02683725121572599</v>
       </c>
       <c r="G219" t="n">
-        <v>0.122222842651039</v>
+        <v>0.2530231668025126</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03305868619745883</v>
+        <v>0.03193771448860938</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1198838418413597</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02509370880323064</v>
+        <v>0.06383828929453553</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1197400675636326</v>
+        <v>0.2542198580097393</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01823000659391665</v>
+        <v>0.09584224281581671</v>
       </c>
       <c r="O219" t="n">
-        <v>0.122222842651039</v>
+        <v>0.2535480077847064</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01802353084751264</v>
+        <v>0.02684522888249655</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1230164974734483</v>
+        <v>0.2546661743791522</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03290767736783332</v>
+        <v>0.03194796962892073</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1206623083468231</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02548423221611301</v>
+        <v>0.06355849970284358</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1205176004698899</v>
+        <v>0.2558706363085039</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01802353084751264</v>
+        <v>0.095171553565842</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1230164974734483</v>
+        <v>0.255194423419672</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01801789510212412</v>
+        <v>0.0258509837429348</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1238101522958576</v>
+        <v>0.2563091819557919</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03248208646937098</v>
+        <v>0.03165555495727261</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1214407748522865</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02568439433099623</v>
+        <v>0.0638733755269342</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1212951333761473</v>
+        <v>0.2575214146072684</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01801789510212412</v>
+        <v>0.09509289228800483</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1238101522958576</v>
+        <v>0.2568408390546376</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01791317074989972</v>
+        <v>0.02685449234750705</v>
       </c>
       <c r="G222" t="n">
-        <v>0.124603807118267</v>
+        <v>0.2579521895324317</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03188428571843299</v>
+        <v>0.03176044206108657</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1222192413577498</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02538488290254304</v>
+        <v>0.06378286009894518</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1220726662824047</v>
+        <v>0.2591721929060329</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01791317074989972</v>
+        <v>0.09540617462558942</v>
       </c>
       <c r="O222" t="n">
-        <v>0.124603807118267</v>
+        <v>0.2584872546896033</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01770942918298812</v>
+        <v>0.02485573124667973</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1253974619406763</v>
+        <v>0.2595951971090714</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03161662707690641</v>
+        <v>0.03176260252778418</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1229977078632132</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02558587840272747</v>
+        <v>0.06368689675101447</v>
       </c>
       <c r="M223" t="n">
-        <v>0.122850199188662</v>
+        <v>0.2608229712047975</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01770942918298812</v>
+        <v>0.09541131622187982</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1253974619406763</v>
+        <v>0.2601336703245689</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01750674179353799</v>
+        <v>0.0258234878688663</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1261911167630857</v>
+        <v>0.261238204685711</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03096465908751667</v>
+        <v>0.03194093308581544</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1237761743686766</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02538756130352338</v>
+        <v>0.06353724195175622</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1236277320949194</v>
+        <v>0.262473749503562</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01750674179353799</v>
+        <v>0.09571492864832271</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1261911167630857</v>
+        <v>0.2617800859595345</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.017305179973698</v>
+        <v>0.02572571260677128</v>
       </c>
       <c r="G225" t="n">
-        <v>0.126984771585495</v>
+        <v>0.2628812122623507</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03071464522791853</v>
+        <v>0.03164163800457526</v>
       </c>
       <c r="K225" t="n">
-        <v>0.12455464087414</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02529011207690463</v>
+        <v>0.06343119135647152</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1244052650011767</v>
+        <v>0.2641245278023265</v>
       </c>
       <c r="N225" t="n">
-        <v>0.017305179973698</v>
+        <v>0.0955829224518267</v>
       </c>
       <c r="O225" t="n">
-        <v>0.126984771585495</v>
+        <v>0.2634265015945002</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01720481511561676</v>
+        <v>0.0255696537323843</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1277784264079044</v>
+        <v>0.2645242198389904</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03026677343900955</v>
+        <v>0.03137008968065452</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1253331073796033</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02499371119484506</v>
+        <v>0.06318171311228857</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1251827979074341</v>
+        <v>0.2657753061010911</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01720481511561676</v>
+        <v>0.09423955938442763</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1277784264079044</v>
+        <v>0.2650729172294658</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01740571861144301</v>
+        <v>0.02636262148263264</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1285720812303137</v>
+        <v>0.2661672274156301</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02992123166168745</v>
+        <v>0.03133514554736445</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1261115738850667</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02489853912931866</v>
+        <v>0.06250647305022208</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1259603308136914</v>
+        <v>0.2674260843998557</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01740571861144301</v>
+        <v>0.09351113709407127</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1285720812303137</v>
+        <v>0.2667193328644314</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01700796185332538</v>
+        <v>0.02611192609444355</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1293657360527231</v>
+        <v>0.2678102349922698</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02967820783684985</v>
+        <v>0.03084566303801638</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1268900403905301</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0251047763522993</v>
+        <v>0.06232313700128669</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1267378637199488</v>
+        <v>0.2690768626986202</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01700796185332538</v>
+        <v>0.09252395322870333</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1293657360527231</v>
+        <v>0.268365748499397</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01701161623341252</v>
+        <v>0.0258248778047443</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1301593908751324</v>
+        <v>0.2694532425689095</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02943788990539445</v>
+        <v>0.03051049958592157</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1276685068959935</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0253126033357608</v>
+        <v>0.06104937079649703</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1275153966262061</v>
+        <v>0.2707276409973847</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01701161623341252</v>
+        <v>0.09160430543626957</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1301593908751324</v>
+        <v>0.2700121641343626</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01711675314385312</v>
+        <v>0.02550878685046213</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1309530456975417</v>
+        <v>0.2710962501455492</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02870046580821892</v>
+        <v>0.03033851262439129</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1284469734014568</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02552220055167698</v>
+        <v>0.06090284026686765</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1282929295324635</v>
+        <v>0.2723784192961493</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01711675314385312</v>
+        <v>0.0904784913647157</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1309530456975417</v>
+        <v>0.2716585797693283</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01682344397679583</v>
+        <v>0.02517096346852433</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1317467005199511</v>
+        <v>0.2727392577221889</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02886612348622089</v>
+        <v>0.03003855958673682</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1292254399069202</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0254337484720219</v>
+        <v>0.05990121124341333</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1290704624387208</v>
+        <v>0.2740291975949138</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01682344397679583</v>
+        <v>0.09007280866198764</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1317467005199511</v>
+        <v>0.2733049954042939</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01693176012438931</v>
+        <v>0.02481871789585815</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1325403553423604</v>
+        <v>0.2743822652988285</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02833505088029808</v>
+        <v>0.02941949790626947</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1300039064123836</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02544742756876933</v>
+        <v>0.05886214955714864</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1298479953449782</v>
+        <v>0.2756799758936783</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01693176012438931</v>
+        <v>0.08851355497603075</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1325403553423604</v>
+        <v>0.2749514110392595</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01674177297878224</v>
+        <v>0.02245936036939083</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1333340101647698</v>
+        <v>0.2760252728754682</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02800743593134805</v>
+        <v>0.0288901850163005</v>
       </c>
       <c r="K233" t="n">
-        <v>0.130782372917847</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.02576341831389317</v>
+        <v>0.05780332103908825</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1306255282512356</v>
+        <v>0.2773307541924429</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01674177297878224</v>
+        <v>0.0872270279547912</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1333340101647698</v>
+        <v>0.2765978266742252</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01665355393212327</v>
+        <v>0.02210020112604965</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1341276649871791</v>
+        <v>0.277668280452108</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02738346658026861</v>
+        <v>0.02875947835014121</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1315608394233103</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02548190117936727</v>
+        <v>0.0569423915202468</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1314030611574929</v>
+        <v>0.2789815324912074</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01665355393212327</v>
+        <v>0.08573952524621453</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1341276649871791</v>
+        <v>0.2782442423091908</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01666717437656108</v>
+        <v>0.02274855040276188</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1349213198095885</v>
+        <v>0.2793112880287477</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02706333076795733</v>
+        <v>0.02803623534110286</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1323393059287737</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02580305663716559</v>
+        <v>0.05619702683163891</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1321805940637502</v>
+        <v>0.280632310789972</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01666717437656108</v>
+        <v>0.0840773444982465</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1349213198095885</v>
+        <v>0.2798906579441564</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01638270570424433</v>
+        <v>0.02141171843645476</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1357149746319978</v>
+        <v>0.2809542956053873</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02704721643531185</v>
+        <v>0.02782931342249673</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1331177724342371</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02542706515926191</v>
+        <v>0.05548489280427921</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1329581269700076</v>
+        <v>0.2822830890887365</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01638270570424433</v>
+        <v>0.08366678335883282</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1357149746319978</v>
+        <v>0.2815370735791221</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01620021930732167</v>
+        <v>0.02309701546405556</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1365086294544071</v>
+        <v>0.282597303182027</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02653531152322997</v>
+        <v>0.0273475700276341</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1338962389397005</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02535410721763021</v>
+        <v>0.05492365526918244</v>
       </c>
       <c r="M237" t="n">
-        <v>0.133735659876265</v>
+        <v>0.283933867387501</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01620021930732167</v>
+        <v>0.08233413947591928</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1365086294544071</v>
+        <v>0.2831834892140876</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01641978657794177</v>
+        <v>0.02180891566118717</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1373022842768165</v>
+        <v>0.2842403107586667</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02622780397260924</v>
+        <v>0.02719862431307238</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1346747054451638</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02518436328424434</v>
+        <v>0.05412778278985303</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1345131927825223</v>
+        <v>0.2855846456862656</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01641978657794177</v>
+        <v>0.08089816288794438</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1373022842768165</v>
+        <v>0.2848299048490532</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0160414789082533</v>
+        <v>0.02152581668716975</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1380959390992259</v>
+        <v>0.2858833183353064</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02592488172434734</v>
+        <v>0.02675987041194915</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1354531719506272</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02581801383107818</v>
+        <v>0.05355038406235976</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1352907256887797</v>
+        <v>0.2872354239850301</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0160414789082533</v>
+        <v>0.07988416518726188</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1380959390992259</v>
+        <v>0.2864763204840189</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0161653676904049</v>
+        <v>0.02224163710671733</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1388895939216352</v>
+        <v>0.2875263259119461</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02552673271934203</v>
+        <v>0.02651981810030081</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1362316384560906</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02525523933010554</v>
+        <v>0.05277039117200935</v>
       </c>
       <c r="M240" t="n">
-        <v>0.136068258595037</v>
+        <v>0.2888862022837946</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0161653676904049</v>
+        <v>0.07896629141307449</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1388895939216352</v>
+        <v>0.2881227361189845</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01619152431654529</v>
+        <v>0.02095635960160753</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1396832487440445</v>
+        <v>0.2891693334885858</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02563354489849082</v>
+        <v>0.02597844639453933</v>
       </c>
       <c r="K241" t="n">
-        <v>0.137010104961554</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02609622025330044</v>
+        <v>0.05238776226779299</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1368457915012944</v>
+        <v>0.2905369805825592</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01619152431654529</v>
+        <v>0.07814447926527879</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1396832487440445</v>
+        <v>0.2897691517539501</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01592002017882307</v>
+        <v>0.02066996685361799</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1404769035664539</v>
+        <v>0.2908123410652255</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02514550620269149</v>
+        <v>0.02563573431107681</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1377885714670173</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02614113707263666</v>
+        <v>0.05150245549870194</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1376233244075517</v>
+        <v>0.2921877588813238</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01592002017882307</v>
+        <v>0.07741866644377182</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1404769035664539</v>
+        <v>0.2914155673889158</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01585092666938695</v>
+        <v>0.02138244154452636</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1412705583888632</v>
+        <v>0.2924553486418652</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0251628045728417</v>
+        <v>0.02549166086632521</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1385670379724807</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02569017026008813</v>
+        <v>0.05051442901372738</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1384008573138091</v>
+        <v>0.2938385371800883</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01585092666938695</v>
+        <v>0.0755887906484502</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1412705583888632</v>
+        <v>0.2930619830238814</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01598431518038559</v>
+        <v>0.02009376635611023</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1420642132112725</v>
+        <v>0.2940983562185049</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02438562794983909</v>
+        <v>0.02484620507669656</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1393455044779441</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02584350028762866</v>
+        <v>0.04992364096186055</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1391783902200665</v>
+        <v>0.2954893154788528</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01598431518038559</v>
+        <v>0.07485478957921088</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1420642132112725</v>
+        <v>0.2947083986588471</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01592025710396763</v>
+        <v>0.01880392397014725</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1428578680336819</v>
+        <v>0.2957413637951445</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02421416427458128</v>
+        <v>0.02449934595860291</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1401239709834075</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02630130762723226</v>
+        <v>0.04903004949209266</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1399559231263238</v>
+        <v>0.2971400937776174</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01592025710396763</v>
+        <v>0.07351660093595058</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1428578680336819</v>
+        <v>0.2963548142938127</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01565882383228176</v>
+        <v>0.02051289706841506</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1436515228560913</v>
+        <v>0.2973843713717843</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02434860148796605</v>
+        <v>0.02435106252845624</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1409024374888708</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02576377275087272</v>
+        <v>0.04873361275341492</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1407334560325811</v>
+        <v>0.2987908720763819</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01565882383228176</v>
+        <v>0.07317416241856611</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1436515228560913</v>
+        <v>0.2980012299287783</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01560008675747661</v>
+        <v>0.01922066833269127</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1444451776785006</v>
+        <v>0.2990273789484239</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02418912753089097</v>
+        <v>0.0241013338026686</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1416809039943342</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02633107613052393</v>
+        <v>0.04783428889481858</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1415109889388385</v>
+        <v>0.3004416503751464</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01560008675747661</v>
+        <v>0.07222741172695429</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1444451776785006</v>
+        <v>0.2996476455637439</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01574411727170087</v>
+        <v>0.01892722044475353</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1452388325009099</v>
+        <v>0.3006703865250636</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02373593034425373</v>
+        <v>0.02375013879765199</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1424593704997976</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02640339823815979</v>
+        <v>0.0470320360652948</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1422885218450959</v>
+        <v>0.302092428673911</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01574411727170087</v>
+        <v>0.070576286561012</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1452388325009099</v>
+        <v>0.3012940611987096</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01539098676710321</v>
+        <v>0.01863253608637946</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1460324873233193</v>
+        <v>0.3023133941017033</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02338919786895202</v>
+        <v>0.02339745652981846</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1432378370052609</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02648091954575416</v>
+        <v>0.04632681241383482</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1430660547513532</v>
+        <v>0.3037432069726755</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01539098676710321</v>
+        <v>0.06962072462063601</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1460324873233193</v>
+        <v>0.3029404768336751</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01544076663583228</v>
+        <v>0.01733659793934669</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1468261421457286</v>
+        <v>0.303956401678343</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02294911804588348</v>
+        <v>0.02294326601558003</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1440163035107243</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02586382052528091</v>
+        <v>0.04611857608942987</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1438435876576106</v>
+        <v>0.3053939852714401</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01544076663583228</v>
+        <v>0.06896066360572312</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1468261421457286</v>
+        <v>0.3045868924686408</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01529352827003676</v>
+        <v>0.01903938868543286</v>
       </c>
       <c r="G251" t="n">
-        <v>0.147619796968138</v>
+        <v>0.3055994092549827</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02281587881594579</v>
+        <v>0.0226875462713487</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1447947700161877</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02615228164871403</v>
+        <v>0.04480728524107114</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1446211205638679</v>
+        <v>0.3070447635702046</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01529352827003676</v>
+        <v>0.06809604121617008</v>
       </c>
       <c r="O251" t="n">
-        <v>0.147619796968138</v>
+        <v>0.3062333081036064</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01544934306186528</v>
+        <v>0.01774089100641559</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1484134517905473</v>
+        <v>0.3072424168316224</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02238966812003665</v>
+        <v>0.02223027631353647</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1455732365216511</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02674648338802726</v>
+        <v>0.04469289801774987</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1453986534701253</v>
+        <v>0.3086955418689691</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01544934306186528</v>
+        <v>0.06672679515187369</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1484134517905473</v>
+        <v>0.307879723738572</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01550828240346654</v>
+        <v>0.0164410875840725</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1492071066129567</v>
+        <v>0.3088854244082621</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02257067389905362</v>
+        <v>0.02197143515855543</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1463517030271145</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02684660621519458</v>
+        <v>0.04347537256845729</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1461761863763826</v>
+        <v>0.3103463201677337</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01550828240346654</v>
+        <v>0.06565286311273089</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1492071066129567</v>
+        <v>0.3095261393735377</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01547041768698919</v>
+        <v>0.01813996110018125</v>
       </c>
       <c r="G254" t="n">
-        <v>0.150000761435366</v>
+        <v>0.3105284319849018</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02195908409389449</v>
+        <v>0.02151100182281752</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1471301695325778</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02705283060218983</v>
+        <v>0.04315466704218454</v>
       </c>
       <c r="M254" t="n">
-        <v>0.14695371928264</v>
+        <v>0.3119970984664983</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01547041768698919</v>
+        <v>0.0641741827986384</v>
       </c>
       <c r="O254" t="n">
-        <v>0.150000761435366</v>
+        <v>0.3111725550085033</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01543582030458189</v>
+        <v>0.01783749423651945</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1507944162577753</v>
+        <v>0.3121714395615415</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02215508664545685</v>
+        <v>0.02114895532273482</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1479086360380412</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02626533702098688</v>
+        <v>0.04203073958792292</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1477312521888973</v>
+        <v>0.3136478767652628</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01543582030458189</v>
+        <v>0.063690691909493</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1507944162577753</v>
+        <v>0.3128189706434689</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01510456164839331</v>
+        <v>0.01753366967486474</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1515880710801847</v>
+        <v>0.3138144471381812</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02185886949463839</v>
+        <v>0.02078527467471934</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1486871025435046</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02688430594355967</v>
+        <v>0.04170354835466361</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1485087850951547</v>
+        <v>0.3152986550640273</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01510456164839331</v>
+        <v>0.06270232814519155</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1515880710801847</v>
+        <v>0.3144653862784345</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01537671311057212</v>
+        <v>0.01522847009699473</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1523817259025941</v>
+        <v>0.3154574547148209</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0218706205823368</v>
+        <v>0.02031993889518309</v>
       </c>
       <c r="K257" t="n">
-        <v>0.149465569048968</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02690991784188201</v>
+        <v>0.04077305149139784</v>
       </c>
       <c r="M257" t="n">
-        <v>0.149286318001412</v>
+        <v>0.3169494333627919</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01537671311057212</v>
+        <v>0.06150902920563089</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1523817259025941</v>
+        <v>0.3161118019134002</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01535234608326698</v>
+        <v>0.01692187818468707</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1531753807250034</v>
+        <v>0.3171004622914605</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02179052784944971</v>
+        <v>0.01995292700053808</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1502440355544313</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02754235318792786</v>
+        <v>0.03993920714711677</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1500638509076694</v>
+        <v>0.3186002116615564</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01535234608326698</v>
+        <v>0.06041073279070769</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1531753807250034</v>
+        <v>0.3177582175483658</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01503153195862655</v>
+        <v>0.01661387661971937</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1539690355474127</v>
+        <v>0.3187434698681003</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02161877923687477</v>
+        <v>0.01948421800719639</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1510225020598947</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02768179245367103</v>
+        <v>0.03910197347081168</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1508413838139268</v>
+        <v>0.320250989960321</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01503153195862655</v>
+        <v>0.05880737660031898</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1539690355474127</v>
+        <v>0.3194046331833314</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01531434212879949</v>
+        <v>0.01630444808386929</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1547626903698221</v>
+        <v>0.32038647744474</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02125556268550971</v>
+        <v>0.01911379093156997</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1518009685653581</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02722841611108545</v>
+        <v>0.03826130861147381</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1516189167201841</v>
+        <v>0.3219017682590855</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01531434212879949</v>
+        <v>0.05819889833436137</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1547626903698221</v>
+        <v>0.321051048818297</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01500084798593448</v>
+        <v>0.01499357525891445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1555563451922314</v>
+        <v>0.3220294850213796</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02080106613625216</v>
+        <v>0.01904162479007084</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1525794350708215</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02798240463214496</v>
+        <v>0.03801717071809427</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1523964496264415</v>
+        <v>0.32355254655785</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01500084798593448</v>
+        <v>0.05698523569273173</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1555563451922314</v>
+        <v>0.3226974644532627</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01529112092218017</v>
+        <v>0.01568124082663248</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1563500000146407</v>
+        <v>0.3236724925980193</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02115547752999977</v>
+        <v>0.01866769859911108</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1533579015762848</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02814393848882346</v>
+        <v>0.03686951793966434</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1531739825326988</v>
+        <v>0.3252033248566146</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01529112092218017</v>
+        <v>0.05546632637532689</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1563500000146407</v>
+        <v>0.3243438800882283</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01508523232968523</v>
+        <v>0.01336742746880098</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1571436548370501</v>
+        <v>0.325315500174659</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02081898480765024</v>
+        <v>0.01809199137510265</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1541363680817482</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02741319815309484</v>
+        <v>0.03601830842517528</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1539515154389562</v>
+        <v>0.3268541031553791</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01508523232968523</v>
+        <v>0.05454210808204363</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1571436548370501</v>
+        <v>0.3259902957231939</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01498325360059834</v>
+        <v>0.01505211786719762</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1579373096594595</v>
+        <v>0.3269585077512987</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0205917759101012</v>
+        <v>0.01761448213445764</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1549148345872116</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02819036409693298</v>
+        <v>0.0356635003236182</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1547290483452135</v>
+        <v>0.3285048814541436</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01498325360059834</v>
+        <v>0.05301251851277883</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1579373096594595</v>
+        <v>0.3276367113581595</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1337.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06355802365987898</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01439657451750714</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009387074781564003</v>
+        <v>0.001185136939491259</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001643007576639692</v>
+        <v>0.0006500916617930015</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002752344483940371</v>
+        <v>0.001185136939491259</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0006500916617930015</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009135825487418453</v>
+        <v>0.004575849343543714</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001650778298764541</v>
+        <v>0.001018076574019829</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01689788057377611</v>
+        <v>0.009522328682216585</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001646415634965626</v>
+        <v>0.001005845518956405</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.002348140030360962</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.001300183323586003</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005529033172143955</v>
+        <v>0.002348140030360962</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001300183323586003</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01776700160150424</v>
+        <v>0.009175744235069616</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003590953954349333</v>
+        <v>0.002036153148039659</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02811318747740199</v>
+        <v>0.01859317717584674</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003192284384862947</v>
+        <v>0.00201169103791281</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00547279686681891</v>
+        <v>0.003474976706106261</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004929022729919076</v>
+        <v>0.001950274985379004</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003474976706106261</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.001950274985379004</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02037593403182864</v>
+        <v>0.01324449210293951</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004952334896293623</v>
+        <v>0.002996956235023167</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03293475823887987</v>
+        <v>0.02665905709063981</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004939246904896877</v>
+        <v>0.003083224860859008</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00815866424204504</v>
+        <v>0.004551614400224321</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006572030306558768</v>
+        <v>0.002600366647172006</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009477101583962963</v>
+        <v>0.004551614400224321</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.002600366647172006</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02358021235181146</v>
+        <v>0.01613603275053177</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006603113195058164</v>
+        <v>0.004072306296079318</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03782811225324151</v>
+        <v>0.03161473108046076</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006585662539862504</v>
+        <v>0.00402338207582562</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01064496104965153</v>
+        <v>0.0055640205462123</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00821503788319846</v>
+        <v>0.003250458308965008</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01133567852590728</v>
+        <v>0.0055640205462123</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.003250458308965008</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02589168414527623</v>
+        <v>0.01980251301792793</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008253891493822704</v>
+        <v>0.005090382870099147</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04002111647065693</v>
+        <v>0.03620907748747026</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00823207817482813</v>
+        <v>0.005029227594782025</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01096537940214901</v>
+        <v>0.00649816257756735</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009858045459838153</v>
+        <v>0.003900549970758008</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01273792036544198</v>
+        <v>0.00649816257756735</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.003900549970758008</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0273471717862476</v>
+        <v>0.02254165708105971</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009904669792587245</v>
+        <v>0.006108459444118976</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04356176155635649</v>
+        <v>0.04065951208611773</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009878493809793755</v>
+        <v>0.00603507311373843</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01401804718740762</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02948349764875016</v>
+        <v>0.02495859095754085</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01155544809135179</v>
+        <v>0.007126536018138806</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04579803817557038</v>
+        <v>0.04457939212001411</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01152490944475938</v>
+        <v>0.007040918632694835</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01225793804443746</v>
+        <v>0.008110204087052417</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01314406061311754</v>
+        <v>0.005200733294344012</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01531027907664483</v>
+        <v>0.008110204087052417</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.005200733294344012</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03230363927546226</v>
+        <v>0.0274584406649851</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0136426729368932</v>
+        <v>0.008144612592158635</v>
       </c>
       <c r="N73" s="171" t="n">
         <v>0.0484710128920724</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01277450284090908</v>
+        <v>0.008008376261971451</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01434562213772279</v>
+        <v>0.008872487278136151</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01478706818975723</v>
+        <v>0.005850824956137013</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01613626565885214</v>
+        <v>0.008872487278136151</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.005850824956137013</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03354864000937635</v>
+        <v>0.02964633222100621</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01485700468888087</v>
+        <v>0.009162689166178465</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05253669845261671</v>
+        <v>0.05139539683779515</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01481774071469063</v>
+        <v>0.009052609670607645</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01441375452788151</v>
+        <v>0.009624351236560913</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01643007576639692</v>
+        <v>0.006500916617930015</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01800291346996211</v>
+        <v>0.009624351236560913</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.006500916617930015</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03616658626962491</v>
+        <v>0.03230363927546226</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01650778298764541</v>
+        <v>0.01044235621959293</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05564049035888391</v>
+        <v>0.05428670235589339</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01646415634965626</v>
+        <v>0.01005845518956405</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01645379357972693</v>
+        <v>0.01036104559546659</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01807308334303661</v>
+        <v>0.007151008279723016</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01924960929661079</v>
+        <v>0.01036104559546659</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.007151008279723016</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03824506126789326</v>
+        <v>0.03316495454777801</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01815856128640995</v>
+        <v>0.01119884231421812</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0597149379924764</v>
+        <v>0.0569485842394315</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01811057198462188</v>
+        <v>0.01106430070852045</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01745719765807235</v>
+        <v>0.01107781998799306</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971609091967631</v>
+        <v>0.007801099941516017</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02038145111359164</v>
+        <v>0.01107781998799306</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.007801099941516017</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04044718543591713</v>
+        <v>0.03490381623240393</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01980933958517449</v>
+        <v>0.01221691888823795</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06240389764652327</v>
+        <v>0.06007320519900727</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01975698761958751</v>
+        <v>0.01207014622747686</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01741542512773104</v>
+        <v>0.01176992404728019</v>
       </c>
       <c r="G78" t="n">
-        <v>0.021359098496316</v>
+        <v>0.008451191603309019</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02158513157547676</v>
+        <v>0.01176992404728019</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.008451191603309019</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04303607920543204</v>
+        <v>0.03684431422713197</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02146011788393903</v>
+        <v>0.01323499546225778</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06685122561415369</v>
+        <v>0.06215272794521809</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02140340325455314</v>
+        <v>0.01307599174643326</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0183199343535163</v>
+        <v>0.01243260740646788</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02300210607295569</v>
+        <v>0.00910128326510202</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02264734333683809</v>
+        <v>0.01243260740646788</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.00910128326510202</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04567486300817353</v>
+        <v>0.0390796949060212</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02311089618270357</v>
+        <v>0.01425307203627761</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07020077818849679</v>
+        <v>0.06547931518866162</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02304981888951876</v>
+        <v>0.01408183726538967</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02116218370024141</v>
+        <v>0.01306111969869599</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02464511364959538</v>
+        <v>0.009751374926895023</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02395477905224767</v>
+        <v>0.01306111969869599</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.009751374926895023</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04792665727587728</v>
+        <v>0.04070320464313082</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02476167448146811</v>
+        <v>0.01527114861029744</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07339641166268168</v>
+        <v>0.06764512963993552</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02469623452448439</v>
+        <v>0.01508768278434608</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01993363153271966</v>
+        <v>0.01365071055710439</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02628812122623507</v>
+        <v>0.01040146658868802</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02489413137627754</v>
+        <v>0.01365071055710439</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01040146658868802</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04975458244027878</v>
+        <v>0.04250808981251994</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02641245278023266</v>
+        <v>0.01628922518431727</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07618198232983736</v>
+        <v>0.07014233400963721</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02634265015945001</v>
+        <v>0.01609352830330248</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02062573621576435</v>
+        <v>0.01419662961483295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02793112880287476</v>
+        <v>0.01105155825048102</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0257520929634997</v>
+        <v>0.01419662961483295</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01105155825048102</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05182175893311369</v>
+        <v>0.04438759678824766</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0280632310789972</v>
+        <v>0.0173073017583371</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07910134648309314</v>
+        <v>0.0724630910083644</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02798906579441564</v>
+        <v>0.01709937382225888</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02322995611418879</v>
+        <v>0.0146941265050216</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02957413637951446</v>
+        <v>0.01170164991227403</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02681535646848618</v>
+        <v>0.0146941265050216</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01170164991227403</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05329130718611763</v>
+        <v>0.04593497194437321</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02971400937776174</v>
+        <v>0.01832537833235693</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08199836041557801</v>
+        <v>0.07559956334671469</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02963548142938127</v>
+        <v>0.01810521934121529</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02373774959280623</v>
+        <v>0.01513845086081016</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03121714395615415</v>
+        <v>0.01235174157406703</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02727061454580899</v>
+        <v>0.01513845086081016</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01235174157406703</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05492634763102608</v>
+        <v>0.04764346165495567</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03136478767652628</v>
+        <v>0.01934345490637676</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08331688042042118</v>
+        <v>0.07754391373528563</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03128189706434689</v>
+        <v>0.01911106486017169</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02414057501643</v>
+        <v>0.01552485231533854</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03286015153279384</v>
+        <v>0.01300183323586003</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02790455985004016</v>
+        <v>0.01552485231533854</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01300183323586003</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05669000069957472</v>
+        <v>0.04910631229405427</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03301556597529082</v>
+        <v>0.02036153148039659</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08570076279075178</v>
+        <v>0.0798883048846748</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03292831269931252</v>
+        <v>0.0201169103791281</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02246824981778093</v>
+        <v>0.01584858050174658</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03450315910943353</v>
+        <v>0.01365192489765303</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02850388503575164</v>
+        <v>0.01584858050174658</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01365192489765303</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05754538682349911</v>
+        <v>0.05121677023572799</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03466634427405536</v>
+        <v>0.02137960805441642</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08624863323347215</v>
+        <v>0.08222489950547973</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03457472833427815</v>
+        <v>0.0211227558980845</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02378548635188783</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03614616668607323</v>
+        <v>0.01439657451750714</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02909869824689593</v>
+        <v>0.01613626565885214</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01439657451750714</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05792328135635497</v>
+        <v>0.05286808185403605</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0363171225728199</v>
+        <v>0.02239768462843625</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08759791515741938</v>
+        <v>0.0843458603082981</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03622114396924377</v>
+        <v>0.02212860141704091</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02509156313147388</v>
+        <v>0.0163151075082206</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03778917426271292</v>
+        <v>0.01495210822123903</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02937918750538424</v>
+        <v>0.0163151075082206</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01495210822123903</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05877864867119395</v>
+        <v>0.05435349352303759</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03796790087158444</v>
+        <v>0.02341576120245608</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08860996092693768</v>
+        <v>0.08564335000372736</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03786755960420939</v>
+        <v>0.02313444693599732</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02538433564077131</v>
+        <v>0.01652183317063302</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03943218183935261</v>
+        <v>0.01560219988303203</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02954637163543815</v>
+        <v>0.01652183317063302</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.01560219988303203</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05990630994642968</v>
+        <v>0.05566625161679181</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03961867917034898</v>
+        <v>0.0244338377764759</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09007705591919929</v>
+        <v>0.08790953130236528</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03951397523917502</v>
+        <v>0.02414029245495372</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02466165936401233</v>
+        <v>0.01672580172805986</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0410751894159923</v>
+        <v>0.01625229154482504</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02989765223900472</v>
+        <v>0.01672580172805986</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.01625229154482504</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06060108277093934</v>
+        <v>0.05699960250935773</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04126945746911352</v>
+        <v>0.02545191435049574</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09069148551137668</v>
+        <v>0.08923656691480941</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04116039087414065</v>
+        <v>0.02514613797391012</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02492138978542916</v>
+        <v>0.01692701369102526</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042718196992632</v>
+        <v>0.01690238320661804</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03023043091803104</v>
+        <v>0.01692701369102526</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.01690238320661804</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06065778473360012</v>
+        <v>0.05794679257479451</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04292023576787806</v>
+        <v>0.02646999092451556</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09184553508064175</v>
+        <v>0.09051661955165713</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04280680650910627</v>
+        <v>0.02615198349286653</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02416138238925402</v>
+        <v>0.01712546957005334</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04436120456927168</v>
+        <v>0.01755247486841104</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0306421092744642</v>
+        <v>0.01712546957005334</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.01755247486841104</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06177123342328938</v>
+        <v>0.05940106818716143</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0445710140666426</v>
+        <v>0.02748806749853539</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09293149000416712</v>
+        <v>0.09244185192350629</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0444532221440719</v>
+        <v>0.02715782901182294</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02437949265971914</v>
+        <v>0.0173211698756682</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04600421214591138</v>
+        <v>0.01820256653020404</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03093008891025131</v>
+        <v>0.0173211698756682</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.01820256653020404</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06183624642888427</v>
+        <v>0.06025567572051746</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04622179236540715</v>
+        <v>0.02850614407255522</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09334163565912496</v>
+        <v>0.09300442674095422</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04609963777903753</v>
+        <v>0.02816367453077934</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02657357608105675</v>
+        <v>0.01751411511839397</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04764721972255107</v>
+        <v>0.01885265819199704</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03109177142733947</v>
+        <v>0.01751411511839397</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.01885265819199704</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06264764133926209</v>
+        <v>0.06110386154892183</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04787257066417169</v>
+        <v>0.02952422064657505</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09426825742268746</v>
+        <v>0.09469650671459878</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04774605341400315</v>
+        <v>0.02916952004973574</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02674148813749904</v>
+        <v>0.01770430580875479</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04929022729919076</v>
+        <v>0.01950274985379005</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03132455842767573</v>
+        <v>0.01770430580875479</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.01950274985379005</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06340023574330003</v>
+        <v>0.06173887204643366</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04952334896293623</v>
+        <v>0.03054229722059488</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09460364067202692</v>
+        <v>0.09551025455503737</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04939246904896877</v>
+        <v>0.03017536556869215</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02488108431327824</v>
+        <v>0.01789174245727472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05093323487583045</v>
+        <v>0.02015284151558304</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03152585151320722</v>
+        <v>0.01789174245727472</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02015284151558304</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06378884722987538</v>
+        <v>0.06305395358711208</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05117412726170077</v>
+        <v>0.03156037379461471</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09534007078431561</v>
+        <v>0.0956378329728676</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0510388846839344</v>
+        <v>0.03118121108764856</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02699022009262658</v>
+        <v>0.01807642557447793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05257624245247015</v>
+        <v>0.02080293317737605</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03199305228588099</v>
+        <v>0.01807642557447793</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02080293317737605</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0640082933878654</v>
+        <v>0.0632423525450162</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05282490556046531</v>
+        <v>0.03257845036863454</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09576983313672582</v>
+        <v>0.09597140467868709</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05268530031890003</v>
+        <v>0.03218705660660496</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02606675095977629</v>
+        <v>0.01825835567088856</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05421925002910983</v>
+        <v>0.02145302483916905</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03212356234764419</v>
+        <v>0.01825835567088856</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02145302483916905</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06435339180614724</v>
+        <v>0.06389731529420525</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05447568385922984</v>
+        <v>0.03359652694265437</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09628521310642985</v>
+        <v>0.09694202578414479</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05433171595386566</v>
+        <v>0.03319290212556136</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.01843753325703067</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05586225760574953</v>
+        <v>0.02210311650096205</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03191478330044387</v>
+        <v>0.01843753325703067</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02210311650096205</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06460727855092452</v>
+        <v>0.06431208820873832</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05612646215799439</v>
+        <v>0.0346146035166742</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09694202578414479</v>
+        <v>0.09613738598075838</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05597813158883128</v>
+        <v>0.03419874764451777</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02511477785865591</v>
+        <v>0.0186139588434284</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05750526518238921</v>
+        <v>0.02275320816275505</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03227253131770426</v>
+        <v>0.0186139588434284</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.02275320816275505</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06419981577909556</v>
+        <v>0.06460727855092452</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05777724045675893</v>
+        <v>0.03563268009069403</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09674199720373478</v>
+        <v>0.09668567240477743</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05762454722379691</v>
+        <v>0.03520459316347418</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0250989546292418</v>
+        <v>0.0187876329406059</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05914827275902891</v>
+        <v>0.02340329982454805</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03217080955293768</v>
+        <v>0.0187876329406059</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.02340329982454805</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06439937604678531</v>
+        <v>0.06460578761745853</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05942801875552348</v>
+        <v>0.03665075666471386</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09620712604994985</v>
+        <v>0.09598015249077807</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05927096285876254</v>
+        <v>0.03621043868243058</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02606593338044903</v>
+        <v>0.01895855605908724</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0607912803356686</v>
+        <v>0.02405339148634105</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0322512697535972</v>
+        <v>0.01895855605908724</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.02405339148634105</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0644517287901277</v>
+        <v>0.06448986469194792</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06107879705428801</v>
+        <v>0.03766883323873369</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0959091434308445</v>
+        <v>0.09622520333879858</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06091737849372816</v>
+        <v>0.03721628420138699</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02501684433393164</v>
+        <v>0.01912672870939655</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0624342879123083</v>
+        <v>0.02470348314813406</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03221105813649712</v>
+        <v>0.01912672870939655</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.02470348314813406</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06426335223684893</v>
+        <v>0.0640572827885926</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06272957535305256</v>
+        <v>0.03868690981275352</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09615211517512651</v>
+        <v>0.09562520204887676</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06256379412869378</v>
+        <v>0.03822212972034339</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02495281771134366</v>
+        <v>0.01929215140205799</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06407729548894799</v>
+        <v>0.02535357480992706</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03195154413234497</v>
+        <v>0.01929215140205799</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.02535357480992706</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06393697766706322</v>
+        <v>0.06400899887417411</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06438035365181709</v>
+        <v>0.03970498638677335</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0955401071115034</v>
+        <v>0.09558452572105086</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0642102097636594</v>
+        <v>0.03922797523929979</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02687498373433912</v>
+        <v>0.01945482464759563</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06572030306558768</v>
+        <v>0.02600366647172006</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03197409717184825</v>
+        <v>0.01945482464759563</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.02600366647172006</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06417533636088471</v>
+        <v>0.06434596991547392</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06603113195058163</v>
+        <v>0.04072306296079318</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09607718506868285</v>
+        <v>0.09590755145535884</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06585662539862504</v>
+        <v>0.0402338207582562</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02678447262457203</v>
+        <v>0.01961474895653362</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06736331064222738</v>
+        <v>0.02665375813351306</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03188008668571454</v>
+        <v>0.01961474895653362</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.02665375813351306</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06338115959842749</v>
+        <v>0.06426915287927357</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06768191024934618</v>
+        <v>0.041741139534813</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09536741487537226</v>
+        <v>0.09499865635183885</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06750304103359066</v>
+        <v>0.0412396662772126</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02468241460369643</v>
+        <v>0.01977192483939608</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06900631821886706</v>
+        <v>0.02730384979530606</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03167088210465131</v>
+        <v>0.01977192483939608</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.02730384979530606</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06365717865980583</v>
+        <v>0.06407950473235444</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06933268854811073</v>
+        <v>0.04275921610883283</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09461486236027938</v>
+        <v>0.09446221751052886</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06914945666855629</v>
+        <v>0.04224551179616901</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02656993989336633</v>
+        <v>0.01992635280670711</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07064932579550676</v>
+        <v>0.02795394145709906</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03164785285936614</v>
+        <v>0.01992635280670711</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.02795394145709906</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06350612482513371</v>
+        <v>0.0637779824414981</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07098346684687526</v>
+        <v>0.04377729268285267</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0951235933521119</v>
+        <v>0.0944026120314671</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07079587230352191</v>
+        <v>0.04325135731512542</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02544817871523577</v>
+        <v>0.02007803336899082</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07229233337214645</v>
+        <v>0.02860403311889206</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03151236838056654</v>
+        <v>0.02007803336899082</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.02860403311889206</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06263072937452543</v>
+        <v>0.06366554297348609</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07263424514563981</v>
+        <v>0.0447953692568725</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09469767367957727</v>
+        <v>0.09422421701469147</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07244228793848753</v>
+        <v>0.04425720283408182</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02431826129095877</v>
+        <v>0.02022696703677139</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07393534094878614</v>
+        <v>0.02925412478068507</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03146579809896004</v>
+        <v>0.02022696703677139</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.02925412478068507</v>
       </c>
       <c r="L110" t="n">
-        <v>0.062833723588095</v>
+        <v>0.0638431432950998</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07428502344440434</v>
+        <v>0.04581344583089232</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09344116917138306</v>
+        <v>0.09343140956024015</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07408870357345317</v>
+        <v>0.04526304835303822</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02618131784218936</v>
+        <v>0.02037315432057286</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07557834852542583</v>
+        <v>0.02990421644247807</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03120951144525413</v>
+        <v>0.02037315432057286</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.02990421644247807</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06261783874595664</v>
+        <v>0.06381174037312071</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07593580174316888</v>
+        <v>0.04683152240491215</v>
       </c>
       <c r="N111" t="n">
-        <v>0.093458145656237</v>
+        <v>0.0929285667681512</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07573511920841879</v>
+        <v>0.04626889387199463</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02603847859058155</v>
+        <v>0.02051659573091939</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07722135610206553</v>
+        <v>0.03055430810427107</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03114487785015639</v>
+        <v>0.02051659573091939</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.03055430810427107</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06218580612822447</v>
+        <v>0.06327229117433039</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07758658004193342</v>
+        <v>0.04784959897893198</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09285266896284666</v>
+        <v>0.09242006573846262</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07738153484338442</v>
+        <v>0.04727473939095104</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02389087375778939</v>
+        <v>0.02065729177833511</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07886436367870522</v>
+        <v>0.03120439976606407</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03087326674437432</v>
+        <v>0.02065729177833511</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.03120439976606407</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06164035701501266</v>
+        <v>0.0633257526655103</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07923735834069796</v>
+        <v>0.04886767555295181</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09212880491991965</v>
+        <v>0.09281028357121257</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07902795047835004</v>
+        <v>0.04828058490990744</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02473963356546689</v>
+        <v>0.02079524297334411</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08050737125534491</v>
+        <v>0.03185449142785707</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03049604755861549</v>
+        <v>0.02079524297334411</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.03185449142785707</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06158422268643532</v>
+        <v>0.06307308181344193</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08088813663946251</v>
+        <v>0.04988575212697164</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09199061935616354</v>
+        <v>0.09250359736643898</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08067436611331567</v>
+        <v>0.04928643042886385</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02458588823526806</v>
+        <v>0.02093044982647053</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0821503788319846</v>
+        <v>0.03250458308965008</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03041458972358736</v>
+        <v>0.02093044982647053</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.03250458308965008</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06112013442260661</v>
+        <v>0.06261523558490675</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08253891493822704</v>
+        <v>0.05090382870099147</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09124217810028584</v>
+        <v>0.09190438422418012</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08232078174828129</v>
+        <v>0.05029227594782024</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02543076798884696</v>
+        <v>0.02106291284823848</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0837933864086243</v>
+        <v>0.03315467475144308</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03013026266999752</v>
+        <v>0.02106291284823848</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.03315467475144308</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06025082350364069</v>
+        <v>0.06285317094668624</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08418969323699159</v>
+        <v>0.0519219052750113</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09078754698099428</v>
+        <v>0.09121702124447389</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08396719738324693</v>
+        <v>0.05129812146677665</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0252754030478576</v>
+        <v>0.02119263254917209</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08543639398526399</v>
+        <v>0.03380476641323608</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03014443582855345</v>
+        <v>0.02119263254917209</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.03380476641323608</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06007902120965161</v>
+        <v>0.06228784486556191</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08584047153575612</v>
+        <v>0.05293998184903113</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09023079182699639</v>
+        <v>0.09064588552735847</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08561361301821255</v>
+        <v>0.05230396698573306</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02312092363395401</v>
+        <v>0.02131960943979545</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08707940156190368</v>
+        <v>0.03445485807502908</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02975847862996271</v>
+        <v>0.02131960943979545</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.03445485807502908</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06010745882075366</v>
+        <v>0.06212021430831527</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08749124983452067</v>
+        <v>0.05395805842305096</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0899759784669999</v>
+        <v>0.09099535417287175</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08726002865317817</v>
+        <v>0.05330981250468946</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02496779595553112</v>
+        <v>0.02144384403063271</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08872240913854336</v>
+        <v>0.03510494973682208</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02957376050493282</v>
+        <v>0.02144384403063271</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.03510494973682208</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05953886761706093</v>
+        <v>0.06245123624172777</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0891420281332852</v>
+        <v>0.05497613499707078</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08942717272971229</v>
+        <v>0.09016980428105204</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0889064442881438</v>
+        <v>0.05431565802364587</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02379854600748026</v>
+        <v>0.021565336832208</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09036541671518306</v>
+        <v>0.03575504139861508</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02968952012354407</v>
+        <v>0.021565336832208</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.03575504139861508</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05936630726256353</v>
+        <v>0.0619818676325809</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09079280643204975</v>
+        <v>0.05599421157109061</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08824618230383946</v>
+        <v>0.08987361295193724</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09055285992310942</v>
+        <v>0.05532150354260227</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02460773015449162</v>
+        <v>0.0216840883550454</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09200842429182275</v>
+        <v>0.03640513306040808</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02948295614337322</v>
+        <v>0.0216840883550454</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.03640513306040808</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05884359586736732</v>
+        <v>0.06161306544765621</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09244358473081429</v>
+        <v>0.05701228814511045</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0872842058120582</v>
+        <v>0.08941115728556553</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09219927555807506</v>
+        <v>0.05632734906155868</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02239903079381524</v>
+        <v>0.02180009910966905</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09365143186846243</v>
+        <v>0.03705522472220108</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02915105887610572</v>
+        <v>0.02180009910966905</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.03705522472220108</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05807188062945681</v>
+        <v>0.06204578665373511</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09409436302957884</v>
+        <v>0.05803036471913027</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08705410763873606</v>
+        <v>0.08948681438197487</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09384569119304068</v>
+        <v>0.05733319458051509</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02417613032270132</v>
+        <v>0.02191336960660305</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09529443944510213</v>
+        <v>0.03770531638399408</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02869829009068198</v>
+        <v>0.02191336960660305</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.03770531638399408</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05796006038592813</v>
+        <v>0.06148098821759912</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09574514132834337</v>
+        <v>0.0590484412931501</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08646913473981216</v>
+        <v>0.08970496134120343</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09549210682800631</v>
+        <v>0.05833904009947149</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02394271113839991</v>
+        <v>0.02202390035637154</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09693744702174183</v>
+        <v>0.03835540804578709</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02842911155604229</v>
+        <v>0.02202390035637154</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.03835540804578709</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05731703397387733</v>
+        <v>0.06171962710602974</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09739591962710792</v>
+        <v>0.06006651786716993</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08544253407122543</v>
+        <v>0.0894699752632892</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09713852246297193</v>
+        <v>0.0593448856184279</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02170245563816118</v>
+        <v>0.02213169186949866</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09858045459838152</v>
+        <v>0.03900549970758009</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02834798504112697</v>
+        <v>0.02213169186949866</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.03900549970758009</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05675170023040044</v>
+        <v>0.06106266028580845</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09904669792587245</v>
+        <v>0.06108459444118976</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08438755258891528</v>
+        <v>0.08888623324827027</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09878493809793755</v>
+        <v>0.0603507311373843</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0224590462192352</v>
+        <v>0.02223674465650849</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1002234621750212</v>
+        <v>0.03965559136937308</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02805937231487642</v>
+        <v>0.02223674465650849</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.03965559136937308</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05607295799259354</v>
+        <v>0.06121104472371677</v>
       </c>
       <c r="M126" t="n">
-        <v>0.100697476224637</v>
+        <v>0.06210267101520959</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08371743724882058</v>
+        <v>0.08905810274992748</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1004313537329032</v>
+        <v>0.0613565766563407</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02321616527887211</v>
+        <v>0.02233905922792516</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1018664697516609</v>
+        <v>0.04030568303116609</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02786773514623091</v>
+        <v>0.02233905922792516</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.04030568303116609</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05508970609755273</v>
+        <v>0.06086573738653614</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1023482545234015</v>
+        <v>0.06312074758922942</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08284543500688046</v>
+        <v>0.08936184921647261</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1020777693678688</v>
+        <v>0.06236242217529711</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02097749521432201</v>
+        <v>0.0224386360942728</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1035094773283006</v>
+        <v>0.04095577469295909</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0272775353041308</v>
+        <v>0.0224386360942728</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.04095577469295909</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05511084338237399</v>
+        <v>0.06052626719305274</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1039990328221661</v>
+        <v>0.06413882416324926</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08238479281903416</v>
+        <v>0.08887245991976023</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1037241850028344</v>
+        <v>0.06336826769425351</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02174671842283504</v>
+        <v>0.02253547576607551</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1051524849049403</v>
+        <v>0.04160586635475209</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0271932345575164</v>
+        <v>0.02253547576607551</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.04160586635475209</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05454526868415344</v>
+        <v>0.06067778581091748</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1056498111209306</v>
+        <v>0.06515690073726908</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08084875764122079</v>
+        <v>0.08868941645477318</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1053706006378001</v>
+        <v>0.06437411321320992</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02252676730594325</v>
+        <v>0.02262957875385742</v>
       </c>
       <c r="G130" t="n">
-        <v>0.10679549248158</v>
+        <v>0.04225595801654509</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02691929467532807</v>
+        <v>0.02262957875385742</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.04225595801654509</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0538018808399871</v>
+        <v>0.06071740133606005</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1073005894196952</v>
+        <v>0.06617497731128891</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07985057642937932</v>
+        <v>0.08881220041649435</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1070170162727657</v>
+        <v>0.06537995873216633</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02129522157450835</v>
+        <v>0.02272094556814266</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1084385000582197</v>
+        <v>0.0429060496783381</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02645639568395945</v>
+        <v>0.02272094556814266</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.0429060496783381</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05307436434000187</v>
+        <v>0.06054674132031379</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1089513677184597</v>
+        <v>0.06719305388530875</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07914338194921894</v>
+        <v>0.08874029339990641</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1086634319077313</v>
+        <v>0.06638580425112273</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02004401807143925</v>
+        <v>0.02280957671945535</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1100815076348594</v>
+        <v>0.0435561413401311</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02617377133594648</v>
+        <v>0.02280957671945535</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.0435561413401311</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05290102964388185</v>
+        <v>0.06036743331551217</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1106021460172242</v>
+        <v>0.06821113045932857</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07836092342169759</v>
+        <v>0.08927317699999227</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1103098475426969</v>
+        <v>0.06739164977007914</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02177842814947829</v>
+        <v>0.02289547271831958</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1117245152114991</v>
+        <v>0.0442062330019241</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0259688065389313</v>
+        <v>0.02289547271831958</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.0442062330019241</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05178517718398304</v>
+        <v>0.05988110487348855</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1122529243159888</v>
+        <v>0.06922920703334839</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07792163728748475</v>
+        <v>0.0890103328117347</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1119562631776626</v>
+        <v>0.06839749528903553</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02050372316136776</v>
+        <v>0.02297863407525949</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1133675227881387</v>
+        <v>0.0448563246637171</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02554788831645916</v>
+        <v>0.02297863407525949</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.0448563246637171</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05133954564821538</v>
+        <v>0.05988938354607642</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1139037026147533</v>
+        <v>0.07024728360736823</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07704448656788804</v>
+        <v>0.08955124243011642</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1136026788126282</v>
+        <v>0.06940334080799195</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01922517445984995</v>
+        <v>0.0230590613007992</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1150105303647784</v>
+        <v>0.0455064163255101</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02541740369207514</v>
+        <v>0.0230590613007992</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.0455064163255101</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05047687372448886</v>
+        <v>0.05939389688510918</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1155544809135179</v>
+        <v>0.07126536018138806</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07544843428421499</v>
+        <v>0.08879538745012033</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1152490944475938</v>
+        <v>0.07040918632694836</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02094805339766718</v>
+        <v>0.02313675490546283</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1166535379414181</v>
+        <v>0.04615650798730311</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02518373968932448</v>
+        <v>0.02313675490546283</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.04615650798730311</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05000990010071332</v>
+        <v>0.05939627244242021</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1172052592122824</v>
+        <v>0.0722834367554079</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07465244345777317</v>
+        <v>0.08944224946672924</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1168955100825594</v>
+        <v>0.07141503184590475</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02067763132756174</v>
+        <v>0.02321171539977449</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1182965455180578</v>
+        <v>0.04680659964909611</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02485328333175232</v>
+        <v>0.02321171539977449</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.04680659964909611</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04935136346479885</v>
+        <v>0.05909813776984291</v>
       </c>
       <c r="M137" t="n">
-        <v>0.118856037511047</v>
+        <v>0.07330151332942772</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07367547710987016</v>
+        <v>0.08899131007492589</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1185419257175251</v>
+        <v>0.07242087736486116</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01941917960227593</v>
+        <v>0.0232839432942583</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1199395530946975</v>
+        <v>0.04745669131088911</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02433242164290383</v>
+        <v>0.0232839432942583</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.04745669131088911</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04871400250465527</v>
+        <v>0.05930112041921079</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1205068158098115</v>
+        <v>0.07431958990344754</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07303649826181358</v>
+        <v>0.08954205086969319</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1201883413524907</v>
+        <v>0.07342672288381757</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01817796957455205</v>
+        <v>0.02335343909943841</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1215825606713372</v>
+        <v>0.04810678297268211</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02412754164632419</v>
+        <v>0.02335343909943841</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.04810678297268211</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04841055590819257</v>
+        <v>0.05880684794235716</v>
       </c>
       <c r="M139" t="n">
-        <v>0.122157594108576</v>
+        <v>0.07533766647746738</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07215446993491081</v>
+        <v>0.08899395344601385</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1218347569874563</v>
+        <v>0.07443256840277397</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01895927259713243</v>
+        <v>0.02342020332583887</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1232255682479769</v>
+        <v>0.04875687463447511</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02384503036555853</v>
+        <v>0.02342020332583887</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.04875687463447511</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04745376236332061</v>
+        <v>0.05851694789111553</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1238083724073406</v>
+        <v>0.07635574305148721</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07104835515046942</v>
+        <v>0.08954649939887066</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1234811726224219</v>
+        <v>0.07543841392173038</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01876836002275933</v>
+        <v>0.02348423648398387</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1248685758246166</v>
+        <v>0.04940696629626811</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02369127482415209</v>
+        <v>0.02348423648398387</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.04940696629626811</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04715636055794944</v>
+        <v>0.05853304781731922</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1254591507061051</v>
+        <v>0.07737381962550703</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07033711692979705</v>
+        <v>0.08969917032324648</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1251275882573876</v>
+        <v>0.07644425944068678</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01761050320417507</v>
+        <v>0.02354553908439751</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1265115834012563</v>
+        <v>0.05005705795806111</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02347266204564996</v>
+        <v>0.02354553908439751</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.05005705795806111</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04633108917998896</v>
+        <v>0.05825677527280174</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1271099290048696</v>
+        <v>0.07839189619952687</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07023971829420123</v>
+        <v>0.08975144781412409</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1267740038923532</v>
+        <v>0.07745010495964318</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01949097349412197</v>
+        <v>0.02360411163760387</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128154590977896</v>
+        <v>0.05070714961985411</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02329557905359737</v>
+        <v>0.02360411163760387</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.05070714961985411</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04629068691734903</v>
+        <v>0.05818975780939642</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1287607073036342</v>
+        <v>0.07940997277354669</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06917512226498945</v>
+        <v>0.08950281346648631</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1284204195273188</v>
+        <v>0.07845595047859959</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01841504224534229</v>
+        <v>0.02365995465412712</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1297975985545357</v>
+        <v>0.05135724128164711</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02296641287153944</v>
+        <v>0.02365995465412712</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.05135724128164711</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04604789245793969</v>
+        <v>0.05783362297893674</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1304114856023987</v>
+        <v>0.08042804934756652</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06936229186346932</v>
+        <v>0.08975274887531581</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1300668351622845</v>
+        <v>0.07946179599755598</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01938798081057836</v>
+        <v>0.02371306864449137</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1314406061311754</v>
+        <v>0.05200733294344012</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02289155052302136</v>
+        <v>0.02371306864449137</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.05200733294344012</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04591544448967083</v>
+        <v>0.05788999833325609</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1320622639011633</v>
+        <v>0.08144612592158636</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06912019011094839</v>
+        <v>0.08950073563559569</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1317132507972501</v>
+        <v>0.08046764151651239</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01939174006117653</v>
+        <v>0.02376345411922069</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1330836137078151</v>
+        <v>0.05265742460523311</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02277522229676632</v>
+        <v>0.02376345411922069</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.05265742460523311</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04559590068438346</v>
+        <v>0.05776051142418787</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1337130421999278</v>
+        <v>0.08246420249560618</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06932117825327616</v>
+        <v>0.08984625534230845</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1333596664322157</v>
+        <v>0.08147348703546881</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01740303131600132</v>
+        <v>0.02381111158883926</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1347266212844548</v>
+        <v>0.05330751626702612</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02298245644564884</v>
+        <v>0.02381111158883926</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.05330751626702612</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04611303258059424</v>
+        <v>0.05724678980356557</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1353638204986924</v>
+        <v>0.08348227906962601</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0691551853693203</v>
+        <v>0.08948878959043705</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1350060820671813</v>
+        <v>0.0824793325544252</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01842146127919297</v>
+        <v>0.02385604156387118</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1363696288610944</v>
+        <v>0.05395760792881912</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02279861525009473</v>
+        <v>0.02385604156387118</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.05395760792881912</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04574785011222496</v>
+        <v>0.05715046102322249</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1370145987974569</v>
+        <v>0.08450035564364584</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06941515738700249</v>
+        <v>0.08992781997496424</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1366524977021469</v>
+        <v>0.08348517807338161</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01744664261367215</v>
+        <v>0.02389824455484055</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1380126364377341</v>
+        <v>0.05460769959061212</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02312322939394043</v>
+        <v>0.02389824455484055</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.05460769959061212</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04629941724512837</v>
+        <v>0.0575731526349921</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1386653770962215</v>
+        <v>0.08551843221766567</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06889970091042474</v>
+        <v>0.08986282809087287</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1382989133371126</v>
+        <v>0.08449102359233801</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01947818798235953</v>
+        <v>0.02393772107227153</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1396556440143738</v>
+        <v>0.05525779125240513</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02295582956102245</v>
+        <v>0.02393772107227153</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.05525779125240513</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0461667979451571</v>
+        <v>0.05741649219070782</v>
       </c>
       <c r="M150" t="n">
-        <v>0.140316155394986</v>
+        <v>0.08653650879168551</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06940742254368898</v>
+        <v>0.08999329553314572</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1399453289720782</v>
+        <v>0.08549686911129442</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01951571004817582</v>
+        <v>0.0239744716266882</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1412986515910135</v>
+        <v>0.05590788291419813</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0230959464351773</v>
+        <v>0.0239744716266882</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.05590788291419813</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04594905617816386</v>
+        <v>0.05728210724220315</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1419669336937505</v>
+        <v>0.08755458536570533</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06883692889089715</v>
+        <v>0.09011925128880222</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1415917446070438</v>
+        <v>0.08650271463025083</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01755882147404168</v>
+        <v>0.02400849672861469</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1429416591676532</v>
+        <v>0.05655797457599113</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02304311070024144</v>
+        <v>0.02400849672861469</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.05655797457599113</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0465452559100013</v>
+        <v>0.05717156999372311</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1436177119925151</v>
+        <v>0.08857266193972516</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06958682655615123</v>
+        <v>0.08974452661512833</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1432381602420094</v>
+        <v>0.08750856014920723</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01760713492287778</v>
+        <v>0.02403979688857513</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1445846667442929</v>
+        <v>0.05720806623778413</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02299685304005139</v>
+        <v>0.02403979688857513</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.05720806623778413</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04655446110652212</v>
+        <v>0.05707595487214295</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1452684902912796</v>
+        <v>0.08959073851374499</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06995572214355311</v>
+        <v>0.08976992402266476</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1448845758769751</v>
+        <v>0.08851440566816364</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01766026305760483</v>
+        <v>0.02406837261709363</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1462276743209326</v>
+        <v>0.05785815789957714</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02325670413844359</v>
+        <v>0.02406837261709363</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.05785815789957714</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04627573573357893</v>
+        <v>0.05758761219379713</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1469192685900441</v>
+        <v>0.09060881508776482</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06994222225720481</v>
+        <v>0.08969539734391191</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1465309915119407</v>
+        <v>0.08952025118712005</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01871781854114348</v>
+        <v>0.0240942244246943</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1478706818975723</v>
+        <v>0.05850824956137014</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02342219467925459</v>
+        <v>0.0240942244246943</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.05850824956137014</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04670814375702448</v>
+        <v>0.0575061230383232</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1485700468888087</v>
+        <v>0.09162689166178464</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06994493350120823</v>
+        <v>0.09032090041137003</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1481774071469063</v>
+        <v>0.09052609670607645</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01977941403641446</v>
+        <v>0.02411735282190129</v>
       </c>
       <c r="G156" t="n">
-        <v>0.149513689474212</v>
+        <v>0.05915834122316314</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02349285534632084</v>
+        <v>0.02411735282190129</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.05915834122316314</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04705074914271143</v>
+        <v>0.0573310684853586</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1502208251875732</v>
+        <v>0.09264496823580448</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07066246247966523</v>
+        <v>0.08964638705753947</v>
       </c>
       <c r="O156" t="n">
-        <v>0.149823822781872</v>
+        <v>0.09153194222503286</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01784467216391249</v>
+        <v>0.02413775831923867</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1511566970508517</v>
+        <v>0.05980843288495614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02326821682347885</v>
+        <v>0.02413775831923867</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.05980843288495614</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04660261585649245</v>
+        <v>0.05736202961454087</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1518716034863378</v>
+        <v>0.09366304480982431</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07089341579667791</v>
+        <v>0.0898718111149206</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1514702384168376</v>
+        <v>0.09253778774398927</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01794679100871752</v>
+        <v>0.02415544142723061</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1527997046274913</v>
+        <v>0.06045852454674913</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02355369211937021</v>
+        <v>0.02415544142723061</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.06045852454674913</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04738399849477259</v>
+        <v>0.05749858750550751</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1535223817851023</v>
+        <v>0.09468112138384413</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07041117229254257</v>
+        <v>0.09019712641601374</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1531166540518032</v>
+        <v>0.09354363326294567</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01910912213009739</v>
+        <v>0.0241704026564012</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1544427122041311</v>
+        <v>0.06110861620854213</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02380417923325243</v>
+        <v>0.0241704026564012</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.06110861620854213</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04710416692355118</v>
+        <v>0.05774032323789602</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1551731600838668</v>
+        <v>0.09569919795786397</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07084909066256218</v>
+        <v>0.09042228679331904</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1547630696867688</v>
+        <v>0.09454947878190208</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02031997275649886</v>
+        <v>0.02418264251727457</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1560857197807707</v>
+        <v>0.06175870787033513</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02382195025366284</v>
+        <v>0.02418264251727457</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.06175870787033513</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04755500138817553</v>
+        <v>0.05738681789134384</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1568239383826314</v>
+        <v>0.09671727453188379</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07167033287236663</v>
+        <v>0.090647246079337</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1564094853217345</v>
+        <v>0.09555532430085847</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02056765011636869</v>
+        <v>0.02419216152037483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1577287273574104</v>
+        <v>0.06240879953212813</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02419283765836001</v>
+        <v>0.02419216152037483</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.06240879953212813</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04830824527693672</v>
+        <v>0.05783765254548859</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1584747166813959</v>
+        <v>0.09773535110590362</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0725328356628745</v>
+        <v>0.09037195810656773</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1580559009567001</v>
+        <v>0.09656116981981488</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01884046143815355</v>
+        <v>0.02419896017622612</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1593717349340501</v>
+        <v>0.06305889119392113</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02430267392510256</v>
+        <v>0.02419896017622612</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.06305889119392113</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04873564197812616</v>
+        <v>0.05739240827996767</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1601254949801605</v>
+        <v>0.09875342767992346</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07399453577500448</v>
+        <v>0.08999637670751187</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1597023165916657</v>
+        <v>0.09756701533877128</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02112671395030027</v>
+        <v>0.02420303899535253</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1610147425106898</v>
+        <v>0.06370898285571414</v>
       </c>
       <c r="J163" t="n">
-        <v>0.024937291531649</v>
+        <v>0.02420303899535253</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.06370898285571414</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05000893488003494</v>
+        <v>0.05785066617441861</v>
       </c>
       <c r="M163" t="n">
-        <v>0.161776273278925</v>
+        <v>0.09977150425394328</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07441336994967507</v>
+        <v>0.09072045571466941</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1613487322266313</v>
+        <v>0.09857286085772769</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02041471488125553</v>
+        <v>0.02420439848827818</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1626577500873295</v>
+        <v>0.06435907451750715</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02518252295575796</v>
+        <v>0.02420439848827818</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.06435907451750715</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05049986737095433</v>
+        <v>0.05761200730847885</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1634270515776896</v>
+        <v>0.1007895808279631</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07544727492780501</v>
+        <v>0.08984414896054083</v>
       </c>
       <c r="O164" t="n">
-        <v>0.162995147861597</v>
+        <v>0.09957870637668409</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02169277145946607</v>
+        <v>0.0242043984882782</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1643007576639692</v>
+        <v>0.06435907451750715</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02532420067518799</v>
+        <v>0.0242043984882782</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.06435907451750715</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05108018283917559</v>
+        <v>0.05757601276178601</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1650778298764541</v>
+        <v>0.1018076574019829</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07675418745031282</v>
+        <v>0.09076741027762641</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1646415634965626</v>
+        <v>0.1005845518956405</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01994919091337865</v>
+        <v>0.02365463302474724</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1659437652406089</v>
+        <v>0.06435880598904313</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02564815716769765</v>
+        <v>0.02365463302474724</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.06435880598904313</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05202162467298993</v>
+        <v>0.05784226361397751</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1667286081752186</v>
+        <v>0.1028257339760028</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07799204425811707</v>
+        <v>0.08989019349842647</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1662879791315282</v>
+        <v>0.1015903974145969</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02017233095148709</v>
+        <v>0.02311121369069655</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1675867728172486</v>
+        <v>0.06435853746057911</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02624022491104552</v>
+        <v>0.02311121369069655</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.06435853746057911</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05219593626068852</v>
+        <v>0.05801034094469087</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1683793864739832</v>
+        <v>0.1038438105500226</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07911878209213646</v>
+        <v>0.09071245245544135</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1679343947664939</v>
+        <v>0.1025962429335533</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02137421053672716</v>
+        <v>0.0225748218453813</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1692297803938883</v>
+        <v>0.06435826893211509</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02619176593416024</v>
+        <v>0.0225748218453813</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.06435826893211509</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05289242274855185</v>
+        <v>0.05797982583356356</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1700301647727477</v>
+        <v>0.1048618871240424</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07904734047699208</v>
+        <v>0.08993414098117131</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1695808104014595</v>
+        <v>0.1036020884525097</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02057105308905239</v>
+        <v>0.02204613884812667</v>
       </c>
       <c r="G169" t="n">
-        <v>0.170872787970528</v>
+        <v>0.06435800040365107</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0264308327613214</v>
+        <v>0.02204613884812667</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.06435800040365107</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05356897895531465</v>
+        <v>0.05825029936023315</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1716809430715122</v>
+        <v>0.1058799636980623</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07965599730077222</v>
+        <v>0.08995521290811676</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1712272260364251</v>
+        <v>0.1046079339714661</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0217632295383692</v>
+        <v>0.02152584605818758</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1725157955471677</v>
+        <v>0.06435773187518706</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02696402566594491</v>
+        <v>0.02152584605818758</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.06435773187518706</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05353391133512603</v>
+        <v>0.05812134260433707</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1733317213702768</v>
+        <v>0.1068980402720821</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08074764075562391</v>
+        <v>0.09057562206877789</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1728736416713907</v>
+        <v>0.1056137794904225</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02195111081458396</v>
+        <v>0.02101462483484243</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1741588031238074</v>
+        <v>0.06435746334672304</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02699179408447751</v>
+        <v>0.02101462483484243</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.06435746334672304</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05388811627275575</v>
+        <v>0.05829253664551284</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1749824996690413</v>
+        <v>0.1079161168461019</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0810236052147264</v>
+        <v>0.09079532229565512</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1745200573063563</v>
+        <v>0.1066196250093789</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02213506784760303</v>
+        <v>0.02051315653734803</v>
       </c>
       <c r="G172" t="n">
-        <v>0.175801810700447</v>
+        <v>0.06435719481825902</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02731458745336583</v>
+        <v>0.02051315653734803</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.06435719481825902</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05453249015297337</v>
+        <v>0.05826346256339796</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1766332779678059</v>
+        <v>0.1089341934201217</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08178522505125929</v>
+        <v>0.09081426742124865</v>
       </c>
       <c r="O172" t="n">
-        <v>0.176166472941322</v>
+        <v>0.1076254705283353</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02231547156733283</v>
+        <v>0.02002212252502651</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1774448182770867</v>
+        <v>0.064356926289795</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02763285520905658</v>
+        <v>0.02002212252502651</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.064356926289795</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05486792936054874</v>
+        <v>0.05813370143762994</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1782840562665704</v>
+        <v>0.1099522699941416</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08313383463840168</v>
+        <v>0.09033241127805891</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1778128885762876</v>
+        <v>0.1086313160472917</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02349269290367973</v>
+        <v>0.01954220415713423</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1790878258537264</v>
+        <v>0.064356657761331</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02764704678799638</v>
+        <v>0.01954220415713423</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.064356657761331</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05529533028025144</v>
+        <v>0.05850283434784626</v>
       </c>
       <c r="M174" t="n">
-        <v>0.179934834565335</v>
+        <v>0.1109703465681614</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0838707683493331</v>
+        <v>0.09034970769858625</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1794593042112532</v>
+        <v>0.1096371615662481</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0216671027865501</v>
+        <v>0.01907408279294959</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1807308334303661</v>
+        <v>0.06435638923286698</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02795761162663198</v>
+        <v>0.01907408279294959</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.06435638923286698</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05571558929685122</v>
+        <v>0.05857044237368444</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1815856128640995</v>
+        <v>0.1119884231421812</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08409736055723288</v>
+        <v>0.09046611051533077</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1811057198462188</v>
+        <v>0.1106430070852045</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02183907214585034</v>
+        <v>0.01861843979173151</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1823738410070058</v>
+        <v>0.06435612070440296</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02826499916140997</v>
+        <v>0.01861843979173151</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.06435612070440296</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05652960279511773</v>
+        <v>0.05883610659478197</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1832363911628641</v>
+        <v>0.1130064997162011</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08471494563528037</v>
+        <v>0.09048157356079306</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1827521354811845</v>
+        <v>0.111648852604161</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02300897191148681</v>
+        <v>0.01817595651279805</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1840168485836455</v>
+        <v>0.06435585217593894</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02826965882877709</v>
+        <v>0.01817595651279805</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.06435585217593894</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05703826715982069</v>
+        <v>0.05859940809077635</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1848871694616286</v>
+        <v>0.1140245762902209</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08482485795665501</v>
+        <v>0.09059605066747317</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1843985511161501</v>
+        <v>0.1126546981231174</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02417717301336591</v>
+        <v>0.01774731431540752</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1856598561602852</v>
+        <v>0.06435558364747491</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02867204006518</v>
+        <v>0.01774731431540752</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.06435558364747491</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05694247877572978</v>
+        <v>0.05845992794130508</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1865379477603931</v>
+        <v>0.1150426528642407</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08602843189453602</v>
+        <v>0.09070949566787162</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1860449667511157</v>
+        <v>0.1136605436420738</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02434903080703279</v>
+        <v>0.01733319455883837</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1873028637369249</v>
+        <v>0.06435531511901091</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02887353324203758</v>
+        <v>0.01733319455883837</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.06435531511901091</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05784644683421813</v>
+        <v>0.05871724722600566</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1881887260591577</v>
+        <v>0.1160607294382605</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08633831519964985</v>
+        <v>0.09042186239448874</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1876913823860814</v>
+        <v>0.1146663891610302</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02253061862199863</v>
+        <v>0.016934278602352</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1889458713135646</v>
+        <v>0.06435504659054687</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02878584986450761</v>
+        <v>0.016934278602352</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.06435504659054687</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05807341498354052</v>
+        <v>0.05867094702451556</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1898395043579222</v>
+        <v>0.1170788060122804</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08698422599487493</v>
+        <v>0.09023310467982465</v>
       </c>
       <c r="O180" t="n">
-        <v>0.189337798021047</v>
+        <v>0.1156722346799866</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02471582394664742</v>
+        <v>0.01655124780526156</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1905888788902043</v>
+        <v>0.06435477806208287</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02920637956084043</v>
+        <v>0.01655124780526156</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.06435477806208287</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05811517271731981</v>
+        <v>0.05852060841647236</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1914902826566867</v>
+        <v>0.1180968825863002</v>
       </c>
       <c r="N181" t="n">
-        <v>0.087547109065924</v>
+        <v>0.09084317635637984</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1909842136560126</v>
+        <v>0.116678080198943</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02289827485940706</v>
+        <v>0.01618478352682778</v>
       </c>
       <c r="G182" t="n">
-        <v>0.192231886466844</v>
+        <v>0.06435450953361885</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02942740180556597</v>
+        <v>0.01618478352682778</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.06435450953361885</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05875632172619186</v>
+        <v>0.05916581248151345</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1931410609554513</v>
+        <v>0.11911495916032</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08840404223504694</v>
+        <v>0.09035203125665447</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1926306292909782</v>
+        <v>0.1176839257178994</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02407159943870547</v>
+        <v>0.01583556712632908</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1938748940434837</v>
+        <v>0.06435424100515484</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02974119607321407</v>
+        <v>0.01583556712632908</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.06435424100515484</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05938146370079267</v>
+        <v>0.05920614029927643</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1947918392542158</v>
+        <v>0.1201330357343399</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08913210332449412</v>
+        <v>0.090359623213149</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1942770449259439</v>
+        <v>0.1186897712368558</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0252294257629706</v>
+        <v>0.01550427996302985</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1955179016201234</v>
+        <v>0.06435397247669081</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02994004183831471</v>
+        <v>0.01550427996302985</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.06435397247669081</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05997520033175807</v>
+        <v>0.05874117294939871</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1964426175529804</v>
+        <v>0.1211511123083597</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08960837015651557</v>
+        <v>0.09016590605836367</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1959234605609095</v>
+        <v>0.1196956167558122</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02336538191063035</v>
+        <v>0.0151916033962374</v>
       </c>
       <c r="G185" t="n">
-        <v>0.197160909196763</v>
+        <v>0.0643537039482268</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02991621857539775</v>
+        <v>0.0151916033962374</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.0643537039482268</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06012213330972399</v>
+        <v>0.05907049151151789</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1980933958517449</v>
+        <v>0.1221691888823795</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09060992055336148</v>
+        <v>0.09017083362479883</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1975698761958751</v>
+        <v>0.1207014622747686</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02447309596011269</v>
+        <v>0.01489821878521531</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1988039167734027</v>
+        <v>0.06435343541976278</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03006200575899311</v>
+        <v>0.01489821878521531</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.06435343541976278</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06040686432532635</v>
+        <v>0.05879367706527136</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1997441741505094</v>
+        <v>0.1231872654563994</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09041383233728201</v>
+        <v>0.0901743597449548</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1992162918308407</v>
+        <v>0.121707307793725</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02354864614473844</v>
+        <v>0.01462480748924201</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2004469243500424</v>
+        <v>0.06435316689129877</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03036968286363072</v>
+        <v>0.01462480748924201</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.06435316689129877</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06031399506920107</v>
+        <v>0.05871031069029672</v>
       </c>
       <c r="M187" t="n">
-        <v>0.201394952449274</v>
+        <v>0.1242053420304192</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09069985869148545</v>
+        <v>0.09067643825133187</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2008627074658063</v>
+        <v>0.1227131533126814</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02461537226039556</v>
+        <v>0.01437205086758539</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2020899319266821</v>
+        <v>0.06435289836283474</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03035059743507657</v>
+        <v>0.01437205086758539</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.06435289836283474</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06087499272079885</v>
+        <v>0.0589199734662314</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2030457307480385</v>
+        <v>0.125223418604439</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09103973398712295</v>
+        <v>0.09107674458755771</v>
       </c>
       <c r="O188" t="n">
-        <v>0.202509123100772</v>
+        <v>0.1237189988316378</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02568062595479604</v>
+        <v>0.01414063027954589</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2037329395033218</v>
+        <v>0.06435262983437073</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03022952410722095</v>
+        <v>0.01414063027954589</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.06435262983437073</v>
       </c>
       <c r="L189" t="n">
-        <v>0.060832467980241</v>
+        <v>0.05922210381456885</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2046965090468031</v>
+        <v>0.1262414951784588</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0908743366698061</v>
+        <v>0.09085059973057918</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2041555387357376</v>
+        <v>0.1247248443505942</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02474438377840619</v>
+        <v>0.01392844486733712</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2053759470799615</v>
+        <v>0.06435236130590671</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03060666175733778</v>
+        <v>0.01392844486733712</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.06435236130590671</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06068636535919117</v>
+        <v>0.05911189485552745</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2063472873455676</v>
+        <v>0.1272595717524787</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09170358238281923</v>
+        <v>0.0909837262469122</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2058019543707033</v>
+        <v>0.1257306898695506</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02580662228169247</v>
+        <v>0.01371948268791601</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2070189546566012</v>
+        <v>0.06435209277744269</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0303819819728486</v>
+        <v>0.01371948268791601</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.06435209277744269</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06123662818978726</v>
+        <v>0.0591876967510416</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2079980656443322</v>
+        <v>0.1282776483264985</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09142738676944634</v>
+        <v>0.09067848729701222</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2074483700056688</v>
+        <v>0.126736535388507</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0258673180151212</v>
+        <v>0.01351164288349813</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2086619622332409</v>
+        <v>0.06435182424897867</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03055545634117494</v>
+        <v>0.01351164288349813</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.06435182424897867</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06148319980416711</v>
+        <v>0.05875023395284923</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2096488439430967</v>
+        <v>0.1292957249005183</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09244566547297156</v>
+        <v>0.09003724604133467</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2090947856406345</v>
+        <v>0.1277423809074635</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02392644752915881</v>
+        <v>0.01330560681338004</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2103049698098806</v>
+        <v>0.06435155572051465</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03052705644973842</v>
+        <v>0.01330560681338004</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.06435155572051465</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06142602353446866</v>
+        <v>0.05890023091268842</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2112996222418612</v>
+        <v>0.1303138014745382</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09175833413667905</v>
+        <v>0.09046236564033522</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2107412012756001</v>
+        <v>0.1287482264264198</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02498398737427165</v>
+        <v>0.01310205583683109</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2119479773865203</v>
+        <v>0.06435128719205065</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03069675388596049</v>
+        <v>0.01310205583683109</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.06435128719205065</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06136504271282978</v>
+        <v>0.05883841208229718</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2129504005406258</v>
+        <v>0.131331878048558</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09286530840385293</v>
+        <v>0.08945620925446929</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2123876169105658</v>
+        <v>0.1297540719453762</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02503991410092615</v>
+        <v>0.01290167131312966</v>
       </c>
       <c r="G195" t="n">
-        <v>0.21359098496316</v>
+        <v>0.06435101866358663</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03066452023726278</v>
+        <v>0.01290167131312966</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.06435101866358663</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06180020067138831</v>
+        <v>0.0588655019134135</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2146011788393903</v>
+        <v>0.1323499546225778</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09226650391777719</v>
+        <v>0.08962114004419242</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2140340325455314</v>
+        <v>0.1307599174643327</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02609420425958866</v>
+        <v>0.01270513460154576</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2152339925397997</v>
+        <v>0.06435075013512261</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03073032709106679</v>
+        <v>0.01270513460154576</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.06435075013512261</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06183144074228225</v>
+        <v>0.05888222485777547</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2162519571381549</v>
+        <v>0.1333680311965977</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09316183632173619</v>
+        <v>0.08985952116996004</v>
       </c>
       <c r="O196" t="n">
-        <v>0.215680448180497</v>
+        <v>0.131765762983289</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02414683440072556</v>
+        <v>0.01251312706137495</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2168770001164393</v>
+        <v>0.06435048160665859</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03109414603479412</v>
+        <v>0.01251312706137495</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.06435048160665859</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06165870625764941</v>
+        <v>0.05838930536712109</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2179027354369194</v>
+        <v>0.1343861077706175</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09255122125901383</v>
+        <v>0.08867371579222771</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2173268638154626</v>
+        <v>0.1327716085022455</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02519778107480327</v>
+        <v>0.01232633005188696</v>
       </c>
       <c r="G198" t="n">
-        <v>0.218520007693079</v>
+        <v>0.06435021307819458</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03095594865586627</v>
+        <v>0.01232633005188696</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.06435021307819458</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06188194054962762</v>
+        <v>0.05868746789318838</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2195535137356839</v>
+        <v>0.1354041843446373</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09273457437289429</v>
+        <v>0.08846608707145093</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2189732794504283</v>
+        <v>0.1337774540212019</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02624702083228816</v>
+        <v>0.01214542493236024</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2201630152697187</v>
+        <v>0.06434994454973056</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03091570654170485</v>
+        <v>0.01214542493236024</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.06434994454973056</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06200108695035489</v>
+        <v>0.0585774368877153</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2212042920344485</v>
+        <v>0.1364222609186571</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09321181130666178</v>
+        <v>0.0889389981680852</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2206196950853939</v>
+        <v>0.1347832995401583</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02529453022364659</v>
+        <v>0.01197109306206579</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2218060228463584</v>
+        <v>0.06434967602126654</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03107339127973135</v>
+        <v>0.01197109306206579</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.06434967602126654</v>
       </c>
       <c r="L200" t="n">
-        <v>0.062616088791969</v>
+        <v>0.05815993680243997</v>
       </c>
       <c r="M200" t="n">
-        <v>0.222855070333213</v>
+        <v>0.137440337492677</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09398284770360027</v>
+        <v>0.08789481224258605</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2222661107203595</v>
+        <v>0.1357891450591147</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02534028579934499</v>
+        <v>0.01180401580029722</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2234490304229981</v>
+        <v>0.06434940749280252</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03122897445736739</v>
+        <v>0.01180401580029722</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.06434940749280252</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06232688940660791</v>
+        <v>0.05833569208910039</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2245058486319776</v>
+        <v>0.1384584140666968</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09334759920699398</v>
+        <v>0.08773589245540897</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2239125263553251</v>
+        <v>0.1367949905780711</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0253842641098497</v>
+        <v>0.01164487450632522</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2250920379996378</v>
+        <v>0.06434913896433851</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03118242766203447</v>
+        <v>0.01164487450632522</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.06434913896433851</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06253343212640952</v>
+        <v>0.05790542719943453</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2261566269307421</v>
+        <v>0.1394764906407166</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09340598146012707</v>
+        <v>0.08706460196700938</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2255589419902907</v>
+        <v>0.1378008360970275</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02542644170562713</v>
+        <v>0.0114943505394282</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2267350455762775</v>
+        <v>0.06434887043587449</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03133372248115415</v>
+        <v>0.0114943505394282</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.06434887043587449</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06293566028351164</v>
+        <v>0.05806986658518051</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2278074052295066</v>
+        <v>0.1404945672147365</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09385791010628358</v>
+        <v>0.08748330393784298</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2272053576252564</v>
+        <v>0.1388066816159839</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02446679513714368</v>
+        <v>0.01135312525887867</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2283780531529172</v>
+        <v>0.06434860190741047</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03118283050214798</v>
+        <v>0.01135312525887867</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.06434860190741047</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06253351721005218</v>
+        <v>0.05792973469807625</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2294581835282712</v>
+        <v>0.1415126437887563</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09390330078874759</v>
+        <v>0.08679436152836512</v>
       </c>
       <c r="O204" t="n">
-        <v>0.228851773260222</v>
+        <v>0.1398125271349403</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0255053009548657</v>
+        <v>0.01122188002396736</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2300210607295569</v>
+        <v>0.06434833337894645</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03122972331243754</v>
+        <v>0.01122188002396736</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.06434833337894645</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06312694623816906</v>
+        <v>0.05778575598985985</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2311089618270357</v>
+        <v>0.1425307203627761</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09394206915080333</v>
+        <v>0.08600013789903133</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2304981888951876</v>
+        <v>0.1408183726538967</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02454193570925959</v>
+        <v>0.01110129619396634</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2316640683061966</v>
+        <v>0.06434806485048243</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03137437249944433</v>
+        <v>0.01110129619396634</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.06434806485048243</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06261589070000015</v>
+        <v>0.05753865491226928</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2327597401258003</v>
+        <v>0.1435487969367959</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09427413083573483</v>
+        <v>0.08600299621029706</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2321446045301532</v>
+        <v>0.1418242181728531</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02657667595079174</v>
+        <v>0.01099205512815403</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2333070758828363</v>
+        <v>0.06434779632201842</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03161674965058994</v>
+        <v>0.01099205512815403</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.06434779632201842</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0633002939276833</v>
+        <v>0.05718915591704257</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2344105184245648</v>
+        <v>0.1445668735108158</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09429940148682636</v>
+        <v>0.08510529962261804</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2337910201651189</v>
+        <v>0.1428300636918095</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02660949822992855</v>
+        <v>0.0108948381858049</v>
       </c>
       <c r="G208" t="n">
-        <v>0.234950083459476</v>
+        <v>0.06434752779355439</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03165682635329592</v>
+        <v>0.0108948381858049</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.06434752779355439</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06298009925335643</v>
+        <v>0.0572379834559178</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2360612967233293</v>
+        <v>0.1455849500848356</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09501779674736177</v>
+        <v>0.08480941129644953</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2354374358000845</v>
+        <v>0.1438359092107659</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02664037909713637</v>
+        <v>0.01081032672620585</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2365930910361156</v>
+        <v>0.06434725926509038</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03159457419498381</v>
+        <v>0.01081032672620585</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.06434725926509038</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06305525000915749</v>
+        <v>0.05688586198063292</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2377120750220939</v>
+        <v>0.1466030266588554</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0948292322606254</v>
+        <v>0.08481769439224712</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2370838514350501</v>
+        <v>0.1448417547297223</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02566929510288162</v>
+        <v>0.01073920210863081</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2382360986127553</v>
+        <v>0.06434699073662636</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03152996476307518</v>
+        <v>0.01073920210863081</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.06434699073662636</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06352568952722426</v>
+        <v>0.05683351594292604</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2393628533208584</v>
+        <v>0.1476211032328753</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09483362366990133</v>
+        <v>0.08383251207046638</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2387302670700157</v>
+        <v>0.1458476002486787</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02669622279763064</v>
+        <v>0.0106821456923582</v>
       </c>
       <c r="G211" t="n">
-        <v>0.239879106189395</v>
+        <v>0.06434672220816236</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03146296964499157</v>
+        <v>0.0106821456923582</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.06434672220816236</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06319136113969465</v>
+        <v>0.0563816697945351</v>
       </c>
       <c r="M211" t="n">
-        <v>0.241013631619623</v>
+        <v>0.1486391798068951</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09483088661847361</v>
+        <v>0.08345622749156267</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2403766827049814</v>
+        <v>0.1468534457676351</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02472113873184987</v>
+        <v>0.01063983883666494</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2415221137660347</v>
+        <v>0.06434645367969832</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03179356042815451</v>
+        <v>0.01063983883666494</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.06434645367969832</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06365220817870662</v>
+        <v>0.05683104798719812</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2426644099183875</v>
+        <v>0.1496572563809149</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09522093674962645</v>
+        <v>0.08349120381599168</v>
       </c>
       <c r="O212" t="n">
-        <v>0.242023098339947</v>
+        <v>0.1478592912865915</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02474401945600566</v>
+        <v>0.01061296290083315</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2431651213426744</v>
+        <v>0.06434618515123432</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03152170869998557</v>
+        <v>0.01061296290083315</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.06434618515123432</v>
       </c>
       <c r="L213" t="n">
-        <v>0.063708173976398</v>
+        <v>0.05658237497265323</v>
       </c>
       <c r="M213" t="n">
-        <v>0.244315188217152</v>
+        <v>0.1506753329549348</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09520368970664389</v>
+        <v>0.08343980420420877</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2436695139749126</v>
+        <v>0.1488651368055479</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02676484152056442</v>
+        <v>0.01060219924413909</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2448081289193141</v>
+        <v>0.0643459166227703</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03174738604790631</v>
+        <v>0.01060219924413909</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.0643459166227703</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06335920186490665</v>
+        <v>0.05643637520263833</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2459659665159166</v>
+        <v>0.1516934095289546</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09497906113281018</v>
+        <v>0.08330439181666943</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2453159296098782</v>
+        <v>0.1498709823245044</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0267835814759925</v>
+        <v>0.01060219924413909</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2464511364959538</v>
+        <v>0.0643459166227703</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03157056405933827</v>
+        <v>0.01060219924413909</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.0643459166227703</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0637052351763705</v>
+        <v>0.05599377312889148</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2476167448146812</v>
+        <v>0.1527114861029744</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09574696667140925</v>
+        <v>0.0822873298138293</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2469623452448439</v>
+        <v>0.1508768278434608</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02680021587275633</v>
+        <v>0.01025228446053408</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2480941440725935</v>
+        <v>0.06430475214925406</v>
       </c>
       <c r="J216" t="n">
-        <v>0.031891214321703</v>
+        <v>0.01025228446053408</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.06430475214925406</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06344621724292743</v>
+        <v>0.05605529320315075</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2492675231134457</v>
+        <v>0.1537295626769942</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09500732196572531</v>
+        <v>0.08179098135614382</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2486087608798095</v>
+        <v>0.1518826733624171</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02481472126132225</v>
+        <v>0.009903808901083958</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2497371516492332</v>
+        <v>0.06426358767573782</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03180930842242205</v>
+        <v>0.009903808901083958</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.06426358767573782</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06328209139671531</v>
+        <v>0.05582165987715415</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2509183014122102</v>
+        <v>0.1547476392510141</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09566004265904254</v>
+        <v>0.08151770960406846</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2502551765147751</v>
+        <v>0.1528885188813736</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02682707419215669</v>
+        <v>0.009557915395577779</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2513801592258729</v>
+        <v>0.06422242320222157</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03172481794891699</v>
+        <v>0.009557915395577779</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.06422242320222157</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06331280096987202</v>
+        <v>0.05599359760263967</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2525690797109748</v>
+        <v>0.1557657158250339</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09520504439464494</v>
+        <v>0.08126987771805877</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2519015921497408</v>
+        <v>0.15389436440033</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02683725121572599</v>
+        <v>0.009215746773804809</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2530231668025126</v>
+        <v>0.06418125872870534</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03193771448860938</v>
+        <v>0.009215746773804809</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.06418125872870534</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06383828929453553</v>
+        <v>0.05587183083134534</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2542198580097393</v>
+        <v>0.1567837923990537</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09584224281581671</v>
+        <v>0.08174984885857034</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2535480077847064</v>
+        <v>0.1549002099192864</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02684522888249655</v>
+        <v>0.008878445865554099</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2546661743791522</v>
+        <v>0.0641400942551891</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03194796962892073</v>
+        <v>0.008878445865554099</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.0641400942551891</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06355849970284358</v>
+        <v>0.05545708401500921</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2558706363085039</v>
+        <v>0.1578018689730736</v>
       </c>
       <c r="N220" t="n">
-        <v>0.095171553565842</v>
+        <v>0.08165998618605846</v>
       </c>
       <c r="O220" t="n">
-        <v>0.255194423419672</v>
+        <v>0.1559060554382428</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0258509837429348</v>
+        <v>0.008547155500614745</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2563091819557919</v>
+        <v>0.06409892978167286</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03165555495727261</v>
+        <v>0.008547155500614745</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.06409892978167286</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0638733755269342</v>
+        <v>0.05565008160536927</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2575214146072684</v>
+        <v>0.1588199455470934</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09509289228800483</v>
+        <v>0.08110265286097873</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2568408390546376</v>
+        <v>0.1569119009571992</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02685449234750705</v>
+        <v>0.00822301850877586</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2579521895324317</v>
+        <v>0.06405776530815661</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03176044206108657</v>
+        <v>0.00822301850877586</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.06405776530815661</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06378286009894518</v>
+        <v>0.05555154805416357</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2591721929060329</v>
+        <v>0.1598380221211132</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09540617462558942</v>
+        <v>0.08077806175992686</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2584872546896033</v>
+        <v>0.1579177464761556</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02485573124667973</v>
+        <v>0.007907177719826561</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2595951971090714</v>
+        <v>0.06401660083464038</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03176260252778418</v>
+        <v>0.007907177719826561</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.06401660083464038</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06368689675101447</v>
+        <v>0.05535904690503923</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2608229712047975</v>
+        <v>0.160856098695133</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09541131622187982</v>
+        <v>0.08136187934511641</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2601336703245689</v>
+        <v>0.158923591995112</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0258234878688663</v>
+        <v>0.007600775963555954</v>
       </c>
       <c r="G224" t="n">
-        <v>0.261238204685711</v>
+        <v>0.06397543636112414</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03194093308581544</v>
+        <v>0.007600775963555954</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.06397543636112414</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06353724195175622</v>
+        <v>0.05496717758987885</v>
       </c>
       <c r="M224" t="n">
-        <v>0.262473749503562</v>
+        <v>0.1618741752691529</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09571492864832271</v>
+        <v>0.08114671260383316</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2617800859595345</v>
+        <v>0.1599294375140684</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02572571260677128</v>
+        <v>0.00730495606975308</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2628812122623507</v>
+        <v>0.06393427188760789</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03164163800457526</v>
+        <v>0.00730495606975308</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.06393427188760789</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06343119135647152</v>
+        <v>0.05487584135579171</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2641245278023265</v>
+        <v>0.1628922518431727</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0955829224518267</v>
+        <v>0.08023264963440713</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2634265015945002</v>
+        <v>0.1609352830330248</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0255696537323843</v>
+        <v>0.007020860868207204</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2645242198389904</v>
+        <v>0.06389310741409165</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03137008968065452</v>
+        <v>0.007020860868207204</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.06389310741409165</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06318171311228857</v>
+        <v>0.05518505476199456</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2657753061010911</v>
+        <v>0.1639103284171925</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09423955938442763</v>
+        <v>0.08091977853516857</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2650729172294658</v>
+        <v>0.1619411285519812</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02636262148263264</v>
+        <v>0.006749633188707367</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2661672274156301</v>
+        <v>0.06385194294057542</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03133514554736445</v>
+        <v>0.006749633188707367</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.06385194294057542</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06250647305022208</v>
+        <v>0.05459483436770429</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2674260843998557</v>
+        <v>0.1649284049912124</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09351113709407127</v>
+        <v>0.0809081874044475</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2667193328644314</v>
+        <v>0.1629469740709376</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02611192609444355</v>
+        <v>0.006492415861042676</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2678102349922698</v>
+        <v>0.06381077846705918</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03084566303801638</v>
+        <v>0.006492415861042676</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.06381077846705918</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06232313700128669</v>
+        <v>0.05450519673213766</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2690768626986202</v>
+        <v>0.1659464815652322</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09252395322870333</v>
+        <v>0.07989796434057417</v>
       </c>
       <c r="O228" t="n">
-        <v>0.268365748499397</v>
+        <v>0.163952819589894</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0258248778047443</v>
+        <v>0.006250351715002246</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2694532425689095</v>
+        <v>0.06376961399354295</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03051049958592157</v>
+        <v>0.006250351715002246</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.06376961399354295</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06104937079649703</v>
+        <v>0.05461615841451156</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2707276409973847</v>
+        <v>0.166964558139252</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09160430543626957</v>
+        <v>0.07998919744187866</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2700121641343626</v>
+        <v>0.1649586651088504</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02550878685046213</v>
+        <v>0.006024583580375185</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2710962501455492</v>
+        <v>0.06372844952002671</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03033851262439129</v>
+        <v>0.006024583580375185</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.06372844952002671</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06090284026686765</v>
+        <v>0.05452773597404276</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2723784192961493</v>
+        <v>0.1679826347132719</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0904784913647157</v>
+        <v>0.08048197480669117</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2716585797693283</v>
+        <v>0.1659645106278068</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02517096346852433</v>
+        <v>0.005816254286950553</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2727392577221889</v>
+        <v>0.06368728504651046</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03003855958673682</v>
+        <v>0.005816254286950553</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.06368728504651046</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05990121124341333</v>
+        <v>0.05473994596994811</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2740291975949138</v>
+        <v>0.1690007112872917</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09007280866198764</v>
+        <v>0.08037638453334178</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2733049954042939</v>
+        <v>0.1669703561467632</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02481871789585815</v>
+        <v>0.005626506664517583</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2743822652988285</v>
+        <v>0.06364612057299422</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02941949790626947</v>
+        <v>0.005626506664517583</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.06364612057299422</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05886214955714864</v>
+        <v>0.0543528049614444</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2756799758936783</v>
+        <v>0.1700187878613115</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08851355497603075</v>
+        <v>0.07997251472016076</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2749514110392595</v>
+        <v>0.1679762016657196</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02245936036939083</v>
+        <v>0.005456483542865327</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2760252728754682</v>
+        <v>0.06360495609947799</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0288901850163005</v>
+        <v>0.005456483542865327</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.06360495609947799</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05780332103908825</v>
+        <v>0.05406632950774851</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2773307541924429</v>
+        <v>0.1710368644353313</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0872270279547912</v>
+        <v>0.0799704534654781</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2765978266742252</v>
+        <v>0.168982047184676</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02210020112604965</v>
+        <v>0.005307327751782893</v>
       </c>
       <c r="G234" t="n">
-        <v>0.277668280452108</v>
+        <v>0.06356379162596175</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02875947835014121</v>
+        <v>0.005307327751782893</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.06356379162596175</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0569423915202468</v>
+        <v>0.05388053616807723</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2789815324912074</v>
+        <v>0.1720549410093511</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08573952524621453</v>
+        <v>0.07987028886762415</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2782442423091908</v>
+        <v>0.1699878927036325</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02274855040276188</v>
+        <v>0.00518018212105939</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2793112880287477</v>
+        <v>0.0635226271524455</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02803623534110286</v>
+        <v>0.00518018212105939</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.0635226271524455</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05619702683163891</v>
+        <v>0.05439544150164738</v>
       </c>
       <c r="M235" t="n">
-        <v>0.280632310789972</v>
+        <v>0.173073017583371</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0840773444982465</v>
+        <v>0.07977210902492887</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2798906579441564</v>
+        <v>0.1709937382225888</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02141171843645476</v>
+        <v>0.005076189480483946</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2809542956053873</v>
+        <v>0.06348146267892926</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02782931342249673</v>
+        <v>0.005076189480483946</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.06348146267892926</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05548489280427921</v>
+        <v>0.0543110620676758</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2822830890887365</v>
+        <v>0.1740910941573908</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08366678335883282</v>
+        <v>0.07997600203572253</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2815370735791221</v>
+        <v>0.1719995837415453</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02309701546405556</v>
+        <v>0.004996492659845635</v>
       </c>
       <c r="G237" t="n">
-        <v>0.282597303182027</v>
+        <v>0.06344029820541301</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0273475700276341</v>
+        <v>0.004996492659845635</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.06344029820541301</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05492365526918244</v>
+        <v>0.05372741442537929</v>
       </c>
       <c r="M237" t="n">
-        <v>0.283933867387501</v>
+        <v>0.1751091707314107</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08233413947591928</v>
+        <v>0.07958205599833529</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2831834892140876</v>
+        <v>0.1730054292605017</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02180891566118717</v>
+        <v>0.004942234488933626</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2842403107586667</v>
+        <v>0.06339913373189678</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02719862431307238</v>
+        <v>0.004942234488933626</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.06339913373189678</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05412778278985303</v>
+        <v>0.05354451513397471</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2855846456862656</v>
+        <v>0.1761272473054305</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08089816288794438</v>
+        <v>0.07979035901109716</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2848299048490532</v>
+        <v>0.1740112747794581</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02152581668716975</v>
+        <v>0.004914557797537002</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2858833183353064</v>
+        <v>0.06335796925838054</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02675987041194915</v>
+        <v>0.004914557797537002</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.06335796925838054</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05355038406235976</v>
+        <v>0.05366238075267882</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2872354239850301</v>
+        <v>0.1771453238794503</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07988416518726188</v>
+        <v>0.07900099917233844</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2864763204840189</v>
+        <v>0.1750171202984145</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02224163710671733</v>
+        <v>0.00491104539707414</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2875263259119461</v>
+        <v>0.0633168047848643</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02651981810030081</v>
+        <v>0.00491104539707414</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.0633168047848643</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05277039117200935</v>
+        <v>0.05368102784070855</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2888862022837946</v>
+        <v>0.1781634004534701</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07896629141307449</v>
+        <v>0.07901406458038918</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2881227361189845</v>
+        <v>0.1760229658173709</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02095635960160753</v>
+        <v>0.004911065055884109</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2891693334885858</v>
+        <v>0.06327564031134807</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02597844639453933</v>
+        <v>0.004911065055884109</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.06327564031134807</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05238776226779299</v>
+        <v>0.05370047295728059</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2905369805825592</v>
+        <v>0.17918147702749</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07814447926527879</v>
+        <v>0.07872964333357951</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2897691517539501</v>
+        <v>0.1770288113363273</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02066996685361799</v>
+        <v>0.004911139154475559</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2908123410652255</v>
+        <v>0.06323447583783183</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02563573431107681</v>
+        <v>0.004911139154475559</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.06323447583783183</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05150245549870194</v>
+        <v>0.05362073266161185</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2921877588813238</v>
+        <v>0.1801995536015098</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07741866644377182</v>
+        <v>0.07894782353023966</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2914155673889158</v>
+        <v>0.1780346568552837</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02138244154452636</v>
+        <v>0.004911303986036127</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2924553486418652</v>
+        <v>0.06319331136431558</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02549166086632521</v>
+        <v>0.004911303986036127</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.06319331136431558</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05051442901372738</v>
+        <v>0.05314182351291916</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2938385371800883</v>
+        <v>0.1812176301755296</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0755887906484502</v>
+        <v>0.07846869326869987</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2930619830238814</v>
+        <v>0.1790405023742401</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02009376635611023</v>
+        <v>0.004911595843753475</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2940983562185049</v>
+        <v>0.06315214689079934</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02484620507669656</v>
+        <v>0.004911595843753475</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.06315214689079934</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04992364096186055</v>
+        <v>0.05366376207041929</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2954893154788528</v>
+        <v>0.1822357067495494</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07485478957921088</v>
+        <v>0.07879234064729007</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2947083986588471</v>
+        <v>0.1800463478931965</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01880392397014725</v>
+        <v>0.004912051020815225</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2957413637951445</v>
+        <v>0.06311098241728311</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02449934595860291</v>
+        <v>0.004912051020815225</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.06311098241728311</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04903004949209266</v>
+        <v>0.05328656489332911</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2971400937776174</v>
+        <v>0.1832537833235693</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07351660093595058</v>
+        <v>0.07911885376434052</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2963548142938127</v>
+        <v>0.1810521934121529</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02051289706841506</v>
+        <v>0.004912705810409049</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2973843713717843</v>
+        <v>0.06306981794376687</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02435106252845624</v>
+        <v>0.004912705810409049</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.06306981794376687</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04873361275341492</v>
+        <v>0.05341024854086543</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2987908720763819</v>
+        <v>0.1842718598975891</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07317416241856611</v>
+        <v>0.07834832071818126</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2980012299287783</v>
+        <v>0.1820580389311093</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01922066833269127</v>
+        <v>0.004913596505722588</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2990273789484239</v>
+        <v>0.06302865347025062</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0241013338026686</v>
+        <v>0.004913596505722588</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.06302865347025062</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04783428889481858</v>
+        <v>0.05283482957224503</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3004416503751464</v>
+        <v>0.185289936471609</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07222741172695429</v>
+        <v>0.07878082960714272</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2996476455637439</v>
+        <v>0.1830638844500657</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01892722044475353</v>
+        <v>0.004914759399943479</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3006703865250636</v>
+        <v>0.06298748899673438</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02375013879765199</v>
+        <v>0.004914759399943479</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.06298748899673438</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0470320360652948</v>
+        <v>0.05286032454668482</v>
       </c>
       <c r="M248" t="n">
-        <v>0.302092428673911</v>
+        <v>0.1863080130456288</v>
       </c>
       <c r="N248" t="n">
-        <v>0.070576286561012</v>
+        <v>0.07831646852955487</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3012940611987096</v>
+        <v>0.1840697299690221</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01863253608637946</v>
+        <v>0.004916230786259385</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3023133941017033</v>
+        <v>0.06294632452321813</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02339745652981846</v>
+        <v>0.004916230786259385</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.06294632452321813</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04632681241383482</v>
+        <v>0.05288675002340154</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3037432069726755</v>
+        <v>0.1873260896196486</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06962072462063601</v>
+        <v>0.07815532558374766</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3029404768336751</v>
+        <v>0.1850755754879785</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01733659793934669</v>
+        <v>0.004918046957857941</v>
       </c>
       <c r="G250" t="n">
-        <v>0.303956401678343</v>
+        <v>0.0629051600497019</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02294326601558003</v>
+        <v>0.004918046957857941</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.0629051600497019</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04611857608942987</v>
+        <v>0.05261412256161208</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3053939852714401</v>
+        <v>0.1883441661936684</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06896066360572312</v>
+        <v>0.07849748886805163</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3045868924686408</v>
+        <v>0.1860814210069349</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01903938868543286</v>
+        <v>0.004920244207926819</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3055994092549827</v>
+        <v>0.06286399557618566</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0226875462713487</v>
+        <v>0.004920244207926819</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.06286399557618566</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04480728524107114</v>
+        <v>0.05254245872053323</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3070447635702046</v>
+        <v>0.1893622427676883</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06809604121617008</v>
+        <v>0.07804304648079663</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3062333081036064</v>
+        <v>0.1870872665258913</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01774089100641559</v>
+        <v>0.004922858829653647</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3072424168316224</v>
+        <v>0.06282283110266942</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02223027631353647</v>
+        <v>0.004922858829653647</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.06282283110266942</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04469289801774987</v>
+        <v>0.0529717750593818</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3086955418689691</v>
+        <v>0.1903803193417081</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06672679515187369</v>
+        <v>0.07879208652031294</v>
       </c>
       <c r="O252" t="n">
-        <v>0.307879723738572</v>
+        <v>0.1880931120448477</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0164410875840725</v>
+        <v>0.004925927116226067</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3088854244082621</v>
+        <v>0.06278166662915319</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02197143515855543</v>
+        <v>0.004925927116226067</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.06278166662915319</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04347537256845729</v>
+        <v>0.05240208813737465</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3103463201677337</v>
+        <v>0.1913983959157279</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06565286311273089</v>
+        <v>0.07824469708493076</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3095261393735377</v>
+        <v>0.1890989575638042</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01813996110018125</v>
+        <v>0.004929485360831758</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3105284319849018</v>
+        <v>0.06274050215563695</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02151100182281752</v>
+        <v>0.004929485360831758</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.06274050215563695</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04315466704218454</v>
+        <v>0.05263341451372855</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3119970984664983</v>
+        <v>0.1924164724897477</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0641741827986384</v>
+        <v>0.07850096627298014</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3111725550085033</v>
+        <v>0.1901048030827605</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01783749423651945</v>
+        <v>0.004933569856658326</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3121714395615415</v>
+        <v>0.0626993376821207</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02114895532273482</v>
+        <v>0.004933569856658326</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.0626993376821207</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04203073958792292</v>
+        <v>0.05286577074766036</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3136478767652628</v>
+        <v>0.1934345490637676</v>
       </c>
       <c r="N255" t="n">
-        <v>0.063690691909493</v>
+        <v>0.07786098218279114</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3128189706434689</v>
+        <v>0.1911106486017169</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01753366967486474</v>
+        <v>0.004938216896893464</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3138144471381812</v>
+        <v>0.06265817320860446</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02078527467471934</v>
+        <v>0.004938216896893464</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.06265817320860446</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04170354835466361</v>
+        <v>0.05259917339838693</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3152986550640273</v>
+        <v>0.1944526256377874</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06270232814519155</v>
+        <v>0.07862483291269418</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3144653862784345</v>
+        <v>0.1921164941206734</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01522847009699473</v>
+        <v>0.004943462774724787</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3154574547148209</v>
+        <v>0.06261700873508823</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02031993889518309</v>
+        <v>0.004943462774724787</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.06261700873508823</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04077305149139784</v>
+        <v>0.05213363902512505</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3169494333627919</v>
+        <v>0.1954707022118072</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06150902920563089</v>
+        <v>0.07789260656101915</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3161118019134002</v>
+        <v>0.1931223396396298</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01692187818468707</v>
+        <v>0.00494934378333995</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3171004622914605</v>
+        <v>0.06257584426157199</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01995292700053808</v>
+        <v>0.00494934378333995</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.06257584426157199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03993920714711677</v>
+        <v>0.05216918418709152</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3186002116615564</v>
+        <v>0.1964887787858271</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06041073279070769</v>
+        <v>0.07796439122609627</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3177582175483658</v>
+        <v>0.1941281851585862</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01661387661971937</v>
+        <v>0.004955896215926618</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3187434698681003</v>
+        <v>0.06253467978805576</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01948421800719639</v>
+        <v>0.004955896215926618</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.06253467978805576</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03910197347081168</v>
+        <v>0.05220582544350322</v>
       </c>
       <c r="M259" t="n">
-        <v>0.320250989960321</v>
+        <v>0.1975068553598469</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05880737660031898</v>
+        <v>0.0782402750062558</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3194046331833314</v>
+        <v>0.1951340306775426</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01630444808386929</v>
+        <v>0.004963156365672412</v>
       </c>
       <c r="G260" t="n">
-        <v>0.32038647744474</v>
+        <v>0.06249351531453951</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01911379093156997</v>
+        <v>0.004963156365672412</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.06249351531453951</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03826130861147381</v>
+        <v>0.05234357935357692</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3219017682590855</v>
+        <v>0.1985249319338667</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05819889833436137</v>
+        <v>0.0778203459998279</v>
       </c>
       <c r="O260" t="n">
-        <v>0.321051048818297</v>
+        <v>0.196139876196499</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01499357525891445</v>
+        <v>0.00497116052576501</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3220294850213796</v>
+        <v>0.06245235084102326</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01904162479007084</v>
+        <v>0.00497116052576501</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.06245235084102326</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03801717071809427</v>
+        <v>0.05208246247652948</v>
       </c>
       <c r="M261" t="n">
-        <v>0.32355254655785</v>
+        <v>0.1995430085078866</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05698523569273173</v>
+        <v>0.07770469230514243</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3226974644532627</v>
+        <v>0.1971457217154554</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01568124082663248</v>
+        <v>0.004979944989392034</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3236724925980193</v>
+        <v>0.06241118636750703</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01866769859911108</v>
+        <v>0.004979944989392034</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.06241118636750703</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03686951793966434</v>
+        <v>0.0519224913715777</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3252033248566146</v>
+        <v>0.2005610850819064</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05546632637532689</v>
+        <v>0.07809340202052989</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3243438800882283</v>
+        <v>0.1981515672344118</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01336742746880098</v>
+        <v>0.004989546049741153</v>
       </c>
       <c r="G263" t="n">
-        <v>0.325315500174659</v>
+        <v>0.06237002189399079</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01809199137510265</v>
+        <v>0.004989546049741153</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.06237002189399079</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03601830842517528</v>
+        <v>0.05186368259793844</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3268541031553791</v>
+        <v>0.2015791616559262</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05454210808204363</v>
+        <v>0.07818656324432016</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3259902957231939</v>
+        <v>0.1991574127533682</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01505211786719762</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3269585077512987</v>
+        <v>0.06232885742047455</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01761448213445764</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.06232885742047455</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0356635003236182</v>
+        <v>0.05210605271482849</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3285048814541436</v>
+        <v>0.202597238229946</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05301251851277883</v>
+        <v>0.07818426407484352</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3276367113581595</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2001632582723246</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0623156995257377</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0623156995257377</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005376795436124703</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06231596805420172</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005376795436124703</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.06231596805420172</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005750129330528583</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06231623658266573</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.005750129330528583</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.06231623658266573</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00611991003453858</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06231650511112976</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.00611991003453858</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.06231650511112976</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006486045899433447</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06231677363959377</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.006486045899433447</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.06231677363959377</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006848445276540278</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06231704216805779</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.006848445276540278</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.06231704216805779</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007207016517170012</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0623173106965218</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.007207016517170012</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0623173106965218</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007561667972648935</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06231757922498583</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.007561667972648935</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.06231757922498583</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007912307994257101</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06231784775344984</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.007912307994257101</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.06231784775344984</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.00825884493332097</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06231811628191385</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.00825884493332097</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.06231811628191385</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008601187141151476</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06231838481037787</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.008601187141151476</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.06231838481037787</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008939242969074161</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06231865333884189</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.008939242969074161</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.06231865333884189</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009272920768370545</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06231892186730591</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.009272920768370545</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.06231892186730591</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009602128890366358</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06231919039576992</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.009602128890366358</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.06231919039576992</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009926775686372541</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06231945892423394</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.009926775686372541</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.06231945892423394</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01024676950771384</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06231972745269796</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01024676950771384</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.06231972745269796</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01056201870567334</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06231999598116198</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01056201870567334</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.06231999598116198</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01087243163157601</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06232026450962599</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01087243163157601</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.06232026450962599</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01117791663673278</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06232053303809001</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.01117791663673278</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.06232053303809001</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01147838207246754</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06232080156655403</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.01147838207246754</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.06232080156655403</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01177373629006507</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06232107009501805</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.01177373629006507</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.06232107009501805</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0120638876408495</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06232133862348206</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.0120638876408495</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.06232133862348206</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01234874447613177</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06232160715194607</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.01234874447613177</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.06232160715194607</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01262821514723483</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0623218756804101</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.01262821514723483</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0623218756804101</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01290220800544531</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06232214420887412</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.01290220800544531</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.06232214420887412</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0131710056342334</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06232241273733813</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.0131710056342334</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.06232241273733813</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0134367617777922</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06232268126580215</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0134367617777922</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.06232268126580215</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01369975901959107</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06232294979426617</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.01369975901959107</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.06232294979426617</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01395990571091807</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06232321832273019</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.01395990571091807</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.06232321832273019</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01421711020309561</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0623234868511942</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.01421711020309561</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.0623234868511942</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01447128084743464</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06232375537965822</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.01447128084743464</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.06232375537965822</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01472232599525695</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06232402390812224</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.01472232599525695</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.06232402390812224</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01497015399785163</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06232429243658626</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.01497015399785163</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.06232429243658626</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01521467320654057</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06232456096505027</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.01521467320654057</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.06232456096505027</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01545579197263475</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06232482949351428</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.01545579197263475</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.06232482949351428</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01569341864745534</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06232509802197831</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.01569341864745534</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.06232509802197831</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01592746158229259</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06232536655044232</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.01592746158229259</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.06232536655044232</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01615782912846786</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06232563507890634</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.01615782912846786</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.06232563507890634</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01638442963729207</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06232590360737036</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.01638442963729207</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.06232590360737036</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01660717146008577</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06232617213583438</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.01660717146008577</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.06232617213583438</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01682596294814051</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.0623264406642984</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.01682596294814051</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.0623264406642984</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.017040712452777</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06232670919276241</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.017040712452777</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.06232670919276241</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01725132832530617</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06232697772122642</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.01725132832530617</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.06232697772122642</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01745771891704784</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06232724624969045</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.01745771891704784</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.06232724624969045</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01765979257929495</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06232751477815447</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.01765979257929495</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.06232751477815447</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01785745766336756</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06232778330661848</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.01785745766336756</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.06232778330661848</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01805062252057658</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06232805183508249</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.01805062252057658</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.06232805183508249</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01823919550224104</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06232832036354652</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.01823919550224104</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.06232832036354652</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01842308495965546</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06232858889201053</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.01842308495965546</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.06232858889201053</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0186021992441391</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06232885742047455</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.0186021992441391</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.06232885742047455</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0186021992441391</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0623156995257377</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.0186021992441391</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0623156995257377</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01881091616207818</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06235740105618198</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.01881091616207818</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.06235740105618198</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01901746337836555</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06239910258662625</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.01901746337836555</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.06239910258662625</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01922148435120265</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06244080411707052</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.01922148435120265</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.06244080411707052</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01942262253879079</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06248250564751481</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.01942262253879079</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.06248250564751481</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01962052139933126</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06252420717795908</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.01962052139933126</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.06252420717795908</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01981482439102554</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06256590870840335</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.01981482439102554</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.06256590870840335</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.02000517497207491</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06260761023884763</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.02000517497207491</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.06260761023884763</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02019121660068068</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06264931176929189</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.02019121660068068</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.06264931176929189</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.02037259273504433</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06269101329973617</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.02037259273504433</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.06269101329973617</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.02054894683336712</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06273271483018045</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.02054894683336712</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.06273271483018045</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.0207199223538504</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06277441636062471</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.0207199223538504</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.06277441636062471</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02088516275469557</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.062816117891069</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.02088516275469557</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.062816117891069</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02104431149410395</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06285781942151326</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.02104431149410395</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.06285781942151326</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02119701203027693</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06289952095195754</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.02119701203027693</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.06289952095195754</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02134290782141585</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06294122248240182</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.02134290782141585</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.06294122248240182</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02148164232572203</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06298292401284608</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.02148164232572203</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.06298292401284608</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02161285900139688</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06302462554329036</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.02161285900139688</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.06302462554329036</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02173620130664174</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06306632707373465</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.02173620130664174</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.06306632707373465</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02185131269965788</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06310802860417891</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.02185131269965788</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.06310802860417891</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0219578366386468</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06314973013462319</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.0219578366386468</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.06314973013462319</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02205541658180975</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06319143166506747</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.02205541658180975</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.06319143166506747</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02214369598734808</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06323313319551173</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.02214369598734808</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.06323313319551173</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02222231831346323</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06327483472595601</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.02222231831346323</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.06327483472595601</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02229092701835649</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06331653625640028</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.02229092701835649</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.06331653625640028</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02235040314965041</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06335823778684456</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.02235040314965041</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.06335823778684456</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02240789756066998</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06339993931728884</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.02240789756066998</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.06339993931728884</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02246450049322807</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06344164084773311</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.02246450049322807</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.06344164084773311</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02252007369511592</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06348334237817738</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.02252007369511592</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.06348334237817738</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02257447891412487</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06352504390862165</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.02257447891412487</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.06352504390862165</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02262757789804611</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06356674543906593</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.02262757789804611</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.06356674543906593</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02267923239467096</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06360844696951021</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.02267923239467096</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.06360844696951021</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.02272930415179066</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06365014849995448</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.02272930415179066</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.06365014849995448</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02277765491719649</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06369185003039876</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.02277765491719649</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.06369185003039876</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02282414643867971</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06373355156084302</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.02282414643867971</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.06373355156084302</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02286864046403161</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0637752530912873</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.02286864046403161</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.0637752530912873</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02291099874104345</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06381695462173158</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.02291099874104345</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.06381695462173158</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02295108301750648</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06385865615217586</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.02295108301750648</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.06385865615217586</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.02298875504121198</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06390035768262013</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.02298875504121198</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.06390035768262013</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02302387655995121</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06394205921306439</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.02302387655995121</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.06394205921306439</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02305630932151546</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06398376074350867</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.02305630932151546</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.06398376074350867</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02308591507369599</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06402546227395295</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.02308591507369599</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.06402546227395295</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02311255556428406</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06406716380439721</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.02311255556428406</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.06406716380439721</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02313609254107091</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0641088653348415</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.02313609254107091</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.0641088653348415</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.02315638775184788</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06415056686528578</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.02315638775184788</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.06415056686528578</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02317330294440617</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06419226839573004</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.02317330294440617</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.06419226839573004</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02318669986653708</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06423396992617432</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.02318669986653708</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.06423396992617432</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02319644026603189</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0642756714566186</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.02319644026603189</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.0642756714566186</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02320238589068183</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06431737298706286</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.02320238589068183</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.06431737298706286</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.0232043984882782</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06435907451750715</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.0232043984882782</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.06435907451750715</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.0232043984882782</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06435907451750715</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.0232043984882782</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.06435907451750715</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02287979557848015</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06753950086616624</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.02287979557848015</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.06753950086616624</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0226005454760298</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07071992721482534</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.0226005454760298</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.07071992721482534</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02236323631748292</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07390035356348444</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.02236323631748292</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.07390035356348444</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02216445623939527</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07708077991214353</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.02216445623939527</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.07708077991214353</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0220007933783226</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08026120626080262</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.0220007933783226</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.08026120626080262</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02186883587082068</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08344163260946172</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.02186883587082068</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.08344163260946172</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02176517185344529</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08662205895812082</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.02176517185344529</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.08662205895812082</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02168638946275216</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08980248530677991</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.02168638946275216</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.08980248530677991</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02162907683529704</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.092982911655439</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.02162907683529704</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.092982911655439</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02158982210763571</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0961633380040981</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.02158982210763571</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.0961633380040981</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02156521341632398</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0993437643527572</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.02156521341632398</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.0993437643527572</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02155183889791751</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1025241907014163</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.02155183889791751</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.1025241907014163</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02154628668897213</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1057046170500754</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.02154628668897213</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1057046170500754</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02154514492604359</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1088850433987345</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.02154514492604359</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1088850433987345</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02161571371186935</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1120654697473936</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.02161571371186935</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1120654697473936</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02182681673839361</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1152458960960527</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.02182681673839361</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1152458960960527</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02213311217986107</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1184263224447118</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.02213311217986107</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1184263224447118</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02248856574622929</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1216067487933709</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.02248856574622929</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1216067487933709</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02284714314745587</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.12478717514203</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.02284714314745587</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.12478717514203</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02316281009349842</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1279676014906891</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.02316281009349842</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1279676014906891</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02338953229431449</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1311480278393481</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.02338953229431449</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1311480278393481</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.0234812754598617</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1343284541880073</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.0234812754598617</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1343284541880073</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02344040435988186</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1375088805366664</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.02344040435988186</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1375088805366664</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02331358266370491</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1406893068853254</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.02331358266370491</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1406893068853254</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02310880999649395</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1438697332339846</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.02310880999649395</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1438697332339846</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02283397947869438</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1470501595826436</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.02283397947869438</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1470501595826436</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02249698423075165</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.02249698423075165</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02210571737311115</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1534110122799618</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.02210571737311115</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1534110122799618</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0216680720262183</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1565914386286209</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.0216680720262183</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1565914386286209</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02119194131051852</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.15977186497728</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.02119194131051852</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.15977186497728</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02068521834645726</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1629522913259391</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.02068521834645726</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1629522913259391</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02015579625447987</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1661327176745982</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.02015579625447987</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1661327176745982</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.01961156815503182</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1693131440232573</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.01961156815503182</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1693131440232573</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.01901236467227045</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1724935703719164</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.01901236467227045</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1724935703719164</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.01798037142217887</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1756739967205755</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.01798037142217887</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1756739967205755</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.01682778458221532</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1788544230692346</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.01682778458221532</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1788544230692346</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01604908592075337</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1820348494178937</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.01604908592075337</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1820348494178937</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01595315191327511</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1852152757665528</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.01595315191327511</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1852152757665528</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01595894935968555</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1883957021152119</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.01595894935968555</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1883957021152119</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01597059732304491</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.191576128463871</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.01597059732304491</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.191576128463871</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01598849447288987</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1947565548125301</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.01598849447288987</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1947565548125301</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01601303947875697</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1979369811611892</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.01601303947875697</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1979369811611892</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.01604463101018286</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2011174075098483</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.01604463101018286</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.2011174075098483</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.01608366773670412</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2042978338585074</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.01608366773670412</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.2042978338585074</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.01613054832785737</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2074782602071664</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.01613054832785737</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2074782602071664</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01621699270282261</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2106586865558256</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.01621699270282261</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2106586865558256</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.01662533024323828</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2138391129044847</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.01662533024323828</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2138391129044847</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.01719829535032097</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2170195392531438</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.01719829535032097</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2170195392531438</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.01765558748278953</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2201999656018029</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.01765558748278953</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2201999656018029</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.01798337248713615</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2233803919504619</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.01798337248713615</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2233803919504619</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.01827898924108083</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2265608182991211</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.01827898924108083</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2265608182991211</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.01855137704236169</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2297412446477801</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.01855137704236169</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2297412446477801</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.01880947518871687</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2329216709964392</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.01880947518871687</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2329216709964392</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01906222297788449</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2361020973450983</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.01906222297788449</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2361020973450983</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.01931518841983863</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2392825236937574</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.01931518841983863</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2392825236937574</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01954074732275138</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2424629500424165</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.01954074732275138</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2424629500424165</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01975461083027708</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2456433763910756</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.01975461083027708</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2456433763910756</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01998709621192825</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2488238027397347</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.01998709621192825</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2488238027397347</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02026852073721751</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2520042290883938</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.02026852073721751</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2520042290883938</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02064854301363622</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2551846554370529</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.02064854301363622</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2551846554370529</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02114971009069129</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.258365081785712</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.02114971009069129</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.258365081785712</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02175560700614639</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2615455081343711</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.02175560700614639</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2615455081343711</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0224497809859444</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2647259344830302</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.0224497809859444</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2647259344830302</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02321577925602829</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2679063608316893</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.02321577925602829</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2679063608316893</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02403714904234093</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2710867871803484</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.02403714904234093</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2710867871803484</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02489743757082524</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2742672135290075</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.02489743757082524</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2742672135290075</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02578019206742414</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2774476398776666</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.02578019206742414</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2774476398776666</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02666895975808058</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2806280662263257</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.02666895975808058</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2806280662263257</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02754728786873741</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2838084925749847</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.02754728786873741</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2838084925749847</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02839872362533759</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2869889189236439</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.02839872362533759</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2869889189236439</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02920681425382399</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.290169345272303</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.02920681425382399</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.290169345272303</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02995510698013958</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.293349771620962</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.02995510698013958</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.293349771620962</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0306271490302272</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2965301979696212</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.0306271490302272</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2965301979696212</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03120648763002985</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2997106243182803</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.03120648763002985</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2997106243182803</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03167667000549038</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3028910506669393</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.03167667000549038</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.3028910506669393</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03202124338255175</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3060714770155984</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.03202124338255175</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3060714770155984</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03227253131770426</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3092519033642575</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.03227253131770426</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.3092519033642575</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03223836695110679</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3124323297129166</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.03223836695110679</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3124323297129166</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03140929661583511</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3156127560615757</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.03140929661583511</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3156127560615757</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02969923755446358</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3187931824102348</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.02969923755446358</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3187931824102348</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02741181744782911</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3219736087588939</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.02741181744782911</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3219736087588939</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02485066397676867</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.325154035107553</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.02485066397676867</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.325154035107553</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02231940482211921</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3283344614562121</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.02231940482211921</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3283344614562121</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02012166766471765</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3315148878048712</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.02012166766471765</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3315148878048712</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01856108018540095</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3346953141535303</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.01856108018540095</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3346953141535303</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01772059432502575</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3378757405021894</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.01772059432502575</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3378757405021894</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01697491615767675</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3410561668508485</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.01697491615767675</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3410561668508485</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01626340310606021</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3442365931995076</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.01626340310606021</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3442365931995076</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01559049063496537</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3474170195481667</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.01559049063496537</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3474170195481667</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01496061420918142</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3505974458968258</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.01496061420918142</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3505974458968258</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01437820929349765</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3537778722454849</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.01437820929349765</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3537778722454849</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01384771135270327</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.356958298594144</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.01384771135270327</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.356958298594144</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0133735558515875</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3601387249428031</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.0133735558515875</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3601387249428031</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01296017825493961</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3633191512914622</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.01296017825493961</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3633191512914622</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01261201402754882</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3664995776401213</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.01261201402754882</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3664995776401213</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01233349863420433</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3696800039887804</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.01233349863420433</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3696800039887804</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01212906753969541</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3728604303374394</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.01212906753969541</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3728604303374394</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01200315620881129</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3760408566860985</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.01200315620881129</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3760408566860985</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0119602001063412</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3792212830347576</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.0119602001063412</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3792212830347576</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
